--- a/assets/data/Summary/1633-SiteProgression.xlsx
+++ b/assets/data/Summary/1633-SiteProgression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2423" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="859" uniqueCount="713">
   <si>
     <t>Time</t>
   </si>
@@ -127,7 +127,16 @@
     <t>3.5986 hr</t>
   </si>
   <si>
-    <t>1.8611 hr</t>
+    <t>2.0275 hr</t>
+  </si>
+  <si>
+    <t>4.0969 hr</t>
+  </si>
+  <si>
+    <t>1.7486 hr</t>
+  </si>
+  <si>
+    <t>3.4206 hr</t>
   </si>
   <si>
     <t>mean_MoveTime</t>
@@ -229,7 +238,16 @@
     <t>26.99 min</t>
   </si>
   <si>
-    <t>8.5897 min</t>
+    <t>10.138 min</t>
+  </si>
+  <si>
+    <t>17.558 min</t>
+  </si>
+  <si>
+    <t>8.7431 min</t>
+  </si>
+  <si>
+    <t>17.103 min</t>
   </si>
   <si>
     <t>sum_DrillTime</t>
@@ -328,7 +346,16 @@
     <t>3.0353 hr</t>
   </si>
   <si>
-    <t>2.8536 hr</t>
+    <t>2.7903 hr</t>
+  </si>
+  <si>
+    <t>3.4919 hr</t>
+  </si>
+  <si>
+    <t>2.6694 hr</t>
+  </si>
+  <si>
+    <t>2.965 hr</t>
   </si>
   <si>
     <t>mean_DrillTime</t>
@@ -427,7 +454,16 @@
     <t>20.235 min</t>
   </si>
   <si>
-    <t>12.23 min</t>
+    <t>12.878 min</t>
+  </si>
+  <si>
+    <t>13.968 min</t>
+  </si>
+  <si>
+    <t>12.321 min</t>
+  </si>
+  <si>
+    <t>13.685 min</t>
   </si>
   <si>
     <t>sum_GroutTime</t>
@@ -529,6 +565,15 @@
     <t>2.6075 hr</t>
   </si>
   <si>
+    <t>3.0653 hr</t>
+  </si>
+  <si>
+    <t>2.7672 hr</t>
+  </si>
+  <si>
+    <t>3.0178 hr</t>
+  </si>
+  <si>
     <t>mean_GroutTime</t>
   </si>
   <si>
@@ -625,6 +670,15 @@
     <t>13.038 min</t>
   </si>
   <si>
+    <t>14.147 min</t>
+  </si>
+  <si>
+    <t>12.772 min</t>
+  </si>
+  <si>
+    <t>15.089 min</t>
+  </si>
+  <si>
     <t>sum_InstallTime</t>
   </si>
   <si>
@@ -718,7 +772,16 @@
     <t>5.4372 hr</t>
   </si>
   <si>
-    <t>6.2867 hr</t>
+    <t>6.1203 hr</t>
+  </si>
+  <si>
+    <t>7.3497 hr</t>
+  </si>
+  <si>
+    <t>6.28 hr</t>
+  </si>
+  <si>
+    <t>7.0169 hr</t>
   </si>
   <si>
     <t>mean_InstallTime</t>
@@ -817,7 +880,16 @@
     <t>36.248 min</t>
   </si>
   <si>
-    <t>26.943 min</t>
+    <t>28.247 min</t>
+  </si>
+  <si>
+    <t>29.399 min</t>
+  </si>
+  <si>
+    <t>28.985 min</t>
+  </si>
+  <si>
+    <t>32.386 min</t>
   </si>
   <si>
     <t>sum_DelayTime</t>
@@ -916,7 +988,16 @@
     <t>2.9336 hr</t>
   </si>
   <si>
-    <t>0.77778 hr</t>
+    <t>1.0275 hr</t>
+  </si>
+  <si>
+    <t>2.9856 hr</t>
+  </si>
+  <si>
+    <t>0.75194 hr</t>
+  </si>
+  <si>
+    <t>2.4206 hr</t>
   </si>
   <si>
     <t>mean_DelayTime</t>
@@ -1015,7 +1096,16 @@
     <t>22.002 min</t>
   </si>
   <si>
-    <t>3.5897 min</t>
+    <t>5.1375 min</t>
+  </si>
+  <si>
+    <t>12.795 min</t>
+  </si>
+  <si>
+    <t>3.7597 min</t>
+  </si>
+  <si>
+    <t>12.103 min</t>
   </si>
   <si>
     <t>sum_CycleTime</t>
@@ -1117,6 +1207,15 @@
     <t>7.6622 hr</t>
   </si>
   <si>
+    <t>10.955 hr</t>
+  </si>
+  <si>
+    <t>7.5519 hr</t>
+  </si>
+  <si>
+    <t>9.9628 hr</t>
+  </si>
+  <si>
     <t>mean_CycleTime</t>
   </si>
   <si>
@@ -1213,7 +1312,16 @@
     <t>63.617 min</t>
   </si>
   <si>
-    <t>35.364 min</t>
+    <t>38.311 min</t>
+  </si>
+  <si>
+    <t>46.951 min</t>
+  </si>
+  <si>
+    <t>37.76 min</t>
+  </si>
+  <si>
+    <t>49.814 min</t>
   </si>
   <si>
     <t>sum_PileLength</t>
@@ -1327,6 +1435,15 @@
     <t>8.1478 hr</t>
   </si>
   <si>
+    <t>11.447 hr</t>
+  </si>
+  <si>
+    <t>8.0286 hr</t>
+  </si>
+  <si>
+    <t>10.438 hr</t>
+  </si>
+  <si>
     <t>PileWaste</t>
   </si>
   <si>
@@ -1354,12 +1471,45 @@
     <t>11 hr</t>
   </si>
   <si>
+    <t>11.5 hr</t>
+  </si>
+  <si>
+    <t>-2.5 hr</t>
+  </si>
+  <si>
+    <t>10.5 hr</t>
+  </si>
+  <si>
+    <t>10 hr</t>
+  </si>
+  <si>
+    <t>13 hr</t>
+  </si>
+  <si>
+    <t>-1 hr</t>
+  </si>
+  <si>
+    <t>13.5 hr</t>
+  </si>
+  <si>
+    <t>12.017 hr</t>
+  </si>
+  <si>
+    <t>14 hr</t>
+  </si>
+  <si>
+    <t>7.5 hr</t>
+  </si>
+  <si>
+    <t>12.5 hr</t>
+  </si>
+  <si>
+    <t>15 hr</t>
+  </si>
+  <si>
     <t>12 hr</t>
   </si>
   <si>
-    <t>11.5 hr</t>
-  </si>
-  <si>
     <t>RigWaste</t>
   </si>
   <si>
@@ -1456,7 +1606,16 @@
     <t>79.17 hr</t>
   </si>
   <si>
-    <t>81.031 hr</t>
+    <t>81.197 hr</t>
+  </si>
+  <si>
+    <t>85.294 hr</t>
+  </si>
+  <si>
+    <t>87.043 hr</t>
+  </si>
+  <si>
+    <t>90.463 hr</t>
   </si>
   <si>
     <t>HoursDrilled</t>
@@ -1552,7 +1711,16 @@
     <t>76.213 hr</t>
   </si>
   <si>
-    <t>79.067 hr</t>
+    <t>79.004 hr</t>
+  </si>
+  <si>
+    <t>82.496 hr</t>
+  </si>
+  <si>
+    <t>85.165 hr</t>
+  </si>
+  <si>
+    <t>88.13 hr</t>
   </si>
   <si>
     <t>HoursGrouted</t>
@@ -1651,6 +1819,15 @@
     <t>75.666 hr</t>
   </si>
   <si>
+    <t>78.732 hr</t>
+  </si>
+  <si>
+    <t>81.499 hr</t>
+  </si>
+  <si>
+    <t>84.517 hr</t>
+  </si>
+  <si>
     <t>HoursDelayed</t>
   </si>
   <si>
@@ -1744,7 +1921,16 @@
     <t>49.606 hr</t>
   </si>
   <si>
-    <t>50.384 hr</t>
+    <t>50.633 hr</t>
+  </si>
+  <si>
+    <t>53.619 hr</t>
+  </si>
+  <si>
+    <t>54.371 hr</t>
+  </si>
+  <si>
+    <t>56.791 hr</t>
   </si>
   <si>
     <t>HoursTurn</t>
@@ -1843,6 +2029,15 @@
     <t>254.28 hr</t>
   </si>
   <si>
+    <t>265.72 hr</t>
+  </si>
+  <si>
+    <t>273.75 hr</t>
+  </si>
+  <si>
+    <t>284.19 hr</t>
+  </si>
+  <si>
     <t>HoursCycle</t>
   </si>
   <si>
@@ -1939,6 +2134,15 @@
     <t>237.78 hr</t>
   </si>
   <si>
+    <t>248.74 hr</t>
+  </si>
+  <si>
+    <t>256.29 hr</t>
+  </si>
+  <si>
+    <t>266.25 hr</t>
+  </si>
+  <si>
     <t>DaysRigDrilled</t>
   </si>
   <si>
@@ -1949,213 +2153,6 @@
   </si>
   <si>
     <t>AverageRigWaste</t>
-  </si>
-  <si>
-    <t>2.0275 hr</t>
-  </si>
-  <si>
-    <t>1.8511 hr</t>
-  </si>
-  <si>
-    <t>3.6306 hr</t>
-  </si>
-  <si>
-    <t>10.138 min</t>
-  </si>
-  <si>
-    <t>3.8299 min</t>
-  </si>
-  <si>
-    <t>13.615 min</t>
-  </si>
-  <si>
-    <t>2.7903 hr</t>
-  </si>
-  <si>
-    <t>1.9714 hr</t>
-  </si>
-  <si>
-    <t>3.7464 hr</t>
-  </si>
-  <si>
-    <t>12.878 min</t>
-  </si>
-  <si>
-    <t>3.9428 min</t>
-  </si>
-  <si>
-    <t>13.223 min</t>
-  </si>
-  <si>
-    <t>0 hr</t>
-  </si>
-  <si>
-    <t>3.0653 hr</t>
-  </si>
-  <si>
-    <t>0 min</t>
-  </si>
-  <si>
-    <t>14.147 min</t>
-  </si>
-  <si>
-    <t>6.1203 hr</t>
-  </si>
-  <si>
-    <t>3.2861 hr</t>
-  </si>
-  <si>
-    <t>7.8161 hr</t>
-  </si>
-  <si>
-    <t>28.247 min</t>
-  </si>
-  <si>
-    <t>6.5722 min</t>
-  </si>
-  <si>
-    <t>27.586 min</t>
-  </si>
-  <si>
-    <t>1.0275 hr</t>
-  </si>
-  <si>
-    <t>0.29389 hr</t>
-  </si>
-  <si>
-    <t>2.3525 hr</t>
-  </si>
-  <si>
-    <t>5.1375 min</t>
-  </si>
-  <si>
-    <t>0.60805 min</t>
-  </si>
-  <si>
-    <t>8.8219 min</t>
-  </si>
-  <si>
-    <t>5.0342 hr</t>
-  </si>
-  <si>
-    <t>10.955 hr</t>
-  </si>
-  <si>
-    <t>38.311 min</t>
-  </si>
-  <si>
-    <t>10.416 min</t>
-  </si>
-  <si>
-    <t>41.082 min</t>
-  </si>
-  <si>
-    <t>5.1372 hr</t>
-  </si>
-  <si>
-    <t>11.447 hr</t>
-  </si>
-  <si>
-    <t>-0.5 hr</t>
-  </si>
-  <si>
-    <t>81.197 hr</t>
-  </si>
-  <si>
-    <t>83.048 hr</t>
-  </si>
-  <si>
-    <t>86.679 hr</t>
-  </si>
-  <si>
-    <t>79.004 hr</t>
-  </si>
-  <si>
-    <t>80.975 hr</t>
-  </si>
-  <si>
-    <t>84.721 hr</t>
-  </si>
-  <si>
-    <t>78.732 hr</t>
-  </si>
-  <si>
-    <t>50.633 hr</t>
-  </si>
-  <si>
-    <t>50.927 hr</t>
-  </si>
-  <si>
-    <t>53.28 hr</t>
-  </si>
-  <si>
-    <t>259.41 hr</t>
-  </si>
-  <si>
-    <t>270.86 hr</t>
-  </si>
-  <si>
-    <t>242.82 hr</t>
-  </si>
-  <si>
-    <t>253.77 hr</t>
-  </si>
-  <si>
-    <t>0.71167 hr</t>
-  </si>
-  <si>
-    <t>7.1167 min</t>
-  </si>
-  <si>
-    <t>1.495 hr</t>
-  </si>
-  <si>
-    <t>12.814 min</t>
-  </si>
-  <si>
-    <t>1.1433 hr</t>
-  </si>
-  <si>
-    <t>13.72 min</t>
-  </si>
-  <si>
-    <t>2.9783 hr</t>
-  </si>
-  <si>
-    <t>25.529 min</t>
-  </si>
-  <si>
-    <t>0.21167 hr</t>
-  </si>
-  <si>
-    <t>2.1167 min</t>
-  </si>
-  <si>
-    <t>3.2153 hr</t>
-  </si>
-  <si>
-    <t>32.153 min</t>
-  </si>
-  <si>
-    <t>3.69 hr</t>
-  </si>
-  <si>
-    <t>87.391 hr</t>
-  </si>
-  <si>
-    <t>86.216 hr</t>
-  </si>
-  <si>
-    <t>79.875 hr</t>
-  </si>
-  <si>
-    <t>53.491 hr</t>
-  </si>
-  <si>
-    <t>274.55 hr</t>
-  </si>
-  <si>
-    <t>256.99 hr</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2228,7 +2225,7 @@
     <col min="19" max="19" width="17.85546875" customWidth="true"/>
     <col min="20" max="20" width="16.28515625" customWidth="true"/>
     <col min="21" max="21" width="9.5703125" customWidth="true"/>
-    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="17.85546875" customWidth="true"/>
     <col min="24" max="24" width="11.140625" customWidth="true"/>
     <col min="25" max="25" width="15.85546875" customWidth="true"/>
@@ -2253,82 +2250,82 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2">
@@ -2345,37 +2342,37 @@
         <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="P2" s="0">
         <v>1005.6900000000001</v>
@@ -2393,7 +2390,7 @@
         <v>39.818402127995697</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="V2" s="0">
         <v>1.1696853090760726</v>
@@ -2402,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="X2" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="1">
         <v>45818.474189814813</v>
@@ -2410,10 +2407,14 @@
       <c r="Z2" s="1">
         <v>45818.707037037035</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+      <c r="AA2" s="1">
+        <v>45818.291666666664</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>45818.75</v>
+      </c>
       <c r="AC2" s="0" t="s">
-        <v>30</v>
+        <v>484</v>
       </c>
       <c r="AD2" s="0">
         <v>1.2557008148964817</v>
@@ -2433,37 +2434,37 @@
         <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="P3" s="0">
         <v>1955.6199999999997</v>
@@ -2481,7 +2482,7 @@
         <v>77.429092035866844</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="V3" s="0">
         <v>1.1228337788040632</v>
@@ -2490,7 +2491,7 @@
         <v>90</v>
       </c>
       <c r="X3" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="Y3" s="1">
         <v>45819.317708333336</v>
@@ -2498,10 +2499,14 @@
       <c r="Z3" s="1">
         <v>45819.733402777776</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="AA3" s="1">
+        <v>45819.291666666664</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>45819.770833333336</v>
+      </c>
       <c r="AC3" s="0" t="s">
-        <v>30</v>
+        <v>485</v>
       </c>
       <c r="AD3" s="0">
         <v>1.1623538082857803</v>
@@ -2521,37 +2526,37 @@
         <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="P4" s="0">
         <v>1838.0299999999997</v>
@@ -2569,7 +2574,7 @@
         <v>72.773337373663779</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="V4" s="0">
         <v>1.1624312289766452</v>
@@ -2578,7 +2583,7 @@
         <v>82</v>
       </c>
       <c r="X4" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="1">
         <v>45820.327962962961</v>
@@ -2586,10 +2591,14 @@
       <c r="Z4" s="1">
         <v>45820.684317129628</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="AA4" s="1">
+        <v>45820.291666666664</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>45820.75</v>
+      </c>
       <c r="AC4" s="0" t="s">
-        <v>30</v>
+        <v>484</v>
       </c>
       <c r="AD4" s="0">
         <v>1.1267863060747203</v>
@@ -2609,37 +2618,37 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="P5" s="0">
         <v>2067.6599999999999</v>
@@ -2657,7 +2666,7 @@
         <v>81.865104897107045</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="V5" s="0">
         <v>1.1639757882160529</v>
@@ -2666,7 +2675,7 @@
         <v>92</v>
       </c>
       <c r="X5" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="Y5" s="1">
         <v>45821.328136574077</v>
@@ -2674,10 +2683,14 @@
       <c r="Z5" s="1">
         <v>45821.698125000003</v>
       </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="AA5" s="1">
+        <v>45821.291666666664</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>45821.75</v>
+      </c>
       <c r="AC5" s="0" t="s">
-        <v>30</v>
+        <v>484</v>
       </c>
       <c r="AD5" s="0">
         <v>1.1237999403485905</v>
@@ -2697,37 +2710,37 @@
         <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="P6" s="0">
         <v>1071.9200000000001</v>
@@ -2745,7 +2758,7 @@
         <v>42.440654286152935</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="V6" s="0">
         <v>1.162446734853861</v>
@@ -2754,7 +2767,7 @@
         <v>50</v>
       </c>
       <c r="X6" s="0">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="Y6" s="1">
         <v>45822.310949074075</v>
@@ -2762,10 +2775,14 @@
       <c r="Z6" s="1">
         <v>45822.505462962959</v>
       </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+      <c r="AA6" s="1">
+        <v>45822.291666666664</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>45822.1875</v>
+      </c>
       <c r="AC6" s="0" t="s">
-        <v>30</v>
+        <v>486</v>
       </c>
       <c r="AD6" s="0">
         <v>1.1781156733088689</v>
@@ -2785,37 +2802,37 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="P7" s="0">
         <v>2068.3699999999999</v>
@@ -2833,7 +2850,7 @@
         <v>81.893216010383355</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="V7" s="0">
         <v>1.1644187961541217</v>
@@ -2842,7 +2859,7 @@
         <v>95</v>
       </c>
       <c r="X7" s="0">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="Y7" s="1">
         <v>45824.309444444443</v>
@@ -2850,10 +2867,14 @@
       <c r="Z7" s="1">
         <v>45824.660613425927</v>
       </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="AA7" s="1">
+        <v>45824.291666666664</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>45824.729166666664</v>
+      </c>
       <c r="AC7" s="0" t="s">
-        <v>30</v>
+        <v>487</v>
       </c>
       <c r="AD7" s="0">
         <v>1.1600472496763934</v>
@@ -2873,37 +2894,37 @@
         <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="P8" s="0">
         <v>1071.9200000000001</v>
@@ -2921,7 +2942,7 @@
         <v>42.440654286152942</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="V8" s="0">
         <v>1.2014659259538503</v>
@@ -2930,7 +2951,7 @@
         <v>49</v>
       </c>
       <c r="X8" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y8" s="1">
         <v>45825.322280092594</v>
@@ -2938,10 +2959,14 @@
       <c r="Z8" s="1">
         <v>45825.552372685182</v>
       </c>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
+      <c r="AA8" s="1">
+        <v>45825.291666666664</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>45825.708333333336</v>
+      </c>
       <c r="AC8" s="0" t="s">
-        <v>30</v>
+        <v>488</v>
       </c>
       <c r="AD8" s="0">
         <v>1.1545533598426914</v>
@@ -2961,37 +2986,37 @@
         <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="P9" s="0">
         <v>1445.6899999999998</v>
@@ -3009,7 +3034,7 @@
         <v>94.620189236838073</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="V9" s="0">
         <v>1.1164530619948498</v>
@@ -3018,7 +3043,7 @@
         <v>112</v>
       </c>
       <c r="X9" s="0">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Y9" s="1">
         <v>45827.311574074076</v>
@@ -3026,10 +3051,14 @@
       <c r="Z9" s="1">
         <v>45827.630277777775</v>
       </c>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
+      <c r="AA9" s="1">
+        <v>45827.291666666664</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>45827.75</v>
+      </c>
       <c r="AC9" s="0" t="s">
-        <v>30</v>
+        <v>484</v>
       </c>
       <c r="AD9" s="0">
         <v>1.1836797294883818</v>
@@ -3049,37 +3078,37 @@
         <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="P10" s="0">
         <v>1630.8099999999999</v>
@@ -3097,7 +3126,7 @@
         <v>106.73626490418272</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="V10" s="0">
         <v>1.1267679275451865</v>
@@ -3106,7 +3135,7 @@
         <v>122</v>
       </c>
       <c r="X10" s="0">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="Y10" s="1">
         <v>45828.338171296295</v>
@@ -3114,10 +3143,14 @@
       <c r="Z10" s="1">
         <v>45828.668946759259</v>
       </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="AA10" s="1">
+        <v>45828.25</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>45828.708333333336</v>
+      </c>
       <c r="AC10" s="0" t="s">
-        <v>30</v>
+        <v>484</v>
       </c>
       <c r="AD10" s="0">
         <v>1.1430042086400489</v>
@@ -3137,37 +3170,37 @@
         <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="P11" s="0">
         <v>1446.5899999999997</v>
@@ -3185,7 +3218,7 @@
         <v>94.679094099092893</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="V11" s="0">
         <v>1.1332491192586092</v>
@@ -3194,7 +3227,7 @@
         <v>111</v>
       </c>
       <c r="X11" s="0">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Y11" s="1">
         <v>45831.318877314814</v>
@@ -3202,10 +3235,14 @@
       <c r="Z11" s="1">
         <v>45831.715497685182</v>
       </c>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+      <c r="AA11" s="1">
+        <v>45831.291666666664</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>45831.770833333336</v>
+      </c>
       <c r="AC11" s="0" t="s">
-        <v>30</v>
+        <v>485</v>
       </c>
       <c r="AD11" s="0">
         <v>1.172381306097261</v>
@@ -3225,37 +3262,37 @@
         <v>15</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="P12" s="0">
         <v>1583.1600000000001</v>
@@ -3273,7 +3310,7 @@
         <v>103.61757969702535</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="V12" s="0">
         <v>1.1380404786986671</v>
@@ -3282,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="X12" s="0">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="Y12" s="1">
         <v>45832.309699074074</v>
@@ -3290,10 +3327,14 @@
       <c r="Z12" s="1">
         <v>45832.658715277779</v>
       </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
+      <c r="AA12" s="1">
+        <v>45832.270833333336</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>45832.6875</v>
+      </c>
       <c r="AC12" s="0" t="s">
-        <v>30</v>
+        <v>488</v>
       </c>
       <c r="AD12" s="0">
         <v>0.11581046416146405</v>
@@ -3313,37 +3354,37 @@
         <v>16</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="P13" s="0">
         <v>1584.28</v>
@@ -3361,7 +3402,7 @@
         <v>103.69088352560911</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="V13" s="0">
         <v>1.1425594610806848</v>
@@ -3370,7 +3411,7 @@
         <v>123</v>
       </c>
       <c r="X13" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y13" s="1">
         <v>45833.315787037034</v>
@@ -3378,10 +3419,14 @@
       <c r="Z13" s="1">
         <v>45833.63826388889</v>
       </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="AA13" s="1">
+        <v>45833.270833333336</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>45833.6875</v>
+      </c>
       <c r="AC13" s="0" t="s">
-        <v>30</v>
+        <v>488</v>
       </c>
       <c r="AD13" s="0">
         <v>1.186218072581299</v>
@@ -3401,37 +3446,37 @@
         <v>17</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="P14" s="0">
         <v>1583.2899999999995</v>
@@ -3449,7 +3494,7 @@
         <v>103.62608817712881</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="V14" s="0">
         <v>1.1406104589991377</v>
@@ -3458,7 +3503,7 @@
         <v>122</v>
       </c>
       <c r="X14" s="0">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Y14" s="1">
         <v>45834.33452546296</v>
@@ -3466,10 +3511,14 @@
       <c r="Z14" s="1">
         <v>45834.653807870367</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="AA14" s="1">
+        <v>45834.25</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>45834.791666666664</v>
+      </c>
       <c r="AC14" s="0" t="s">
-        <v>30</v>
+        <v>489</v>
       </c>
       <c r="AD14" s="0">
         <v>1.1773097117346023</v>
@@ -3489,37 +3538,37 @@
         <v>18</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="P15" s="0">
         <v>1386.1299999999999</v>
@@ -3537,7 +3586,7 @@
         <v>90.721996352508768</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="V15" s="0">
         <v>1.138566214952385</v>
@@ -3546,7 +3595,7 @@
         <v>103</v>
       </c>
       <c r="X15" s="0">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="Y15" s="1">
         <v>45835.377766203703</v>
@@ -3554,10 +3603,14 @@
       <c r="Z15" s="1">
         <v>45835.688333333332</v>
       </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
+      <c r="AA15" s="1">
+        <v>45835.291666666664</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>45835.75</v>
+      </c>
       <c r="AC15" s="0" t="s">
-        <v>30</v>
+        <v>484</v>
       </c>
       <c r="AD15" s="0">
         <v>1.1353365682098078</v>
@@ -3577,37 +3630,37 @@
         <v>19</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="P16" s="0">
         <v>1450.2899999999997</v>
@@ -3625,7 +3678,7 @@
         <v>94.921258532807101</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="V16" s="0">
         <v>1.1405348145756238</v>
@@ -3634,7 +3687,7 @@
         <v>122</v>
       </c>
       <c r="X16" s="0">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="Y16" s="1">
         <v>45838.325092592589</v>
@@ -3642,10 +3695,14 @@
       <c r="Z16" s="1">
         <v>45838.672881944447</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
+      <c r="AA16" s="1">
+        <v>45838.291666666664</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>45838.729166666664</v>
+      </c>
       <c r="AC16" s="0" t="s">
-        <v>30</v>
+        <v>487</v>
       </c>
       <c r="AD16" s="0">
         <v>1.2852758368962609</v>
@@ -3665,37 +3722,37 @@
         <v>20</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="P17" s="0">
         <v>1585.0899999999999</v>
@@ -3713,7 +3770,7 @@
         <v>103.74389790163845</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="V17" s="0">
         <v>1.1373199039799773</v>
@@ -3722,7 +3779,7 @@
         <v>122</v>
       </c>
       <c r="X17" s="0">
-        <v>0</v>
+        <v>85.5</v>
       </c>
       <c r="Y17" s="1">
         <v>45839.32335648148</v>
@@ -3730,10 +3787,14 @@
       <c r="Z17" s="1">
         <v>45839.616400462961</v>
       </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
+      <c r="AA17" s="1">
+        <v>45839.25</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>45839.208333333336</v>
+      </c>
       <c r="AC17" s="0" t="s">
-        <v>30</v>
+        <v>490</v>
       </c>
       <c r="AD17" s="0">
         <v>1.1759727797741946</v>
@@ -3753,37 +3814,37 @@
         <v>21</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="P18" s="0">
         <v>1581.0699999999997</v>
@@ -3801,7 +3862,7 @@
         <v>103.4807895169003</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="V18" s="0">
         <v>1.1408784234364466</v>
@@ -3810,7 +3871,7 @@
         <v>122</v>
       </c>
       <c r="X18" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y18" s="1">
         <v>45840.3278125</v>
@@ -3818,10 +3879,14 @@
       <c r="Z18" s="1">
         <v>45840.642962962964</v>
       </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
+      <c r="AA18" s="1">
+        <v>45840.291666666664</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>45840.708333333336</v>
+      </c>
       <c r="AC18" s="0" t="s">
-        <v>30</v>
+        <v>488</v>
       </c>
       <c r="AD18" s="0">
         <v>1.1789627869052466</v>
@@ -3841,37 +3906,37 @@
         <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="P19" s="0">
         <v>663.74000000000001</v>
@@ -3889,7 +3954,7 @@
         <v>43.441681414451857</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="V19" s="0">
         <v>1.1420138075847079</v>
@@ -3898,7 +3963,7 @@
         <v>90</v>
       </c>
       <c r="X19" s="0">
-        <v>0</v>
+        <v>104.5</v>
       </c>
       <c r="Y19" s="1">
         <v>45852.349583333336</v>
@@ -3906,10 +3971,14 @@
       <c r="Z19" s="1">
         <v>45852.54787037037</v>
       </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
+      <c r="AA19" s="1">
+        <v>45852.291666666664</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>45852.854166666664</v>
+      </c>
       <c r="AC19" s="0" t="s">
-        <v>30</v>
+        <v>491</v>
       </c>
       <c r="AD19" s="0">
         <v>2.0717430143037574</v>
@@ -3929,37 +3998,37 @@
         <v>23</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="P20" s="0">
         <v>924.24999999999977</v>
@@ -3977,7 +4046,7 @@
         <v>60.492021043340962</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="V20" s="0">
         <v>1.1509121169900798</v>
@@ -3986,7 +4055,7 @@
         <v>75</v>
       </c>
       <c r="X20" s="0">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="Y20" s="1">
         <v>45853.504849537036</v>
@@ -3994,10 +4063,14 @@
       <c r="Z20" s="1">
         <v>45853.702314814815</v>
       </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
+      <c r="AA20" s="1">
+        <v>45853.291666666664</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>45853.75</v>
+      </c>
       <c r="AC20" s="0" t="s">
-        <v>30</v>
+        <v>484</v>
       </c>
       <c r="AD20" s="0">
         <v>1.2398329350951003</v>
@@ -4017,37 +4090,37 @@
         <v>24</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="P21" s="0">
         <v>1718.8499999999999</v>
@@ -4065,7 +4138,7 @@
         <v>112.498469429642</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="V21" s="0">
         <v>1.1444955709421847</v>
@@ -4074,7 +4147,7 @@
         <v>144</v>
       </c>
       <c r="X21" s="0">
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="Y21" s="1">
         <v>45854.317881944444</v>
@@ -4082,10 +4155,14 @@
       <c r="Z21" s="1">
         <v>45854.686967592592</v>
       </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
+      <c r="AA21" s="1">
+        <v>45854.270833333336</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>45854.771527777775</v>
+      </c>
       <c r="AC21" s="0" t="s">
-        <v>30</v>
+        <v>492</v>
       </c>
       <c r="AD21" s="0">
         <v>1.2800174147263352</v>
@@ -4105,37 +4182,37 @@
         <v>25</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="P22" s="0">
         <v>1588.8299999999999</v>
@@ -4153,7 +4230,7 @@
         <v>103.98868032923065</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="V22" s="0">
         <v>1.1333156611554043</v>
@@ -4162,7 +4239,7 @@
         <v>122</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>107.5</v>
       </c>
       <c r="Y22" s="1">
         <v>45855.312939814816</v>
@@ -4170,10 +4247,14 @@
       <c r="Z22" s="1">
         <v>45855.812800925924</v>
       </c>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
+      <c r="AA22" s="1">
+        <v>45855.270833333336</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>45855.854166666664</v>
+      </c>
       <c r="AC22" s="0" t="s">
-        <v>30</v>
+        <v>493</v>
       </c>
       <c r="AD22" s="0">
         <v>1.1732046181732962</v>
@@ -4193,37 +4274,37 @@
         <v>26</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="P23" s="0">
         <v>1584.3199999999997</v>
@@ -4241,7 +4322,7 @@
         <v>103.6935015194871</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="V23" s="0">
         <v>1.1591661795451205</v>
@@ -4250,7 +4331,7 @@
         <v>152</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="Y23" s="1">
         <v>45856.307025462964</v>
@@ -4258,10 +4339,14 @@
       <c r="Z23" s="1">
         <v>45856.744976851849</v>
       </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
+      <c r="AA23" s="1">
+        <v>45856.270833333336</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>45856.833333333336</v>
+      </c>
       <c r="AC23" s="0" t="s">
-        <v>30</v>
+        <v>491</v>
       </c>
       <c r="AD23" s="0">
         <v>1.4658584942416537</v>
@@ -4281,37 +4366,37 @@
         <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="P24" s="0">
         <v>1057.6699999999998</v>
@@ -4329,7 +4414,7 @@
         <v>69.224339623381582</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="V24" s="0">
         <v>1.1751791413626207</v>
@@ -4338,7 +4423,7 @@
         <v>82</v>
       </c>
       <c r="X24" s="0">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="Y24" s="1">
         <v>45857.318749999999</v>
@@ -4346,10 +4431,14 @@
       <c r="Z24" s="1">
         <v>45857.518773148149</v>
       </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
+      <c r="AA24" s="1">
+        <v>45857.270833333336</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>45857.583333333336</v>
+      </c>
       <c r="AC24" s="0" t="s">
-        <v>30</v>
+        <v>494</v>
       </c>
       <c r="AD24" s="0">
         <v>1.184554456512334</v>
@@ -4369,37 +4458,37 @@
         <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="P25" s="0">
         <v>1851.9599999999998</v>
@@ -4417,7 +4506,7 @@
         <v>121.2104985571282</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="V25" s="0">
         <v>1.1886099118064173</v>
@@ -4426,7 +4515,7 @@
         <v>148</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="Y25" s="1">
         <v>45859.312893518516</v>
@@ -4434,10 +4523,14 @@
       <c r="Z25" s="1">
         <v>45859.670682870368</v>
       </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
+      <c r="AA25" s="1">
+        <v>45859.270833333336</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>45859.791666666664</v>
+      </c>
       <c r="AC25" s="0" t="s">
-        <v>30</v>
+        <v>495</v>
       </c>
       <c r="AD25" s="0">
         <v>1.2210163456282257</v>
@@ -4457,37 +4550,37 @@
         <v>29</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="P26" s="0">
         <v>933.63999999999999</v>
@@ -4505,7 +4598,7 @@
         <v>61.106595106199471</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="V26" s="0">
         <v>1.1449827940569008</v>
@@ -4514,7 +4607,7 @@
         <v>102</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Y26" s="1">
         <v>45860.346666666665</v>
@@ -4522,10 +4615,14 @@
       <c r="Z26" s="1">
         <v>45860.568749999999</v>
       </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
+      <c r="AA26" s="1">
+        <v>45860.270833333336</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>45860.895833333336</v>
+      </c>
       <c r="AC26" s="0" t="s">
-        <v>30</v>
+        <v>496</v>
       </c>
       <c r="AD26" s="0">
         <v>1.6692142611240297</v>
@@ -4543,37 +4640,37 @@
         <v>30</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P27" s="0"/>
       <c r="Q27" s="0"/>
@@ -4611,37 +4708,37 @@
         <v>31</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="P28" s="0">
         <v>1339.1999999999998</v>
@@ -4659,7 +4756,7 @@
         <v>87.650435035155226</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="V28" s="0">
         <v>1.1351683532442582</v>
@@ -4668,7 +4765,7 @@
         <v>112</v>
       </c>
       <c r="X28" s="0">
-        <v>0</v>
+        <v>120.5</v>
       </c>
       <c r="Y28" s="1">
         <v>45863.302974537037</v>
@@ -4676,10 +4773,14 @@
       <c r="Z28" s="1">
         <v>45863.68204861111</v>
       </c>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
+      <c r="AA28" s="1">
+        <v>45863.25</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>45863.729166666664</v>
+      </c>
       <c r="AC28" s="0" t="s">
-        <v>30</v>
+        <v>485</v>
       </c>
       <c r="AD28" s="0">
         <v>1.2778031273327799</v>
@@ -4699,37 +4800,37 @@
         <v>32</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="P29" s="0">
         <v>1720.7099999999996</v>
@@ -4747,7 +4848,7 @@
         <v>112.62020614496859</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="V29" s="0">
         <v>1.1297794983274803</v>
@@ -4756,7 +4857,7 @@
         <v>129</v>
       </c>
       <c r="X29" s="0">
-        <v>0</v>
+        <v>114.5</v>
       </c>
       <c r="Y29" s="1">
         <v>45864.29519675926</v>
@@ -4764,10 +4865,14 @@
       <c r="Z29" s="1">
         <v>45864.701724537037</v>
       </c>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
+      <c r="AA29" s="1">
+        <v>45864.270833333336</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>45864.75</v>
+      </c>
       <c r="AC29" s="0" t="s">
-        <v>30</v>
+        <v>485</v>
       </c>
       <c r="AD29" s="0">
         <v>1.1454427621447147</v>
@@ -4787,37 +4892,37 @@
         <v>33</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="P30" s="0">
         <v>1739.2999999999997</v>
@@ -4835,7 +4940,7 @@
         <v>113.83691879976516</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="V30" s="0">
         <v>1.1352819574054267</v>
@@ -4859,7 +4964,7 @@
         <v>45866.75</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="AD30" s="0">
         <v>1.1332000317656712</v>
@@ -4879,37 +4984,37 @@
         <v>34</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="P31" s="0">
         <v>1726.3699999999997</v>
@@ -4927,7 +5032,7 @@
         <v>112.9906522787044</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="V31" s="0">
         <v>1.1175260736484693</v>
@@ -4951,7 +5056,7 @@
         <v>45867.770833333336</v>
       </c>
       <c r="AC31" s="0" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="AD31" s="0">
         <v>1.1151364954439464</v>
@@ -4971,37 +5076,37 @@
         <v>35</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="P32" s="0">
         <v>1199.3999999999999</v>
@@ -5019,7 +5124,7 @@
         <v>78.500546431574961</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="V32" s="0">
         <v>1.1417882304568021</v>
@@ -5043,7 +5148,7 @@
         <v>45868.729166666664</v>
       </c>
       <c r="AC32" s="0" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="AD32" s="0">
         <v>1.171966364338519</v>
@@ -5063,37 +5168,37 @@
         <v>36</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="P33" s="0">
         <v>1230.2199999999998</v>
@@ -5111,7 +5216,7 @@
         <v>80.517710714567386</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="V33" s="0">
         <v>1.1620300573582039</v>
@@ -5135,7 +5240,7 @@
         <v>45869.75</v>
       </c>
       <c r="AC33" s="0" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="AD33" s="0">
         <v>1.1426057594475947</v>
@@ -5152,40 +5257,40 @@
         <v>13</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>645</v>
+        <v>37</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>648</v>
+        <v>74</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>651</v>
+        <v>110</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>654</v>
+        <v>146</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>661</v>
+        <v>252</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>664</v>
+        <v>288</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>667</v>
+        <v>324</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>670</v>
+        <v>360</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>675</v>
+        <v>432</v>
       </c>
       <c r="P34" s="0">
         <v>1728.6299999999999</v>
@@ -5203,7 +5308,7 @@
         <v>113.13856893281093</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="V34" s="0">
         <v>1.1435092490592784</v>
@@ -5224,10 +5329,10 @@
         <v>45870.270833333336</v>
       </c>
       <c r="AB34" s="1">
-        <v>45870.25</v>
+        <v>45870.75</v>
       </c>
       <c r="AC34" s="0" t="s">
-        <v>680</v>
+        <v>485</v>
       </c>
       <c r="AD34" s="0">
         <v>1.1136785729968621</v>
@@ -5240,86 +5345,64 @@
       <c r="B35" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35" s="0"/>
+      <c r="D35" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>646</v>
-      </c>
       <c r="E35" s="0" t="s">
-        <v>649</v>
+        <v>67</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>652</v>
+        <v>30</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>655</v>
+        <v>67</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>657</v>
+        <v>30</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>659</v>
+        <v>67</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>662</v>
+        <v>30</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>665</v>
+        <v>67</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>668</v>
+        <v>30</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>671</v>
+        <v>67</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>673</v>
+        <v>30</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="P35" s="0">
-        <v>903.51999999999987</v>
-      </c>
-      <c r="Q35" s="0">
-        <v>30.117333333333328</v>
-      </c>
-      <c r="R35" s="0">
-        <v>0</v>
-      </c>
-      <c r="S35" s="0">
-        <v>0</v>
-      </c>
-      <c r="T35" s="0">
-        <v>59.135245716071879</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
       <c r="U35" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="V35" s="0">
-        <v>0</v>
-      </c>
-      <c r="W35" s="0">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
       <c r="X35" s="0">
         <v>0</v>
       </c>
-      <c r="Y35" s="1">
-        <v>45871.361886574072</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>45871.575937499998</v>
-      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AD35" s="0">
-        <v>0</v>
-      </c>
+      <c r="AD35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="1">
@@ -5329,70 +5412,70 @@
         <v>2</v>
       </c>
       <c r="C36" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>647</v>
+        <v>38</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>650</v>
+        <v>75</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>653</v>
+        <v>111</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>656</v>
+        <v>147</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>658</v>
+        <v>183</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>660</v>
+        <v>218</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>663</v>
+        <v>253</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>666</v>
+        <v>289</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>669</v>
+        <v>325</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>672</v>
+        <v>361</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>674</v>
+        <v>397</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>677</v>
+        <v>433</v>
       </c>
       <c r="P36" s="0">
-        <v>2048.6399999999994</v>
+        <v>2001.0499999999995</v>
       </c>
       <c r="Q36" s="0">
-        <v>120.50823529411761</v>
+        <v>133.40333333333331</v>
       </c>
       <c r="R36" s="0">
-        <v>0.81228452492345316</v>
+        <v>1.142158900785986</v>
       </c>
       <c r="S36" s="0">
-        <v>120.61199999999999</v>
+        <v>149.59200000000001</v>
       </c>
       <c r="T36" s="0">
-        <v>134.08317445521237</v>
+        <v>130.96841623887198</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>679</v>
+        <v>473</v>
       </c>
       <c r="V36" s="0">
-        <v>0.89953120881910398</v>
+        <v>1.1421990453573223</v>
       </c>
       <c r="W36" s="0">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="X36" s="0">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Y36" s="1">
         <v>45873.303935185184</v>
@@ -5400,100 +5483,196 @@
       <c r="Z36" s="1">
         <v>45873.78087962963</v>
       </c>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
+      <c r="AA36" s="1">
+        <v>45873.270833333336</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>45873.833333333336</v>
+      </c>
       <c r="AC36" s="0" t="s">
-        <v>30</v>
+        <v>491</v>
       </c>
       <c r="AD36" s="0">
-        <v>0</v>
+        <v>1.1605851575907333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>45875</v>
+        <v>45874</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>695</v>
+        <v>39</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>696</v>
+        <v>76</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>697</v>
+        <v>112</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>698</v>
+        <v>148</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>699</v>
+        <v>184</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>700</v>
+        <v>219</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>701</v>
+        <v>254</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>702</v>
+        <v>290</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>703</v>
+        <v>326</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>704</v>
+        <v>362</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>705</v>
+        <v>398</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>706</v>
+        <v>434</v>
       </c>
       <c r="P37" s="0">
-        <v>828.11000000000013</v>
+        <v>1793.8199999999997</v>
       </c>
       <c r="Q37" s="0">
-        <v>118.30142857142859</v>
+        <v>137.98615384615383</v>
       </c>
       <c r="R37" s="0">
-        <v>0.64431142268031594</v>
+        <v>1.1442017577271826</v>
       </c>
       <c r="S37" s="0">
-        <v>40.019999999999996</v>
+        <v>134.34299999999999</v>
       </c>
       <c r="T37" s="0">
-        <v>54.199672757588402</v>
+        <v>117.40524445546755</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>707</v>
+        <v>474</v>
       </c>
       <c r="V37" s="0">
-        <v>0.73838084187319863</v>
+        <v>1.1442674526431145</v>
       </c>
       <c r="W37" s="0">
+        <v>128</v>
+      </c>
+      <c r="X37" s="0">
+        <v>89.5</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>45874.305821759262</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>45874.640347222223</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>45874.270833333336</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>45874.75</v>
+      </c>
+      <c r="AC37" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD37" s="0">
+        <v>1.0902409052821409</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="0">
+        <v>13</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="P38" s="0">
+        <v>1743.9399999999998</v>
+      </c>
+      <c r="Q38" s="0">
+        <v>134.14923076923077</v>
+      </c>
+      <c r="R38" s="0">
+        <v>1.1189782163895752</v>
+      </c>
+      <c r="S38" s="0">
+        <v>127.71900000000002</v>
+      </c>
+      <c r="T38" s="0">
+        <v>114.14060608961216</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="V38" s="0">
+        <v>1.1189619923669183</v>
+      </c>
+      <c r="W38" s="0">
         <v>0</v>
       </c>
-      <c r="X37" s="0">
+      <c r="X38" s="0">
         <v>0</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Y38" s="1">
         <v>45875.298750000002</v>
       </c>
-      <c r="Z37" s="1">
-        <v>45875.452499999999</v>
-      </c>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="0" t="s">
+      <c r="Z38" s="1">
+        <v>45875.73364583333</v>
+      </c>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AD37" s="0">
+      <c r="AD38" s="0">
         <v>0</v>
       </c>
     </row>
@@ -5503,7 +5682,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5527,1742 +5706,1789 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>439</v>
+      <c r="D1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H1" t="s">
+        <v>639</v>
+      </c>
+      <c r="I1" t="s">
+        <v>674</v>
+      </c>
+      <c r="J1" t="s">
+        <v>709</v>
+      </c>
+      <c r="K1" t="s">
+        <v>710</v>
+      </c>
+      <c r="L1" t="s">
+        <v>711</v>
+      </c>
+      <c r="M1" t="s">
+        <v>712</v>
+      </c>
+      <c r="N1" t="s">
+        <v>477</v>
+      </c>
+      <c r="O1" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>45818</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="J2" s="0">
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="0">
+      <c r="K2">
         <v>71.835000000000008</v>
       </c>
-      <c r="L2" s="0">
+      <c r="L2">
         <v>1.1696853090760726</v>
       </c>
-      <c r="M2" s="0">
+      <c r="M2">
         <v>1.2557008148964817</v>
       </c>
-      <c r="N2" s="0">
+      <c r="N2">
         <v>50</v>
       </c>
-      <c r="O2" s="0">
-        <v>0</v>
+      <c r="O2">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>45819</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>40</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="J3" s="0">
+      <c r="D3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F3" t="s">
+        <v>570</v>
+      </c>
+      <c r="G3" t="s">
+        <v>605</v>
+      </c>
+      <c r="H3" t="s">
+        <v>640</v>
+      </c>
+      <c r="I3" t="s">
+        <v>675</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3" s="0">
+      <c r="K3">
         <v>74.032749999999993</v>
       </c>
-      <c r="L3" s="0">
+      <c r="L3">
         <v>1.1392318143992664</v>
       </c>
-      <c r="M3" s="0">
+      <c r="M3">
         <v>1.1950252605995257</v>
       </c>
-      <c r="N3" s="0">
+      <c r="N3">
         <v>140</v>
       </c>
-      <c r="O3" s="0">
-        <v>0</v>
+      <c r="O3">
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>45820</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>64</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="J4" s="0">
+      <c r="D4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E4" t="s">
+        <v>536</v>
+      </c>
+      <c r="F4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G4" t="s">
+        <v>606</v>
+      </c>
+      <c r="H4" t="s">
+        <v>641</v>
+      </c>
+      <c r="I4" t="s">
+        <v>676</v>
+      </c>
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="K4" s="0">
+      <c r="K4">
         <v>74.989687499999988</v>
       </c>
-      <c r="L4" s="0">
+      <c r="L4">
         <v>1.1479315948657836</v>
       </c>
-      <c r="M4" s="0">
+      <c r="M4">
         <v>1.1694356526527236</v>
       </c>
-      <c r="N4" s="0">
+      <c r="N4">
         <v>222</v>
       </c>
-      <c r="O4" s="0">
-        <v>0</v>
+      <c r="O4">
+        <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>45821</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>91</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="J5" s="0">
+      <c r="D5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F5" t="s">
+        <v>572</v>
+      </c>
+      <c r="G5" t="s">
+        <v>607</v>
+      </c>
+      <c r="H5" t="s">
+        <v>642</v>
+      </c>
+      <c r="I5" t="s">
+        <v>677</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="K5" s="0">
+      <c r="K5">
         <v>75.461538461538453</v>
       </c>
-      <c r="L5" s="0">
+      <c r="L5">
         <v>1.1526919599257535</v>
       </c>
-      <c r="M5" s="0">
+      <c r="M5">
         <v>1.1558953863646841</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N5">
         <v>314</v>
       </c>
-      <c r="O5" s="0">
-        <v>0</v>
+      <c r="O5">
+        <v>307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>45822</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>105</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="J6" s="0">
+      <c r="D6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" t="s">
+        <v>538</v>
+      </c>
+      <c r="F6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G6" t="s">
+        <v>608</v>
+      </c>
+      <c r="H6" t="s">
+        <v>643</v>
+      </c>
+      <c r="I6" t="s">
+        <v>678</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6" s="0">
+      <c r="K6">
         <v>75.608761904761892</v>
       </c>
-      <c r="L6" s="0">
+      <c r="L6">
         <v>1.1539925965828344</v>
       </c>
-      <c r="M6" s="0">
+      <c r="M6">
         <v>1.1588580912905755</v>
       </c>
-      <c r="N6" s="0">
+      <c r="N6">
         <v>364</v>
       </c>
-      <c r="O6" s="0">
-        <v>0</v>
+      <c r="O6">
+        <v>373.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>45824</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>132</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="J7" s="0">
+      <c r="D7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F7" t="s">
+        <v>574</v>
+      </c>
+      <c r="G7" t="s">
+        <v>609</v>
+      </c>
+      <c r="H7" t="s">
+        <v>644</v>
+      </c>
+      <c r="I7" t="s">
+        <v>679</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="K7" s="0">
+      <c r="K7">
         <v>75.81280303030303</v>
       </c>
-      <c r="L7" s="0">
+      <c r="L7">
         <v>1.156125228313325</v>
       </c>
-      <c r="M7" s="0">
+      <c r="M7">
         <v>1.1591013282331291</v>
       </c>
-      <c r="N7" s="0">
+      <c r="N7">
         <v>459</v>
       </c>
-      <c r="O7" s="0">
-        <v>0</v>
+      <c r="O7">
+        <v>446.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>45825</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>146</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="J8" s="0">
+      <c r="D8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E8" t="s">
+        <v>540</v>
+      </c>
+      <c r="F8" t="s">
+        <v>575</v>
+      </c>
+      <c r="G8" t="s">
+        <v>610</v>
+      </c>
+      <c r="H8" t="s">
+        <v>645</v>
+      </c>
+      <c r="I8" t="s">
+        <v>680</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="K8" s="0">
+      <c r="K8">
         <v>75.884999999999991</v>
       </c>
-      <c r="L8" s="0">
+      <c r="L8">
         <v>1.1604729664432385</v>
       </c>
-      <c r="M8" s="0">
+      <c r="M8">
         <v>1.1586652216751419</v>
       </c>
-      <c r="N8" s="0">
+      <c r="N8">
         <v>508</v>
       </c>
-      <c r="O8" s="0">
-        <v>0</v>
+      <c r="O8">
+        <v>526.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>45827</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>157</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="J9" s="0">
+      <c r="D9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F9" t="s">
+        <v>576</v>
+      </c>
+      <c r="G9" t="s">
+        <v>611</v>
+      </c>
+      <c r="H9" t="s">
+        <v>646</v>
+      </c>
+      <c r="I9" t="s">
+        <v>681</v>
+      </c>
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="K9" s="0">
+      <c r="K9">
         <v>79.77643312101911</v>
       </c>
-      <c r="L9" s="0">
+      <c r="L9">
         <v>1.1573887693162814</v>
       </c>
-      <c r="M9" s="0">
+      <c r="M9">
         <v>1.1604178305028212</v>
       </c>
-      <c r="N9" s="0">
+      <c r="N9">
         <v>620</v>
       </c>
-      <c r="O9" s="0">
-        <v>0</v>
+      <c r="O9">
+        <v>592.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>45828</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>169</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="J10" s="0">
+      <c r="D10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F10" t="s">
+        <v>577</v>
+      </c>
+      <c r="G10" t="s">
+        <v>612</v>
+      </c>
+      <c r="H10" t="s">
+        <v>647</v>
+      </c>
+      <c r="I10" t="s">
+        <v>682</v>
+      </c>
+      <c r="J10">
         <v>9</v>
       </c>
-      <c r="K10" s="0">
+      <c r="K10">
         <v>83.761597633136091</v>
       </c>
-      <c r="L10" s="0">
+      <c r="L10">
         <v>1.1552145083621208</v>
       </c>
-      <c r="M10" s="0">
+      <c r="M10">
         <v>1.1591813603113816</v>
       </c>
-      <c r="N10" s="0">
+      <c r="N10">
         <v>742</v>
       </c>
-      <c r="O10" s="0">
-        <v>0</v>
+      <c r="O10">
+        <v>678.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>45831</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>180</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="J11" s="0">
+      <c r="D11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E11" t="s">
+        <v>543</v>
+      </c>
+      <c r="F11" t="s">
+        <v>578</v>
+      </c>
+      <c r="G11" t="s">
+        <v>613</v>
+      </c>
+      <c r="H11" t="s">
+        <v>648</v>
+      </c>
+      <c r="I11" t="s">
+        <v>683</v>
+      </c>
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="K11" s="0">
+      <c r="K11">
         <v>86.679444444444442</v>
       </c>
-      <c r="L11" s="0">
+      <c r="L11">
         <v>1.1538721790280173</v>
       </c>
-      <c r="M11" s="0">
+      <c r="M11">
         <v>1.1599880236649633</v>
       </c>
-      <c r="N11" s="0">
+      <c r="N11">
         <v>853</v>
       </c>
-      <c r="O11" s="0">
-        <v>0</v>
+      <c r="O11">
+        <v>768.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>45832</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>192</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="J12" s="0">
+      <c r="D12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E12" t="s">
+        <v>544</v>
+      </c>
+      <c r="F12" t="s">
+        <v>579</v>
+      </c>
+      <c r="G12" t="s">
+        <v>614</v>
+      </c>
+      <c r="H12" t="s">
+        <v>649</v>
+      </c>
+      <c r="I12" t="s">
+        <v>684</v>
+      </c>
+      <c r="J12">
         <v>11</v>
       </c>
-      <c r="K12" s="0">
+      <c r="K12">
         <v>89.507604166666667</v>
       </c>
-      <c r="L12" s="0">
+      <c r="L12">
         <v>1.1528826977574329</v>
       </c>
-      <c r="M12" s="0">
+      <c r="M12">
         <v>1.0947269261959947</v>
       </c>
-      <c r="N12" s="0">
+      <c r="N12">
         <v>865</v>
       </c>
-      <c r="O12" s="0">
-        <v>0</v>
+      <c r="O12">
+        <v>851.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>45833</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>204</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="J13" s="0">
+      <c r="D13" t="s">
+        <v>510</v>
+      </c>
+      <c r="E13" t="s">
+        <v>545</v>
+      </c>
+      <c r="F13" t="s">
+        <v>580</v>
+      </c>
+      <c r="G13" t="s">
+        <v>615</v>
+      </c>
+      <c r="H13" t="s">
+        <v>650</v>
+      </c>
+      <c r="I13" t="s">
+        <v>685</v>
+      </c>
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <v>92.008529411764698</v>
       </c>
-      <c r="L13" s="0">
+      <c r="L13">
         <v>1.1522754485411537</v>
       </c>
-      <c r="M13" s="0">
+      <c r="M13">
         <v>1.1001087583363067</v>
       </c>
-      <c r="N13" s="0">
+      <c r="N13">
         <v>988</v>
       </c>
-      <c r="O13" s="0">
-        <v>0</v>
+      <c r="O13">
+        <v>931.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>45834</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>216</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="J14" s="0">
+      <c r="D14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E14" t="s">
+        <v>546</v>
+      </c>
+      <c r="F14" t="s">
+        <v>581</v>
+      </c>
+      <c r="G14" t="s">
+        <v>616</v>
+      </c>
+      <c r="H14" t="s">
+        <v>651</v>
+      </c>
+      <c r="I14" t="s">
+        <v>686</v>
+      </c>
+      <c r="J14">
         <v>13</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <v>94.226990740740732</v>
       </c>
-      <c r="L14" s="0">
+      <c r="L14">
         <v>1.1516273935665973</v>
       </c>
-      <c r="M14" s="0">
+      <c r="M14">
         <v>1.1043977001917678</v>
       </c>
-      <c r="N14" s="0">
+      <c r="N14">
         <v>1110</v>
       </c>
-      <c r="O14" s="0">
-        <v>0</v>
+      <c r="O14">
+        <v>1030.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>45835</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>226</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="J15" s="0">
+      <c r="D15" t="s">
+        <v>512</v>
+      </c>
+      <c r="E15" t="s">
+        <v>547</v>
+      </c>
+      <c r="F15" t="s">
+        <v>582</v>
+      </c>
+      <c r="G15" t="s">
+        <v>617</v>
+      </c>
+      <c r="H15" t="s">
+        <v>652</v>
+      </c>
+      <c r="I15" t="s">
+        <v>687</v>
+      </c>
+      <c r="J15">
         <v>14</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <v>96.190973451327437</v>
       </c>
-      <c r="L15" s="0">
+      <c r="L15">
         <v>1.1510494653093311</v>
       </c>
-      <c r="M15" s="0">
+      <c r="M15">
         <v>1.105766676652743</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15">
         <v>1213</v>
       </c>
-      <c r="O15" s="0">
-        <v>0</v>
+      <c r="O15">
+        <v>1116.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>45838</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>237</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="J16" s="0">
+      <c r="D16" t="s">
+        <v>513</v>
+      </c>
+      <c r="E16" t="s">
+        <v>548</v>
+      </c>
+      <c r="F16" t="s">
+        <v>583</v>
+      </c>
+      <c r="G16" t="s">
+        <v>618</v>
+      </c>
+      <c r="H16" t="s">
+        <v>653</v>
+      </c>
+      <c r="I16" t="s">
+        <v>688</v>
+      </c>
+      <c r="J16">
         <v>15</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <v>97.845780590717297</v>
       </c>
-      <c r="L16" s="0">
+      <c r="L16">
         <v>1.1505614435453195</v>
       </c>
-      <c r="M16" s="0">
+      <c r="M16">
         <v>1.1140983254404169</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16">
         <v>1335</v>
       </c>
-      <c r="O16" s="0">
-        <v>0</v>
+      <c r="O16">
+        <v>1199.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <v>45839</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>249</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="J17" s="0">
+      <c r="D17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E17" t="s">
+        <v>549</v>
+      </c>
+      <c r="F17" t="s">
+        <v>584</v>
+      </c>
+      <c r="G17" t="s">
+        <v>619</v>
+      </c>
+      <c r="H17" t="s">
+        <v>654</v>
+      </c>
+      <c r="I17" t="s">
+        <v>689</v>
+      </c>
+      <c r="J17">
         <v>16</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <v>99.496144578313263</v>
       </c>
-      <c r="L17" s="0">
+      <c r="L17">
         <v>1.1499232970602427</v>
       </c>
-      <c r="M17" s="0">
+      <c r="M17">
         <v>1.1170802268540927</v>
       </c>
-      <c r="N17" s="0">
+      <c r="N17">
         <v>1457</v>
       </c>
-      <c r="O17" s="0">
-        <v>0</v>
+      <c r="O17">
+        <v>1285</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>45840</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>261</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="J18" s="0">
+      <c r="D18" t="s">
+        <v>515</v>
+      </c>
+      <c r="E18" t="s">
+        <v>550</v>
+      </c>
+      <c r="F18" t="s">
+        <v>585</v>
+      </c>
+      <c r="G18" t="s">
+        <v>620</v>
+      </c>
+      <c r="H18" t="s">
+        <v>655</v>
+      </c>
+      <c r="I18" t="s">
+        <v>690</v>
+      </c>
+      <c r="J18">
         <v>17</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <v>100.97934865900383</v>
       </c>
-      <c r="L18" s="0">
+      <c r="L18">
         <v>1.1495074408016774</v>
       </c>
-      <c r="M18" s="0">
+      <c r="M18">
         <v>1.1199254020288585</v>
       </c>
-      <c r="N18" s="0">
+      <c r="N18">
         <v>1579</v>
       </c>
-      <c r="O18" s="0">
-        <v>0</v>
+      <c r="O18">
+        <v>1365</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>45852</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>266</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="J19" s="0">
+      <c r="D19" t="s">
+        <v>516</v>
+      </c>
+      <c r="E19" t="s">
+        <v>551</v>
+      </c>
+      <c r="F19" t="s">
+        <v>586</v>
+      </c>
+      <c r="G19" t="s">
+        <v>621</v>
+      </c>
+      <c r="H19" t="s">
+        <v>656</v>
+      </c>
+      <c r="I19" t="s">
+        <v>691</v>
+      </c>
+      <c r="J19">
         <v>18</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <v>101.57650375939851</v>
       </c>
-      <c r="L19" s="0">
+      <c r="L19">
         <v>1.1493665830344411</v>
       </c>
-      <c r="M19" s="0">
+      <c r="M19">
         <v>1.1378167105302663</v>
       </c>
-      <c r="N19" s="0">
+      <c r="N19">
         <v>1669</v>
       </c>
-      <c r="O19" s="0">
-        <v>0</v>
+      <c r="O19">
+        <v>1469.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>45853</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>273</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="J20" s="0">
+      <c r="D20" t="s">
+        <v>517</v>
+      </c>
+      <c r="E20" t="s">
+        <v>552</v>
+      </c>
+      <c r="F20" t="s">
+        <v>587</v>
+      </c>
+      <c r="G20" t="s">
+        <v>622</v>
+      </c>
+      <c r="H20" t="s">
+        <v>657</v>
+      </c>
+      <c r="I20" t="s">
+        <v>692</v>
+      </c>
+      <c r="J20">
         <v>19</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <v>102.35750915750917</v>
       </c>
-      <c r="L20" s="0">
+      <c r="L20">
         <v>1.1494062121102266</v>
       </c>
-      <c r="M20" s="0">
+      <c r="M20">
         <v>1.1404325111601339</v>
       </c>
-      <c r="N20" s="0">
+      <c r="N20">
         <v>1744</v>
       </c>
-      <c r="O20" s="0">
-        <v>0</v>
+      <c r="O20">
+        <v>1556</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>45854</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>286</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="J21" s="0">
+      <c r="D21" t="s">
+        <v>518</v>
+      </c>
+      <c r="E21" t="s">
+        <v>553</v>
+      </c>
+      <c r="F21" t="s">
+        <v>588</v>
+      </c>
+      <c r="G21" t="s">
+        <v>623</v>
+      </c>
+      <c r="H21" t="s">
+        <v>658</v>
+      </c>
+      <c r="I21" t="s">
+        <v>693</v>
+      </c>
+      <c r="J21">
         <v>20</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <v>103.71486013986014</v>
       </c>
-      <c r="L21" s="0">
+      <c r="L21">
         <v>1.1491830011480428</v>
       </c>
-      <c r="M21" s="0">
+      <c r="M21">
         <v>1.1467772795040521</v>
       </c>
-      <c r="N21" s="0">
+      <c r="N21">
         <v>1888</v>
       </c>
-      <c r="O21" s="0">
-        <v>0</v>
+      <c r="O21">
+        <v>1652.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>45855</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>298</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="J22" s="0">
+      <c r="D22" t="s">
+        <v>519</v>
+      </c>
+      <c r="E22" t="s">
+        <v>554</v>
+      </c>
+      <c r="F22" t="s">
+        <v>589</v>
+      </c>
+      <c r="G22" t="s">
+        <v>624</v>
+      </c>
+      <c r="H22" t="s">
+        <v>659</v>
+      </c>
+      <c r="I22" t="s">
+        <v>694</v>
+      </c>
+      <c r="J22">
         <v>21</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22">
         <v>104.87006711409396</v>
       </c>
-      <c r="L22" s="0">
+      <c r="L22">
         <v>1.1485440478597486</v>
       </c>
-      <c r="M22" s="0">
+      <c r="M22">
         <v>1.1478414676383841</v>
       </c>
-      <c r="N22" s="0">
+      <c r="N22">
         <v>2010</v>
       </c>
-      <c r="O22" s="0">
-        <v>0</v>
+      <c r="O22">
+        <v>1760</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <v>45856</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>310</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="J23" s="0">
+      <c r="D23" t="s">
+        <v>520</v>
+      </c>
+      <c r="E23" t="s">
+        <v>555</v>
+      </c>
+      <c r="F23" t="s">
+        <v>590</v>
+      </c>
+      <c r="G23" t="s">
+        <v>625</v>
+      </c>
+      <c r="H23" t="s">
+        <v>660</v>
+      </c>
+      <c r="I23" t="s">
+        <v>695</v>
+      </c>
+      <c r="J23">
         <v>22</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23">
         <v>105.92129032258065</v>
       </c>
-      <c r="L23" s="0">
+      <c r="L23">
         <v>1.1489552271507952</v>
       </c>
-      <c r="M23" s="0">
+      <c r="M23">
         <v>1.1601518041520591</v>
       </c>
-      <c r="N23" s="0">
+      <c r="N23">
         <v>2162</v>
       </c>
-      <c r="O23" s="0">
-        <v>0</v>
+      <c r="O23">
+        <v>1863.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <v>45857</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>318</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="J24" s="0">
+      <c r="D24" t="s">
+        <v>521</v>
+      </c>
+      <c r="E24" t="s">
+        <v>556</v>
+      </c>
+      <c r="F24" t="s">
+        <v>591</v>
+      </c>
+      <c r="G24" t="s">
+        <v>626</v>
+      </c>
+      <c r="H24" t="s">
+        <v>661</v>
+      </c>
+      <c r="I24" t="s">
+        <v>696</v>
+      </c>
+      <c r="J24">
         <v>23</v>
       </c>
-      <c r="K24" s="0">
+      <c r="K24">
         <v>106.58261006289307</v>
       </c>
-      <c r="L24" s="0">
+      <c r="L24">
         <v>1.1496149482630424</v>
       </c>
-      <c r="M24" s="0">
+      <c r="M24">
         <v>1.1607657073560911</v>
       </c>
-      <c r="N24" s="0">
+      <c r="N24">
         <v>2244</v>
       </c>
-      <c r="O24" s="0">
-        <v>0</v>
+      <c r="O24">
+        <v>1924</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
         <v>45859</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>332</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="J25" s="0">
+      <c r="D25" t="s">
+        <v>522</v>
+      </c>
+      <c r="E25" t="s">
+        <v>557</v>
+      </c>
+      <c r="F25" t="s">
+        <v>592</v>
+      </c>
+      <c r="G25" t="s">
+        <v>627</v>
+      </c>
+      <c r="H25" t="s">
+        <v>662</v>
+      </c>
+      <c r="I25" t="s">
+        <v>697</v>
+      </c>
+      <c r="J25">
         <v>24</v>
       </c>
-      <c r="K25" s="0">
+      <c r="K25">
         <v>107.66635542168673</v>
       </c>
-      <c r="L25" s="0">
+      <c r="L25">
         <v>1.1512593141955942</v>
       </c>
-      <c r="M25" s="0">
+      <c r="M25">
         <v>1.1633063969217834</v>
       </c>
-      <c r="N25" s="0">
+      <c r="N25">
         <v>2392</v>
       </c>
-      <c r="O25" s="0">
-        <v>0</v>
+      <c r="O25">
+        <v>2018.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>45860</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>339</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="J26" s="0">
+      <c r="D26" t="s">
+        <v>523</v>
+      </c>
+      <c r="E26" t="s">
+        <v>558</v>
+      </c>
+      <c r="F26" t="s">
+        <v>593</v>
+      </c>
+      <c r="G26" t="s">
+        <v>628</v>
+      </c>
+      <c r="H26" t="s">
+        <v>663</v>
+      </c>
+      <c r="I26" t="s">
+        <v>698</v>
+      </c>
+      <c r="J26">
         <v>25</v>
       </c>
-      <c r="K26" s="0">
+      <c r="K26">
         <v>108.19725663716812</v>
       </c>
-      <c r="L26" s="0">
+      <c r="L26">
         <v>1.1511297105349134</v>
       </c>
-      <c r="M26" s="0">
+      <c r="M26">
         <v>1.1737528719938062</v>
       </c>
-      <c r="N26" s="0">
+      <c r="N26">
         <v>2494</v>
       </c>
-      <c r="O26" s="0">
-        <v>0</v>
+      <c r="O26">
+        <v>2128.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
         <v>45862</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>339</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="J27" s="0">
+      <c r="D27" t="s">
+        <v>523</v>
+      </c>
+      <c r="E27" t="s">
+        <v>558</v>
+      </c>
+      <c r="F27" t="s">
+        <v>593</v>
+      </c>
+      <c r="G27" t="s">
+        <v>628</v>
+      </c>
+      <c r="H27" t="s">
+        <v>663</v>
+      </c>
+      <c r="I27" t="s">
+        <v>698</v>
+      </c>
+      <c r="J27">
         <v>25</v>
       </c>
-      <c r="K27" s="0">
+      <c r="K27">
         <v>108.19725663716812</v>
       </c>
-      <c r="L27" s="0">
+      <c r="L27">
         <v>1.1511297105349134</v>
       </c>
-      <c r="M27" s="0">
+      <c r="M27">
         <v>1.1737528719938062</v>
       </c>
-      <c r="N27" s="0">
+      <c r="N27">
         <v>2494</v>
       </c>
-      <c r="O27" s="0">
-        <v>0</v>
+      <c r="O27">
+        <v>2128.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>45863</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>349</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="J28" s="0">
+      <c r="D28" t="s">
+        <v>524</v>
+      </c>
+      <c r="E28" t="s">
+        <v>559</v>
+      </c>
+      <c r="F28" t="s">
+        <v>594</v>
+      </c>
+      <c r="G28" t="s">
+        <v>629</v>
+      </c>
+      <c r="H28" t="s">
+        <v>664</v>
+      </c>
+      <c r="I28" t="s">
+        <v>699</v>
+      </c>
+      <c r="J28">
         <v>26</v>
       </c>
-      <c r="K28" s="0">
+      <c r="K28">
         <v>108.93429799426931</v>
       </c>
-      <c r="L28" s="0">
+      <c r="L28">
         <v>1.1506723650538058</v>
       </c>
-      <c r="M28" s="0">
+      <c r="M28">
         <v>1.1767342546682753</v>
       </c>
-      <c r="N28" s="0">
+      <c r="N28">
         <v>2606</v>
       </c>
-      <c r="O28" s="0">
-        <v>0</v>
+      <c r="O28">
+        <v>2249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
         <v>45864</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>362</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="J29" s="0">
+      <c r="D29" t="s">
+        <v>525</v>
+      </c>
+      <c r="E29" t="s">
+        <v>560</v>
+      </c>
+      <c r="F29" t="s">
+        <v>595</v>
+      </c>
+      <c r="G29" t="s">
+        <v>630</v>
+      </c>
+      <c r="H29" t="s">
+        <v>665</v>
+      </c>
+      <c r="I29" t="s">
+        <v>700</v>
+      </c>
+      <c r="J29">
         <v>27</v>
       </c>
-      <c r="K29" s="0">
+      <c r="K29">
         <v>109.775635359116</v>
       </c>
-      <c r="L29" s="0">
+      <c r="L29">
         <v>1.1499220687349045</v>
       </c>
-      <c r="M29" s="0">
+      <c r="M29">
         <v>1.1756105270362136</v>
       </c>
-      <c r="N29" s="0">
+      <c r="N29">
         <v>2735</v>
       </c>
-      <c r="O29" s="0">
-        <v>0</v>
+      <c r="O29">
+        <v>2363.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
         <v>45866</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>375</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="J30" s="0">
+      <c r="D30" t="s">
+        <v>526</v>
+      </c>
+      <c r="E30" t="s">
+        <v>561</v>
+      </c>
+      <c r="F30" t="s">
+        <v>596</v>
+      </c>
+      <c r="G30" t="s">
+        <v>631</v>
+      </c>
+      <c r="H30" t="s">
+        <v>666</v>
+      </c>
+      <c r="I30" t="s">
+        <v>701</v>
+      </c>
+      <c r="J30">
         <v>28</v>
       </c>
-      <c r="K30" s="0">
+      <c r="K30">
         <v>110.60821333333332</v>
       </c>
-      <c r="L30" s="0">
+      <c r="L30">
         <v>1.1494145448754824</v>
       </c>
-      <c r="M30" s="0">
+      <c r="M30">
         <v>1.1741402965335015</v>
       </c>
-      <c r="N30" s="0">
+      <c r="N30">
         <v>2864</v>
       </c>
-      <c r="O30" s="0">
-        <v>80</v>
+      <c r="O30">
+        <v>2443.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
         <v>45867</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>388</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="J31" s="0">
+      <c r="D31" t="s">
+        <v>527</v>
+      </c>
+      <c r="E31" t="s">
+        <v>562</v>
+      </c>
+      <c r="F31" t="s">
+        <v>597</v>
+      </c>
+      <c r="G31" t="s">
+        <v>632</v>
+      </c>
+      <c r="H31" t="s">
+        <v>667</v>
+      </c>
+      <c r="I31" t="s">
+        <v>702</v>
+      </c>
+      <c r="J31">
         <v>29</v>
       </c>
-      <c r="K31" s="0">
+      <c r="K31">
         <v>111.35167525773196</v>
       </c>
-      <c r="L31" s="0">
+      <c r="L31">
         <v>1.1483461167158147</v>
       </c>
-      <c r="M31" s="0">
+      <c r="M31">
         <v>1.1721633650536969</v>
       </c>
-      <c r="N31" s="0">
+      <c r="N31">
         <v>2990</v>
       </c>
-      <c r="O31" s="0">
-        <v>197.5</v>
+      <c r="O31">
+        <v>2561</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
         <v>45868</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>397</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="J32" s="0">
+      <c r="D32" t="s">
+        <v>528</v>
+      </c>
+      <c r="E32" t="s">
+        <v>563</v>
+      </c>
+      <c r="F32" t="s">
+        <v>598</v>
+      </c>
+      <c r="G32" t="s">
+        <v>633</v>
+      </c>
+      <c r="H32" t="s">
+        <v>668</v>
+      </c>
+      <c r="I32" t="s">
+        <v>703</v>
+      </c>
+      <c r="J32">
         <v>30</v>
       </c>
-      <c r="K32" s="0">
+      <c r="K32">
         <v>111.8484886649874</v>
       </c>
-      <c r="L32" s="0">
+      <c r="L32">
         <v>1.1481974492691367</v>
       </c>
-      <c r="M32" s="0">
+      <c r="M32">
         <v>1.1721588990425216</v>
       </c>
-      <c r="N32" s="0">
+      <c r="N32">
         <v>3082</v>
       </c>
-      <c r="O32" s="0">
-        <v>288</v>
+      <c r="O32">
+        <v>2651.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
         <v>45869</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>406</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="J33" s="0">
+      <c r="D33" t="s">
+        <v>529</v>
+      </c>
+      <c r="E33" t="s">
+        <v>564</v>
+      </c>
+      <c r="F33" t="s">
+        <v>599</v>
+      </c>
+      <c r="G33" t="s">
+        <v>634</v>
+      </c>
+      <c r="H33" t="s">
+        <v>669</v>
+      </c>
+      <c r="I33" t="s">
+        <v>704</v>
+      </c>
+      <c r="J33">
         <v>31</v>
       </c>
-      <c r="K33" s="0">
+      <c r="K33">
         <v>112.39918719211822</v>
       </c>
-      <c r="L33" s="0">
+      <c r="L33">
         <v>1.1485040834385987</v>
       </c>
-      <c r="M33" s="0">
+      <c r="M33">
         <v>1.1715037801845061</v>
       </c>
-      <c r="N33" s="0">
+      <c r="N33">
         <v>3174</v>
       </c>
-      <c r="O33" s="0">
-        <v>356</v>
+      <c r="O33">
+        <v>2719.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
         <v>45870</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>419</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="J34" s="0">
+      <c r="D34" t="s">
+        <v>530</v>
+      </c>
+      <c r="E34" t="s">
+        <v>565</v>
+      </c>
+      <c r="F34" t="s">
+        <v>600</v>
+      </c>
+      <c r="G34" t="s">
+        <v>635</v>
+      </c>
+      <c r="H34" t="s">
+        <v>670</v>
+      </c>
+      <c r="I34" t="s">
+        <v>705</v>
+      </c>
+      <c r="J34">
         <v>32</v>
       </c>
-      <c r="K34" s="0">
+      <c r="K34">
         <v>113.03747016706443</v>
       </c>
-      <c r="L34" s="0">
+      <c r="L34">
         <v>1.1483491124435363</v>
       </c>
-      <c r="M34" s="0">
+      <c r="M34">
         <v>1.1697096806774909</v>
       </c>
-      <c r="N34" s="0">
+      <c r="N34">
         <v>3300</v>
       </c>
-      <c r="O34" s="0">
-        <v>434.5</v>
+      <c r="O34">
+        <v>2798</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
         <v>45871</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="0">
-        <v>449</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="J35" s="0">
-        <v>33</v>
-      </c>
-      <c r="K35" s="0">
-        <v>107.49714922048996</v>
-      </c>
-      <c r="L35" s="0">
-        <v>1.071622000253545</v>
-      </c>
-      <c r="M35" s="0">
-        <v>1.0915553590286606</v>
-      </c>
-      <c r="N35" s="0">
+      <c r="C35">
+        <v>419</v>
+      </c>
+      <c r="D35" t="s">
+        <v>530</v>
+      </c>
+      <c r="E35" t="s">
+        <v>565</v>
+      </c>
+      <c r="F35" t="s">
+        <v>600</v>
+      </c>
+      <c r="G35" t="s">
+        <v>635</v>
+      </c>
+      <c r="H35" t="s">
+        <v>670</v>
+      </c>
+      <c r="I35" t="s">
+        <v>705</v>
+      </c>
+      <c r="J35">
+        <v>32</v>
+      </c>
+      <c r="K35">
+        <v>113.03747016706443</v>
+      </c>
+      <c r="L35">
+        <v>1.1483491124435363</v>
+      </c>
+      <c r="M35">
+        <v>1.1697096806774909</v>
+      </c>
+      <c r="N35">
         <v>3300</v>
       </c>
-      <c r="O35" s="0">
-        <v>434.5</v>
+      <c r="O35">
+        <v>2798</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
         <v>45873</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="0">
-        <v>466</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="J36" s="0">
-        <v>34</v>
-      </c>
-      <c r="K36" s="0">
-        <v>107.97180257510728</v>
-      </c>
-      <c r="L36" s="0">
-        <v>1.0653440100080824</v>
-      </c>
-      <c r="M36" s="0">
-        <v>1.0517346699653833</v>
-      </c>
-      <c r="N36" s="0">
-        <v>3300</v>
-      </c>
-      <c r="O36" s="0">
-        <v>434.5</v>
+      <c r="C36">
+        <v>434</v>
+      </c>
+      <c r="D36" t="s">
+        <v>531</v>
+      </c>
+      <c r="E36" t="s">
+        <v>566</v>
+      </c>
+      <c r="F36" t="s">
+        <v>601</v>
+      </c>
+      <c r="G36" t="s">
+        <v>636</v>
+      </c>
+      <c r="H36" t="s">
+        <v>671</v>
+      </c>
+      <c r="I36" t="s">
+        <v>706</v>
+      </c>
+      <c r="J36">
+        <v>33</v>
+      </c>
+      <c r="K36">
+        <v>113.74135944700461</v>
+      </c>
+      <c r="L36">
+        <v>1.1481365525212015</v>
+      </c>
+      <c r="M36">
+        <v>1.1693943169763357</v>
+      </c>
+      <c r="N36">
+        <v>3452</v>
+      </c>
+      <c r="O36">
+        <v>2902</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>447</v>
+      </c>
+      <c r="D37" t="s">
+        <v>532</v>
+      </c>
+      <c r="E37" t="s">
+        <v>567</v>
+      </c>
+      <c r="F37" t="s">
+        <v>602</v>
+      </c>
+      <c r="G37" t="s">
+        <v>637</v>
+      </c>
+      <c r="H37" t="s">
+        <v>672</v>
+      </c>
+      <c r="I37" t="s">
+        <v>707</v>
+      </c>
+      <c r="J37">
+        <v>34</v>
+      </c>
+      <c r="K37">
+        <v>114.44646532438479</v>
+      </c>
+      <c r="L37">
+        <v>1.1480240283636733</v>
+      </c>
+      <c r="M37">
+        <v>1.1670923161888087</v>
+      </c>
+      <c r="N37">
+        <v>3580</v>
+      </c>
+      <c r="O37">
+        <v>2991.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
         <v>45875</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="0">
-        <v>473</v>
-      </c>
-      <c r="D37" s="0" t="s">
+      <c r="C38">
+        <v>460</v>
+      </c>
+      <c r="D38" t="s">
+        <v>533</v>
+      </c>
+      <c r="E38" t="s">
+        <v>568</v>
+      </c>
+      <c r="F38" t="s">
+        <v>603</v>
+      </c>
+      <c r="G38" t="s">
+        <v>638</v>
+      </c>
+      <c r="H38" t="s">
+        <v>673</v>
+      </c>
+      <c r="I38" t="s">
         <v>708</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="J37" s="0">
+      <c r="J38">
         <v>35</v>
       </c>
-      <c r="K37" s="0">
-        <v>108.12467230443973</v>
-      </c>
-      <c r="L37" s="0">
-        <v>1.0605052316213084</v>
-      </c>
-      <c r="M37" s="0">
-        <v>1.0361698862661071</v>
-      </c>
-      <c r="N37" s="0">
-        <v>3300</v>
-      </c>
-      <c r="O37" s="0">
-        <v>434.5</v>
+      <c r="K38">
+        <v>115.00328260869566</v>
+      </c>
+      <c r="L38">
+        <v>1.1472027099550692</v>
+      </c>
+      <c r="M38">
+        <v>1.1341092724704294</v>
+      </c>
+      <c r="N38">
+        <v>3580</v>
+      </c>
+      <c r="O38">
+        <v>2991.5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/Summary/1633-SiteProgression.xlsx
+++ b/assets/data/Summary/1633-SiteProgression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="859" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="991" uniqueCount="806">
   <si>
     <t>Time</t>
   </si>
@@ -139,6 +139,21 @@
     <t>3.4206 hr</t>
   </si>
   <si>
+    <t>2.2222 hr</t>
+  </si>
+  <si>
+    <t>1.6667 hr</t>
+  </si>
+  <si>
+    <t>3.2581 hr</t>
+  </si>
+  <si>
+    <t>2.6228 hr</t>
+  </si>
+  <si>
+    <t>1.4858 hr</t>
+  </si>
+  <si>
     <t>mean_MoveTime</t>
   </si>
   <si>
@@ -250,6 +265,21 @@
     <t>17.103 min</t>
   </si>
   <si>
+    <t>10.256 min</t>
+  </si>
+  <si>
+    <t>7.6923 min</t>
+  </si>
+  <si>
+    <t>17.771 min</t>
+  </si>
+  <si>
+    <t>13.114 min</t>
+  </si>
+  <si>
+    <t>8.915 min</t>
+  </si>
+  <si>
     <t>sum_DrillTime</t>
   </si>
   <si>
@@ -358,6 +388,21 @@
     <t>2.965 hr</t>
   </si>
   <si>
+    <t>2.9097 hr</t>
+  </si>
+  <si>
+    <t>3.155 hr</t>
+  </si>
+  <si>
+    <t>2.5622 hr</t>
+  </si>
+  <si>
+    <t>2.5231 hr</t>
+  </si>
+  <si>
+    <t>2.4811 hr</t>
+  </si>
+  <si>
     <t>mean_DrillTime</t>
   </si>
   <si>
@@ -466,6 +511,21 @@
     <t>13.685 min</t>
   </si>
   <si>
+    <t>12.47 min</t>
+  </si>
+  <si>
+    <t>13.521 min</t>
+  </si>
+  <si>
+    <t>12.811 min</t>
+  </si>
+  <si>
+    <t>11.645 min</t>
+  </si>
+  <si>
+    <t>13.533 min</t>
+  </si>
+  <si>
     <t>sum_GroutTime</t>
   </si>
   <si>
@@ -574,6 +634,21 @@
     <t>3.0178 hr</t>
   </si>
   <si>
+    <t>2.665 hr</t>
+  </si>
+  <si>
+    <t>2.7775 hr</t>
+  </si>
+  <si>
+    <t>2.9544 hr</t>
+  </si>
+  <si>
+    <t>2.2514 hr</t>
+  </si>
+  <si>
+    <t>2.3842 hr</t>
+  </si>
+  <si>
     <t>mean_GroutTime</t>
   </si>
   <si>
@@ -679,6 +754,21 @@
     <t>15.089 min</t>
   </si>
   <si>
+    <t>12.3 min</t>
+  </si>
+  <si>
+    <t>12.819 min</t>
+  </si>
+  <si>
+    <t>16.115 min</t>
+  </si>
+  <si>
+    <t>13.508 min</t>
+  </si>
+  <si>
+    <t>13.005 min</t>
+  </si>
+  <si>
     <t>sum_InstallTime</t>
   </si>
   <si>
@@ -784,6 +874,21 @@
     <t>7.0169 hr</t>
   </si>
   <si>
+    <t>6.7764 hr</t>
+  </si>
+  <si>
+    <t>6.9925 hr</t>
+  </si>
+  <si>
+    <t>6.0733 hr</t>
+  </si>
+  <si>
+    <t>6.5658 hr</t>
+  </si>
+  <si>
+    <t>5.3897 hr</t>
+  </si>
+  <si>
     <t>mean_InstallTime</t>
   </si>
   <si>
@@ -802,9 +907,6 @@
     <t>14.07 min</t>
   </si>
   <si>
-    <t>13.114 min</t>
-  </si>
-  <si>
     <t>15.61 min</t>
   </si>
   <si>
@@ -892,6 +994,21 @@
     <t>32.386 min</t>
   </si>
   <si>
+    <t>29.042 min</t>
+  </si>
+  <si>
+    <t>29.968 min</t>
+  </si>
+  <si>
+    <t>30.367 min</t>
+  </si>
+  <si>
+    <t>30.304 min</t>
+  </si>
+  <si>
+    <t>29.398 min</t>
+  </si>
+  <si>
     <t>sum_DelayTime</t>
   </si>
   <si>
@@ -1000,6 +1117,21 @@
     <t>2.4206 hr</t>
   </si>
   <si>
+    <t>1.1389 hr</t>
+  </si>
+  <si>
+    <t>0.59611 hr</t>
+  </si>
+  <si>
+    <t>2.3447 hr</t>
+  </si>
+  <si>
+    <t>1.6228 hr</t>
+  </si>
+  <si>
+    <t>0.68333 hr</t>
+  </si>
+  <si>
     <t>mean_DelayTime</t>
   </si>
   <si>
@@ -1108,6 +1240,21 @@
     <t>12.103 min</t>
   </si>
   <si>
+    <t>5.2564 min</t>
+  </si>
+  <si>
+    <t>2.7513 min</t>
+  </si>
+  <si>
+    <t>12.789 min</t>
+  </si>
+  <si>
+    <t>8.1139 min</t>
+  </si>
+  <si>
+    <t>4.1 min</t>
+  </si>
+  <si>
     <t>sum_CycleTime</t>
   </si>
   <si>
@@ -1216,6 +1363,21 @@
     <t>9.9628 hr</t>
   </si>
   <si>
+    <t>8.5089 hr</t>
+  </si>
+  <si>
+    <t>8.2161 hr</t>
+  </si>
+  <si>
+    <t>8.8669 hr</t>
+  </si>
+  <si>
+    <t>8.6333 hr</t>
+  </si>
+  <si>
+    <t>6.385 hr</t>
+  </si>
+  <si>
     <t>mean_CycleTime</t>
   </si>
   <si>
@@ -1324,6 +1486,21 @@
     <t>49.814 min</t>
   </si>
   <si>
+    <t>39.272 min</t>
+  </si>
+  <si>
+    <t>37.921 min</t>
+  </si>
+  <si>
+    <t>48.365 min</t>
+  </si>
+  <si>
+    <t>43.167 min</t>
+  </si>
+  <si>
+    <t>38.31 min</t>
+  </si>
+  <si>
     <t>sum_PileLength</t>
   </si>
   <si>
@@ -1444,6 +1621,21 @@
     <t>10.438 hr</t>
   </si>
   <si>
+    <t>8.9986 hr</t>
+  </si>
+  <si>
+    <t>8.6592 hr</t>
+  </si>
+  <si>
+    <t>9.3314 hr</t>
+  </si>
+  <si>
+    <t>9.1886 hr</t>
+  </si>
+  <si>
+    <t>6.8756 hr</t>
+  </si>
+  <si>
     <t>PileWaste</t>
   </si>
   <si>
@@ -1474,7 +1666,7 @@
     <t>11.5 hr</t>
   </si>
   <si>
-    <t>-2.5 hr</t>
+    <t>9.5 hr</t>
   </si>
   <si>
     <t>10.5 hr</t>
@@ -1486,9 +1678,6 @@
     <t>13 hr</t>
   </si>
   <si>
-    <t>-1 hr</t>
-  </si>
-  <si>
     <t>13.5 hr</t>
   </si>
   <si>
@@ -1618,6 +1807,21 @@
     <t>90.463 hr</t>
   </si>
   <si>
+    <t>92.686 hr</t>
+  </si>
+  <si>
+    <t>94.352 hr</t>
+  </si>
+  <si>
+    <t>97.61 hr</t>
+  </si>
+  <si>
+    <t>100.23 hr</t>
+  </si>
+  <si>
+    <t>101.72 hr</t>
+  </si>
+  <si>
     <t>HoursDrilled</t>
   </si>
   <si>
@@ -1723,6 +1927,21 @@
     <t>88.13 hr</t>
   </si>
   <si>
+    <t>91.04 hr</t>
+  </si>
+  <si>
+    <t>94.195 hr</t>
+  </si>
+  <si>
+    <t>96.757 hr</t>
+  </si>
+  <si>
+    <t>99.28 hr</t>
+  </si>
+  <si>
+    <t>101.76 hr</t>
+  </si>
+  <si>
     <t>HoursGrouted</t>
   </si>
   <si>
@@ -1828,6 +2047,21 @@
     <t>84.517 hr</t>
   </si>
   <si>
+    <t>87.182 hr</t>
+  </si>
+  <si>
+    <t>89.959 hr</t>
+  </si>
+  <si>
+    <t>92.914 hr</t>
+  </si>
+  <si>
+    <t>95.165 hr</t>
+  </si>
+  <si>
+    <t>97.549 hr</t>
+  </si>
+  <si>
     <t>HoursDelayed</t>
   </si>
   <si>
@@ -1933,6 +2167,21 @@
     <t>56.791 hr</t>
   </si>
   <si>
+    <t>57.93 hr</t>
+  </si>
+  <si>
+    <t>58.526 hr</t>
+  </si>
+  <si>
+    <t>60.871 hr</t>
+  </si>
+  <si>
+    <t>62.494 hr</t>
+  </si>
+  <si>
+    <t>63.177 hr</t>
+  </si>
+  <si>
     <t>HoursTurn</t>
   </si>
   <si>
@@ -2038,6 +2287,21 @@
     <t>284.19 hr</t>
   </si>
   <si>
+    <t>293.19 hr</t>
+  </si>
+  <si>
+    <t>301.85 hr</t>
+  </si>
+  <si>
+    <t>311.18 hr</t>
+  </si>
+  <si>
+    <t>320.37 hr</t>
+  </si>
+  <si>
+    <t>327.24 hr</t>
+  </si>
+  <si>
     <t>HoursCycle</t>
   </si>
   <si>
@@ -2141,6 +2405,21 @@
   </si>
   <si>
     <t>266.25 hr</t>
+  </si>
+  <si>
+    <t>274.76 hr</t>
+  </si>
+  <si>
+    <t>282.98 hr</t>
+  </si>
+  <si>
+    <t>291.84 hr</t>
+  </si>
+  <si>
+    <t>300.48 hr</t>
+  </si>
+  <si>
+    <t>306.86 hr</t>
   </si>
   <si>
     <t>DaysRigDrilled</t>
@@ -2198,7 +2477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD38"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2250,82 +2529,82 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>482</v>
+        <v>546</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2">
@@ -2342,37 +2621,37 @@
         <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="P2" s="0">
         <v>1005.6900000000001</v>
@@ -2390,7 +2669,7 @@
         <v>39.818402127995697</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="V2" s="0">
         <v>1.1696853090760726</v>
@@ -2414,7 +2693,7 @@
         <v>45818.75</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="AD2" s="0">
         <v>1.2557008148964817</v>
@@ -2434,37 +2713,37 @@
         <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="P3" s="0">
         <v>1955.6199999999997</v>
@@ -2482,7 +2761,7 @@
         <v>77.429092035866844</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="V3" s="0">
         <v>1.1228337788040632</v>
@@ -2506,7 +2785,7 @@
         <v>45819.770833333336</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="AD3" s="0">
         <v>1.1623538082857803</v>
@@ -2526,37 +2805,37 @@
         <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="P4" s="0">
         <v>1838.0299999999997</v>
@@ -2574,7 +2853,7 @@
         <v>72.773337373663779</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="V4" s="0">
         <v>1.1624312289766452</v>
@@ -2598,7 +2877,7 @@
         <v>45820.75</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="AD4" s="0">
         <v>1.1267863060747203</v>
@@ -2618,37 +2897,37 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="P5" s="0">
         <v>2067.6599999999999</v>
@@ -2666,7 +2945,7 @@
         <v>81.865104897107045</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="V5" s="0">
         <v>1.1639757882160529</v>
@@ -2690,7 +2969,7 @@
         <v>45821.75</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="AD5" s="0">
         <v>1.1237999403485905</v>
@@ -2710,37 +2989,37 @@
         <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="P6" s="0">
         <v>1071.9200000000001</v>
@@ -2758,7 +3037,7 @@
         <v>42.440654286152935</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="V6" s="0">
         <v>1.162446734853861</v>
@@ -2779,10 +3058,10 @@
         <v>45822.291666666664</v>
       </c>
       <c r="AB6" s="1">
-        <v>45822.1875</v>
+        <v>45822.6875</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="AD6" s="0">
         <v>1.1781156733088689</v>
@@ -2802,37 +3081,37 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="P7" s="0">
         <v>2068.3699999999999</v>
@@ -2850,7 +3129,7 @@
         <v>81.893216010383355</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="V7" s="0">
         <v>1.1644187961541217</v>
@@ -2874,7 +3153,7 @@
         <v>45824.729166666664</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="AD7" s="0">
         <v>1.1600472496763934</v>
@@ -2894,37 +3173,37 @@
         <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="P8" s="0">
         <v>1071.9200000000001</v>
@@ -2942,7 +3221,7 @@
         <v>42.440654286152942</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="V8" s="0">
         <v>1.2014659259538503</v>
@@ -2966,7 +3245,7 @@
         <v>45825.708333333336</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="AD8" s="0">
         <v>1.1545533598426914</v>
@@ -2986,37 +3265,37 @@
         <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="P9" s="0">
         <v>1445.6899999999998</v>
@@ -3034,7 +3313,7 @@
         <v>94.620189236838073</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="V9" s="0">
         <v>1.1164530619948498</v>
@@ -3058,7 +3337,7 @@
         <v>45827.75</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="AD9" s="0">
         <v>1.1836797294883818</v>
@@ -3078,37 +3357,37 @@
         <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="P10" s="0">
         <v>1630.8099999999999</v>
@@ -3126,7 +3405,7 @@
         <v>106.73626490418272</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="V10" s="0">
         <v>1.1267679275451865</v>
@@ -3150,7 +3429,7 @@
         <v>45828.708333333336</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="AD10" s="0">
         <v>1.1430042086400489</v>
@@ -3170,37 +3449,37 @@
         <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="P11" s="0">
         <v>1446.5899999999997</v>
@@ -3218,7 +3497,7 @@
         <v>94.679094099092893</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="V11" s="0">
         <v>1.1332491192586092</v>
@@ -3242,7 +3521,7 @@
         <v>45831.770833333336</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="AD11" s="0">
         <v>1.172381306097261</v>
@@ -3262,37 +3541,37 @@
         <v>15</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="P12" s="0">
         <v>1583.1600000000001</v>
@@ -3310,7 +3589,7 @@
         <v>103.61757969702535</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="V12" s="0">
         <v>1.1380404786986671</v>
@@ -3334,7 +3613,7 @@
         <v>45832.6875</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="AD12" s="0">
         <v>0.11581046416146405</v>
@@ -3354,37 +3633,37 @@
         <v>16</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="P13" s="0">
         <v>1584.28</v>
@@ -3402,7 +3681,7 @@
         <v>103.69088352560911</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="V13" s="0">
         <v>1.1425594610806848</v>
@@ -3426,7 +3705,7 @@
         <v>45833.6875</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="AD13" s="0">
         <v>1.186218072581299</v>
@@ -3446,37 +3725,37 @@
         <v>17</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="P14" s="0">
         <v>1583.2899999999995</v>
@@ -3494,7 +3773,7 @@
         <v>103.62608817712881</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="V14" s="0">
         <v>1.1406104589991377</v>
@@ -3518,7 +3797,7 @@
         <v>45834.791666666664</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="AD14" s="0">
         <v>1.1773097117346023</v>
@@ -3538,37 +3817,37 @@
         <v>18</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="P15" s="0">
         <v>1386.1299999999999</v>
@@ -3586,7 +3865,7 @@
         <v>90.721996352508768</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="V15" s="0">
         <v>1.138566214952385</v>
@@ -3610,7 +3889,7 @@
         <v>45835.75</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="AD15" s="0">
         <v>1.1353365682098078</v>
@@ -3630,37 +3909,37 @@
         <v>19</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="P16" s="0">
         <v>1450.2899999999997</v>
@@ -3678,7 +3957,7 @@
         <v>94.921258532807101</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="V16" s="0">
         <v>1.1405348145756238</v>
@@ -3702,7 +3981,7 @@
         <v>45838.729166666664</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="AD16" s="0">
         <v>1.2852758368962609</v>
@@ -3722,37 +4001,37 @@
         <v>20</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="P17" s="0">
         <v>1585.0899999999999</v>
@@ -3770,7 +4049,7 @@
         <v>103.74389790163845</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="V17" s="0">
         <v>1.1373199039799773</v>
@@ -3791,10 +4070,10 @@
         <v>45839.25</v>
       </c>
       <c r="AB17" s="1">
-        <v>45839.208333333336</v>
+        <v>45839.708333333336</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="AD17" s="0">
         <v>1.1759727797741946</v>
@@ -3814,37 +4093,37 @@
         <v>21</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="P18" s="0">
         <v>1581.0699999999997</v>
@@ -3862,7 +4141,7 @@
         <v>103.4807895169003</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="V18" s="0">
         <v>1.1408784234364466</v>
@@ -3886,7 +4165,7 @@
         <v>45840.708333333336</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="AD18" s="0">
         <v>1.1789627869052466</v>
@@ -3906,37 +4185,37 @@
         <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="P19" s="0">
         <v>663.74000000000001</v>
@@ -3954,7 +4233,7 @@
         <v>43.441681414451857</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="V19" s="0">
         <v>1.1420138075847079</v>
@@ -3978,7 +4257,7 @@
         <v>45852.854166666664</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="AD19" s="0">
         <v>2.0717430143037574</v>
@@ -3998,37 +4277,37 @@
         <v>23</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="P20" s="0">
         <v>924.24999999999977</v>
@@ -4046,7 +4325,7 @@
         <v>60.492021043340962</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="V20" s="0">
         <v>1.1509121169900798</v>
@@ -4070,7 +4349,7 @@
         <v>45853.75</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="AD20" s="0">
         <v>1.2398329350951003</v>
@@ -4090,37 +4369,37 @@
         <v>24</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="P21" s="0">
         <v>1718.8499999999999</v>
@@ -4138,7 +4417,7 @@
         <v>112.498469429642</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="V21" s="0">
         <v>1.1444955709421847</v>
@@ -4162,7 +4441,7 @@
         <v>45854.771527777775</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="AD21" s="0">
         <v>1.2800174147263352</v>
@@ -4182,37 +4461,37 @@
         <v>25</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="P22" s="0">
         <v>1588.8299999999999</v>
@@ -4230,7 +4509,7 @@
         <v>103.98868032923065</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="V22" s="0">
         <v>1.1333156611554043</v>
@@ -4254,7 +4533,7 @@
         <v>45855.854166666664</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="AD22" s="0">
         <v>1.1732046181732962</v>
@@ -4274,37 +4553,37 @@
         <v>26</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="P23" s="0">
         <v>1584.3199999999997</v>
@@ -4322,7 +4601,7 @@
         <v>103.6935015194871</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="V23" s="0">
         <v>1.1591661795451205</v>
@@ -4346,7 +4625,7 @@
         <v>45856.833333333336</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="AD23" s="0">
         <v>1.4658584942416537</v>
@@ -4366,37 +4645,37 @@
         <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="P24" s="0">
         <v>1057.6699999999998</v>
@@ -4414,7 +4693,7 @@
         <v>69.224339623381582</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="V24" s="0">
         <v>1.1751791413626207</v>
@@ -4438,7 +4717,7 @@
         <v>45857.583333333336</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="AD24" s="0">
         <v>1.184554456512334</v>
@@ -4458,37 +4737,37 @@
         <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="P25" s="0">
         <v>1851.9599999999998</v>
@@ -4506,7 +4785,7 @@
         <v>121.2104985571282</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="V25" s="0">
         <v>1.1886099118064173</v>
@@ -4530,7 +4809,7 @@
         <v>45859.791666666664</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="AD25" s="0">
         <v>1.2210163456282257</v>
@@ -4550,37 +4829,37 @@
         <v>29</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="P26" s="0">
         <v>933.63999999999999</v>
@@ -4598,7 +4877,7 @@
         <v>61.106595106199471</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="V26" s="0">
         <v>1.1449827940569008</v>
@@ -4622,7 +4901,7 @@
         <v>45860.895833333336</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="AD26" s="0">
         <v>1.6692142611240297</v>
@@ -4640,37 +4919,37 @@
         <v>30</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P27" s="0"/>
       <c r="Q27" s="0"/>
@@ -4708,37 +4987,37 @@
         <v>31</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="P28" s="0">
         <v>1339.1999999999998</v>
@@ -4756,7 +5035,7 @@
         <v>87.650435035155226</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="V28" s="0">
         <v>1.1351683532442582</v>
@@ -4780,7 +5059,7 @@
         <v>45863.729166666664</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="AD28" s="0">
         <v>1.2778031273327799</v>
@@ -4800,37 +5079,37 @@
         <v>32</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="P29" s="0">
         <v>1720.7099999999996</v>
@@ -4848,7 +5127,7 @@
         <v>112.62020614496859</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="V29" s="0">
         <v>1.1297794983274803</v>
@@ -4872,7 +5151,7 @@
         <v>45864.75</v>
       </c>
       <c r="AC29" s="0" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="AD29" s="0">
         <v>1.1454427621447147</v>
@@ -4892,37 +5171,37 @@
         <v>33</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="P30" s="0">
         <v>1739.2999999999997</v>
@@ -4940,7 +5219,7 @@
         <v>113.83691879976516</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="V30" s="0">
         <v>1.1352819574054267</v>
@@ -4964,7 +5243,7 @@
         <v>45866.75</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="AD30" s="0">
         <v>1.1332000317656712</v>
@@ -4984,37 +5263,37 @@
         <v>34</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="P31" s="0">
         <v>1726.3699999999997</v>
@@ -5032,7 +5311,7 @@
         <v>112.9906522787044</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="V31" s="0">
         <v>1.1175260736484693</v>
@@ -5056,7 +5335,7 @@
         <v>45867.770833333336</v>
       </c>
       <c r="AC31" s="0" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="AD31" s="0">
         <v>1.1151364954439464</v>
@@ -5076,37 +5355,37 @@
         <v>35</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="P32" s="0">
         <v>1199.3999999999999</v>
@@ -5124,7 +5403,7 @@
         <v>78.500546431574961</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="V32" s="0">
         <v>1.1417882304568021</v>
@@ -5148,7 +5427,7 @@
         <v>45868.729166666664</v>
       </c>
       <c r="AC32" s="0" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="AD32" s="0">
         <v>1.171966364338519</v>
@@ -5168,37 +5447,37 @@
         <v>36</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="P33" s="0">
         <v>1230.2199999999998</v>
@@ -5216,7 +5495,7 @@
         <v>80.517710714567386</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="V33" s="0">
         <v>1.1620300573582039</v>
@@ -5240,7 +5519,7 @@
         <v>45869.75</v>
       </c>
       <c r="AC33" s="0" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="AD33" s="0">
         <v>1.1426057594475947</v>
@@ -5260,37 +5539,37 @@
         <v>37</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="P34" s="0">
         <v>1728.6299999999999</v>
@@ -5308,7 +5587,7 @@
         <v>113.13856893281093</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="V34" s="0">
         <v>1.1435092490592784</v>
@@ -5332,7 +5611,7 @@
         <v>45870.75</v>
       </c>
       <c r="AC34" s="0" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="AD34" s="0">
         <v>1.1136785729968621</v>
@@ -5350,37 +5629,37 @@
         <v>30</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>30</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P35" s="0"/>
       <c r="Q35" s="0"/>
@@ -5418,37 +5697,37 @@
         <v>38</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="P36" s="0">
         <v>2001.0499999999995</v>
@@ -5466,7 +5745,7 @@
         <v>130.96841623887198</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="V36" s="0">
         <v>1.1421990453573223</v>
@@ -5490,7 +5769,7 @@
         <v>45873.833333333336</v>
       </c>
       <c r="AC36" s="0" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="AD36" s="0">
         <v>1.1605851575907333</v>
@@ -5510,37 +5789,37 @@
         <v>39</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="P37" s="0">
         <v>1793.8199999999997</v>
@@ -5558,7 +5837,7 @@
         <v>117.40524445546755</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="V37" s="0">
         <v>1.1442674526431145</v>
@@ -5582,7 +5861,7 @@
         <v>45874.75</v>
       </c>
       <c r="AC37" s="0" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="AD37" s="0">
         <v>1.0902409052821409</v>
@@ -5602,37 +5881,37 @@
         <v>40</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="P38" s="0">
         <v>1743.9399999999998</v>
@@ -5650,16 +5929,16 @@
         <v>114.14060608961216</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="V38" s="0">
         <v>1.1189619923669183</v>
       </c>
       <c r="W38" s="0">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="X38" s="0">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="Y38" s="1">
         <v>45875.298750000002</v>
@@ -5667,13 +5946,543 @@
       <c r="Z38" s="1">
         <v>45875.73364583333</v>
       </c>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
+      <c r="AA38" s="1">
+        <v>45875.270833333336</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>45875.770833333336</v>
+      </c>
       <c r="AC38" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="AD38" s="0">
+        <v>1.1214238682025814</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="0">
+        <v>14</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="P39" s="0">
+        <v>1924.5899999999999</v>
+      </c>
+      <c r="Q39" s="0">
+        <v>137.47071428571428</v>
+      </c>
+      <c r="R39" s="0">
+        <v>1.1253599807568555</v>
+      </c>
+      <c r="S39" s="0">
+        <v>141.726</v>
+      </c>
+      <c r="T39" s="0">
+        <v>125.96412094109127</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="V39" s="0">
+        <v>1.1251299095420988</v>
+      </c>
+      <c r="W39" s="0">
+        <v>137</v>
+      </c>
+      <c r="X39" s="0">
+        <v>87</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>45876.30541666667</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>45876.680358796293</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>45876.270833333336</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>45876.729166666664</v>
+      </c>
+      <c r="AC39" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD39" s="0">
+        <v>1.0876112894406638</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="0">
+        <v>14</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="P40" s="0">
+        <v>1904.8199999999999</v>
+      </c>
+      <c r="Q40" s="0">
+        <v>136.05857142857141</v>
+      </c>
+      <c r="R40" s="0">
+        <v>1.1129284947571054</v>
+      </c>
+      <c r="S40" s="0">
+        <v>138.75899999999999</v>
+      </c>
+      <c r="T40" s="0">
+        <v>124.67017746689395</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="V40" s="0">
+        <v>1.1130087629565404</v>
+      </c>
+      <c r="W40" s="0">
+        <v>136</v>
+      </c>
+      <c r="X40" s="0">
+        <v>80</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>45877.303587962961</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>45877.664386574077</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>45877.270833333336</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>45877.708333333336</v>
+      </c>
+      <c r="AC40" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD40" s="0">
+        <v>1.0908783701387983</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AD38" s="0">
+      <c r="E41" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0"/>
+      <c r="U41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0"/>
+      <c r="X41" s="0">
         <v>0</v>
+      </c>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="0">
+        <v>12</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="P42" s="0">
+        <v>1594.9899999999998</v>
+      </c>
+      <c r="Q42" s="0">
+        <v>132.91583333333332</v>
+      </c>
+      <c r="R42" s="0">
+        <v>1.1467383804143929</v>
+      </c>
+      <c r="S42" s="0">
+        <v>119.71500000000002</v>
+      </c>
+      <c r="T42" s="0">
+        <v>104.39185138644132</v>
+      </c>
+      <c r="U42" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="V42" s="0">
+        <v>1.1467849109873045</v>
+      </c>
+      <c r="W42" s="0">
+        <v>122</v>
+      </c>
+      <c r="X42" s="0">
+        <v>90.5</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>45880.301898148151</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>45880.690706018519</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>45880.270833333336</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>45880.75</v>
+      </c>
+      <c r="AC42" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="AD42" s="0">
+        <v>1.1686735926195642</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="0">
+        <v>13</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="P43" s="0">
+        <v>1779.2799999999997</v>
+      </c>
+      <c r="Q43" s="0">
+        <v>136.86769230769229</v>
+      </c>
+      <c r="R43" s="0">
+        <v>1.1175234013522484</v>
+      </c>
+      <c r="S43" s="0">
+        <v>130.13400000000001</v>
+      </c>
+      <c r="T43" s="0">
+        <v>116.45360368081765</v>
+      </c>
+      <c r="U43" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="V43" s="0">
+        <v>1.1174750792313679</v>
+      </c>
+      <c r="W43" s="0">
+        <v>128</v>
+      </c>
+      <c r="X43" s="0">
+        <v>90.5</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>45881.300752314812</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>45881.683611111112</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>45881.270833333336</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>45881.75</v>
+      </c>
+      <c r="AC43" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="AD43" s="0">
+        <v>1.0991501847450711</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="0">
+        <v>11</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="P44" s="0">
+        <v>1466.3200000000002</v>
+      </c>
+      <c r="Q44" s="0">
+        <v>133.30181818181819</v>
+      </c>
+      <c r="R44" s="0">
+        <v>1.1129680893216005</v>
+      </c>
+      <c r="S44" s="0">
+        <v>106.812</v>
+      </c>
+      <c r="T44" s="0">
+        <v>95.970419579412194</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="V44" s="0">
+        <v>1.1129679381219832</v>
+      </c>
+      <c r="W44" s="0">
+        <v>128</v>
+      </c>
+      <c r="X44" s="0">
+        <v>83.5</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>45882.304351851853</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>45882.590833333335</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>45882.25</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>45882.729166666664</v>
+      </c>
+      <c r="AC44" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="AD44" s="0">
+        <v>1.3337442991388033</v>
       </c>
     </row>
   </sheetData>
@@ -5682,7 +6491,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5716,40 +6525,40 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
       <c r="E1" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="F1" t="s">
-        <v>569</v>
+        <v>642</v>
       </c>
       <c r="G1" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="H1" t="s">
-        <v>639</v>
+        <v>722</v>
       </c>
       <c r="I1" t="s">
-        <v>674</v>
+        <v>762</v>
       </c>
       <c r="J1" t="s">
-        <v>709</v>
+        <v>802</v>
       </c>
       <c r="K1" t="s">
-        <v>710</v>
+        <v>803</v>
       </c>
       <c r="L1" t="s">
-        <v>711</v>
+        <v>804</v>
       </c>
       <c r="M1" t="s">
-        <v>712</v>
+        <v>805</v>
       </c>
       <c r="N1" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="O1" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2">
@@ -5766,19 +6575,19 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="H2" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="I2" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -5810,22 +6619,22 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="E3" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="F3" t="s">
-        <v>570</v>
+        <v>643</v>
       </c>
       <c r="G3" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
       <c r="H3" t="s">
-        <v>640</v>
+        <v>723</v>
       </c>
       <c r="I3" t="s">
-        <v>675</v>
+        <v>763</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -5857,22 +6666,22 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>501</v>
+        <v>564</v>
       </c>
       <c r="E4" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="F4" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
       <c r="G4" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="H4" t="s">
-        <v>641</v>
+        <v>724</v>
       </c>
       <c r="I4" t="s">
-        <v>676</v>
+        <v>764</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -5904,22 +6713,22 @@
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="E5" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="F5" t="s">
-        <v>572</v>
+        <v>645</v>
       </c>
       <c r="G5" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="H5" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="I5" t="s">
-        <v>677</v>
+        <v>765</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -5951,22 +6760,22 @@
         <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="E6" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="F6" t="s">
-        <v>573</v>
+        <v>646</v>
       </c>
       <c r="G6" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="H6" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="I6" t="s">
-        <v>678</v>
+        <v>766</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -5998,22 +6807,22 @@
         <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>504</v>
+        <v>567</v>
       </c>
       <c r="E7" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="F7" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="G7" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="H7" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="I7" t="s">
-        <v>679</v>
+        <v>767</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -6045,22 +6854,22 @@
         <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="E8" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="F8" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="G8" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="H8" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
       <c r="I8" t="s">
-        <v>680</v>
+        <v>768</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -6092,22 +6901,22 @@
         <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="E9" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="F9" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="G9" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="H9" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
       <c r="I9" t="s">
-        <v>681</v>
+        <v>769</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -6139,22 +6948,22 @@
         <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="E10" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="F10" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="G10" t="s">
-        <v>612</v>
+        <v>690</v>
       </c>
       <c r="H10" t="s">
-        <v>647</v>
+        <v>730</v>
       </c>
       <c r="I10" t="s">
-        <v>682</v>
+        <v>770</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -6186,22 +6995,22 @@
         <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="E11" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="F11" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="G11" t="s">
-        <v>613</v>
+        <v>691</v>
       </c>
       <c r="H11" t="s">
-        <v>648</v>
+        <v>731</v>
       </c>
       <c r="I11" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -6233,22 +7042,22 @@
         <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="E12" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
       <c r="F12" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="G12" t="s">
-        <v>614</v>
+        <v>692</v>
       </c>
       <c r="H12" t="s">
-        <v>649</v>
+        <v>732</v>
       </c>
       <c r="I12" t="s">
-        <v>684</v>
+        <v>772</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -6280,22 +7089,22 @@
         <v>204</v>
       </c>
       <c r="D13" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="E13" t="s">
-        <v>545</v>
+        <v>613</v>
       </c>
       <c r="F13" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="G13" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="H13" t="s">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="I13" t="s">
-        <v>685</v>
+        <v>773</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -6327,22 +7136,22 @@
         <v>216</v>
       </c>
       <c r="D14" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="E14" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="F14" t="s">
-        <v>581</v>
+        <v>654</v>
       </c>
       <c r="G14" t="s">
-        <v>616</v>
+        <v>694</v>
       </c>
       <c r="H14" t="s">
-        <v>651</v>
+        <v>734</v>
       </c>
       <c r="I14" t="s">
-        <v>686</v>
+        <v>774</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -6374,22 +7183,22 @@
         <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="E15" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
       <c r="F15" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="G15" t="s">
-        <v>617</v>
+        <v>695</v>
       </c>
       <c r="H15" t="s">
-        <v>652</v>
+        <v>735</v>
       </c>
       <c r="I15" t="s">
-        <v>687</v>
+        <v>775</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -6421,22 +7230,22 @@
         <v>237</v>
       </c>
       <c r="D16" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="E16" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
       <c r="F16" t="s">
-        <v>583</v>
+        <v>656</v>
       </c>
       <c r="G16" t="s">
-        <v>618</v>
+        <v>696</v>
       </c>
       <c r="H16" t="s">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="I16" t="s">
-        <v>688</v>
+        <v>776</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -6468,22 +7277,22 @@
         <v>249</v>
       </c>
       <c r="D17" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="E17" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="F17" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="G17" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="H17" t="s">
-        <v>654</v>
+        <v>737</v>
       </c>
       <c r="I17" t="s">
-        <v>689</v>
+        <v>777</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -6515,22 +7324,22 @@
         <v>261</v>
       </c>
       <c r="D18" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="E18" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="F18" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="G18" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="H18" t="s">
-        <v>655</v>
+        <v>738</v>
       </c>
       <c r="I18" t="s">
-        <v>690</v>
+        <v>778</v>
       </c>
       <c r="J18">
         <v>17</v>
@@ -6562,22 +7371,22 @@
         <v>266</v>
       </c>
       <c r="D19" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="E19" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="F19" t="s">
-        <v>586</v>
+        <v>659</v>
       </c>
       <c r="G19" t="s">
-        <v>621</v>
+        <v>699</v>
       </c>
       <c r="H19" t="s">
-        <v>656</v>
+        <v>739</v>
       </c>
       <c r="I19" t="s">
-        <v>691</v>
+        <v>779</v>
       </c>
       <c r="J19">
         <v>18</v>
@@ -6609,22 +7418,22 @@
         <v>273</v>
       </c>
       <c r="D20" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="E20" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="F20" t="s">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="G20" t="s">
-        <v>622</v>
+        <v>700</v>
       </c>
       <c r="H20" t="s">
-        <v>657</v>
+        <v>740</v>
       </c>
       <c r="I20" t="s">
-        <v>692</v>
+        <v>780</v>
       </c>
       <c r="J20">
         <v>19</v>
@@ -6656,22 +7465,22 @@
         <v>286</v>
       </c>
       <c r="D21" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="E21" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
       <c r="F21" t="s">
-        <v>588</v>
+        <v>661</v>
       </c>
       <c r="G21" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="H21" t="s">
-        <v>658</v>
+        <v>741</v>
       </c>
       <c r="I21" t="s">
-        <v>693</v>
+        <v>781</v>
       </c>
       <c r="J21">
         <v>20</v>
@@ -6703,22 +7512,22 @@
         <v>298</v>
       </c>
       <c r="D22" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="E22" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="F22" t="s">
-        <v>589</v>
+        <v>662</v>
       </c>
       <c r="G22" t="s">
-        <v>624</v>
+        <v>702</v>
       </c>
       <c r="H22" t="s">
-        <v>659</v>
+        <v>742</v>
       </c>
       <c r="I22" t="s">
-        <v>694</v>
+        <v>782</v>
       </c>
       <c r="J22">
         <v>21</v>
@@ -6750,22 +7559,22 @@
         <v>310</v>
       </c>
       <c r="D23" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="E23" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
       <c r="F23" t="s">
-        <v>590</v>
+        <v>663</v>
       </c>
       <c r="G23" t="s">
-        <v>625</v>
+        <v>703</v>
       </c>
       <c r="H23" t="s">
-        <v>660</v>
+        <v>743</v>
       </c>
       <c r="I23" t="s">
-        <v>695</v>
+        <v>783</v>
       </c>
       <c r="J23">
         <v>22</v>
@@ -6797,22 +7606,22 @@
         <v>318</v>
       </c>
       <c r="D24" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="E24" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
       <c r="F24" t="s">
-        <v>591</v>
+        <v>664</v>
       </c>
       <c r="G24" t="s">
-        <v>626</v>
+        <v>704</v>
       </c>
       <c r="H24" t="s">
-        <v>661</v>
+        <v>744</v>
       </c>
       <c r="I24" t="s">
-        <v>696</v>
+        <v>784</v>
       </c>
       <c r="J24">
         <v>23</v>
@@ -6844,22 +7653,22 @@
         <v>332</v>
       </c>
       <c r="D25" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="E25" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="F25" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="G25" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="H25" t="s">
-        <v>662</v>
+        <v>745</v>
       </c>
       <c r="I25" t="s">
-        <v>697</v>
+        <v>785</v>
       </c>
       <c r="J25">
         <v>24</v>
@@ -6891,22 +7700,22 @@
         <v>339</v>
       </c>
       <c r="D26" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E26" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="F26" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="G26" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
       <c r="H26" t="s">
-        <v>663</v>
+        <v>746</v>
       </c>
       <c r="I26" t="s">
-        <v>698</v>
+        <v>786</v>
       </c>
       <c r="J26">
         <v>25</v>
@@ -6938,22 +7747,22 @@
         <v>339</v>
       </c>
       <c r="D27" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E27" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="F27" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="G27" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
       <c r="H27" t="s">
-        <v>663</v>
+        <v>746</v>
       </c>
       <c r="I27" t="s">
-        <v>698</v>
+        <v>786</v>
       </c>
       <c r="J27">
         <v>25</v>
@@ -6985,22 +7794,22 @@
         <v>349</v>
       </c>
       <c r="D28" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="E28" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="F28" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
       <c r="G28" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="H28" t="s">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="I28" t="s">
-        <v>699</v>
+        <v>787</v>
       </c>
       <c r="J28">
         <v>26</v>
@@ -7032,22 +7841,22 @@
         <v>362</v>
       </c>
       <c r="D29" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="E29" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="F29" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
       <c r="G29" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
       <c r="H29" t="s">
-        <v>665</v>
+        <v>748</v>
       </c>
       <c r="I29" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="J29">
         <v>27</v>
@@ -7079,22 +7888,22 @@
         <v>375</v>
       </c>
       <c r="D30" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="E30" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="F30" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
       <c r="G30" t="s">
-        <v>631</v>
+        <v>709</v>
       </c>
       <c r="H30" t="s">
-        <v>666</v>
+        <v>749</v>
       </c>
       <c r="I30" t="s">
-        <v>701</v>
+        <v>789</v>
       </c>
       <c r="J30">
         <v>28</v>
@@ -7126,22 +7935,22 @@
         <v>388</v>
       </c>
       <c r="D31" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
       <c r="E31" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="F31" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="G31" t="s">
-        <v>632</v>
+        <v>710</v>
       </c>
       <c r="H31" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="I31" t="s">
-        <v>702</v>
+        <v>790</v>
       </c>
       <c r="J31">
         <v>29</v>
@@ -7173,22 +7982,22 @@
         <v>397</v>
       </c>
       <c r="D32" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="E32" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="F32" t="s">
-        <v>598</v>
+        <v>671</v>
       </c>
       <c r="G32" t="s">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="H32" t="s">
-        <v>668</v>
+        <v>751</v>
       </c>
       <c r="I32" t="s">
-        <v>703</v>
+        <v>791</v>
       </c>
       <c r="J32">
         <v>30</v>
@@ -7220,22 +8029,22 @@
         <v>406</v>
       </c>
       <c r="D33" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="E33" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="F33" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="G33" t="s">
-        <v>634</v>
+        <v>712</v>
       </c>
       <c r="H33" t="s">
-        <v>669</v>
+        <v>752</v>
       </c>
       <c r="I33" t="s">
-        <v>704</v>
+        <v>792</v>
       </c>
       <c r="J33">
         <v>31</v>
@@ -7267,22 +8076,22 @@
         <v>419</v>
       </c>
       <c r="D34" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="E34" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="F34" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="G34" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="H34" t="s">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="I34" t="s">
-        <v>705</v>
+        <v>793</v>
       </c>
       <c r="J34">
         <v>32</v>
@@ -7314,22 +8123,22 @@
         <v>419</v>
       </c>
       <c r="D35" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="E35" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="F35" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="G35" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="H35" t="s">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="I35" t="s">
-        <v>705</v>
+        <v>793</v>
       </c>
       <c r="J35">
         <v>32</v>
@@ -7361,22 +8170,22 @@
         <v>434</v>
       </c>
       <c r="D36" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="E36" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="F36" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="G36" t="s">
-        <v>636</v>
+        <v>714</v>
       </c>
       <c r="H36" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
       <c r="I36" t="s">
-        <v>706</v>
+        <v>794</v>
       </c>
       <c r="J36">
         <v>33</v>
@@ -7408,22 +8217,22 @@
         <v>447</v>
       </c>
       <c r="D37" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="E37" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="F37" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="G37" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="H37" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
       <c r="I37" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="J37">
         <v>34</v>
@@ -7455,22 +8264,22 @@
         <v>460</v>
       </c>
       <c r="D38" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="E38" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
       <c r="F38" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="G38" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
       <c r="H38" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="I38" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="J38">
         <v>35</v>
@@ -7482,13 +8291,295 @@
         <v>1.1472027099550692</v>
       </c>
       <c r="M38">
-        <v>1.1341092724704294</v>
+        <v>1.165801686137024</v>
       </c>
       <c r="N38">
-        <v>3580</v>
+        <v>3708</v>
       </c>
       <c r="O38">
-        <v>2991.5</v>
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>474</v>
+      </c>
+      <c r="D39" t="s">
+        <v>597</v>
+      </c>
+      <c r="E39" t="s">
+        <v>637</v>
+      </c>
+      <c r="F39" t="s">
+        <v>677</v>
+      </c>
+      <c r="G39" t="s">
+        <v>717</v>
+      </c>
+      <c r="H39" t="s">
+        <v>757</v>
+      </c>
+      <c r="I39" t="s">
+        <v>797</v>
+      </c>
+      <c r="J39">
+        <v>36</v>
+      </c>
+      <c r="K39">
+        <v>115.6668776371308</v>
+      </c>
+      <c r="L39">
+        <v>1.1465507707023657</v>
+      </c>
+      <c r="M39">
+        <v>1.1634922651375534</v>
+      </c>
+      <c r="N39">
+        <v>3845</v>
+      </c>
+      <c r="O39">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>488</v>
+      </c>
+      <c r="D40" t="s">
+        <v>598</v>
+      </c>
+      <c r="E40" t="s">
+        <v>638</v>
+      </c>
+      <c r="F40" t="s">
+        <v>678</v>
+      </c>
+      <c r="G40" t="s">
+        <v>718</v>
+      </c>
+      <c r="H40" t="s">
+        <v>758</v>
+      </c>
+      <c r="I40" t="s">
+        <v>798</v>
+      </c>
+      <c r="J40">
+        <v>37</v>
+      </c>
+      <c r="K40">
+        <v>116.25188524590163</v>
+      </c>
+      <c r="L40">
+        <v>1.1455884999883459</v>
+      </c>
+      <c r="M40">
+        <v>1.161409079625294</v>
+      </c>
+      <c r="N40">
+        <v>3981</v>
+      </c>
+      <c r="O40">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>488</v>
+      </c>
+      <c r="D41" t="s">
+        <v>598</v>
+      </c>
+      <c r="E41" t="s">
+        <v>638</v>
+      </c>
+      <c r="F41" t="s">
+        <v>678</v>
+      </c>
+      <c r="G41" t="s">
+        <v>718</v>
+      </c>
+      <c r="H41" t="s">
+        <v>758</v>
+      </c>
+      <c r="I41" t="s">
+        <v>798</v>
+      </c>
+      <c r="J41">
+        <v>37</v>
+      </c>
+      <c r="K41">
+        <v>116.25188524590163</v>
+      </c>
+      <c r="L41">
+        <v>1.1455884999883459</v>
+      </c>
+      <c r="M41">
+        <v>1.161409079625294</v>
+      </c>
+      <c r="N41">
+        <v>3981</v>
+      </c>
+      <c r="O41">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>500</v>
+      </c>
+      <c r="D42" t="s">
+        <v>599</v>
+      </c>
+      <c r="E42" t="s">
+        <v>639</v>
+      </c>
+      <c r="F42" t="s">
+        <v>679</v>
+      </c>
+      <c r="G42" t="s">
+        <v>719</v>
+      </c>
+      <c r="H42" t="s">
+        <v>759</v>
+      </c>
+      <c r="I42" t="s">
+        <v>799</v>
+      </c>
+      <c r="J42">
+        <v>38</v>
+      </c>
+      <c r="K42">
+        <v>116.65181999999999</v>
+      </c>
+      <c r="L42">
+        <v>1.1456172138523208</v>
+      </c>
+      <c r="M42">
+        <v>1.1615834279371564</v>
+      </c>
+      <c r="N42">
+        <v>4103</v>
+      </c>
+      <c r="O42">
+        <v>3343.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>513</v>
+      </c>
+      <c r="D43" t="s">
+        <v>600</v>
+      </c>
+      <c r="E43" t="s">
+        <v>640</v>
+      </c>
+      <c r="F43" t="s">
+        <v>680</v>
+      </c>
+      <c r="G43" t="s">
+        <v>720</v>
+      </c>
+      <c r="H43" t="s">
+        <v>760</v>
+      </c>
+      <c r="I43" t="s">
+        <v>800</v>
+      </c>
+      <c r="J43">
+        <v>39</v>
+      </c>
+      <c r="K43">
+        <v>117.16411306042885</v>
+      </c>
+      <c r="L43">
+        <v>1.144904060343408</v>
+      </c>
+      <c r="M43">
+        <v>1.1600012989673765</v>
+      </c>
+      <c r="N43">
+        <v>4231</v>
+      </c>
+      <c r="O43">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>524</v>
+      </c>
+      <c r="D44" t="s">
+        <v>601</v>
+      </c>
+      <c r="E44" t="s">
+        <v>641</v>
+      </c>
+      <c r="F44" t="s">
+        <v>681</v>
+      </c>
+      <c r="G44" t="s">
+        <v>721</v>
+      </c>
+      <c r="H44" t="s">
+        <v>761</v>
+      </c>
+      <c r="I44" t="s">
+        <v>801</v>
+      </c>
+      <c r="J44">
+        <v>40</v>
+      </c>
+      <c r="K44">
+        <v>117.5028816793893</v>
+      </c>
+      <c r="L44">
+        <v>1.1442336455639506</v>
+      </c>
+      <c r="M44">
+        <v>1.1636485756885324</v>
+      </c>
+      <c r="N44">
+        <v>4359</v>
+      </c>
+      <c r="O44">
+        <v>3517.5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/Summary/1633-SiteProgression.xlsx
+++ b/assets/data/Summary/1633-SiteProgression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="991" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3237" uniqueCount="1043">
   <si>
     <t>Time</t>
   </si>
@@ -154,6 +154,18 @@
     <t>1.4858 hr</t>
   </si>
   <si>
+    <t>0.48722 hr</t>
+  </si>
+  <si>
+    <t>1.8617 hr</t>
+  </si>
+  <si>
+    <t>1.7592 hr</t>
+  </si>
+  <si>
+    <t>0.12861 hr</t>
+  </si>
+  <si>
     <t>mean_MoveTime</t>
   </si>
   <si>
@@ -280,6 +292,18 @@
     <t>8.915 min</t>
   </si>
   <si>
+    <t>7.3083 min</t>
+  </si>
+  <si>
+    <t>8.5923 min</t>
+  </si>
+  <si>
+    <t>8.1192 min</t>
+  </si>
+  <si>
+    <t>7.7167 min</t>
+  </si>
+  <si>
     <t>sum_DrillTime</t>
   </si>
   <si>
@@ -403,6 +427,18 @@
     <t>2.4811 hr</t>
   </si>
   <si>
+    <t>2.4994 hr</t>
+  </si>
+  <si>
+    <t>4.0736 hr</t>
+  </si>
+  <si>
+    <t>4.5803 hr</t>
+  </si>
+  <si>
+    <t>0.50278 hr</t>
+  </si>
+  <si>
     <t>mean_DrillTime</t>
   </si>
   <si>
@@ -526,6 +562,18 @@
     <t>13.533 min</t>
   </si>
   <si>
+    <t>29.993 min</t>
+  </si>
+  <si>
+    <t>17.458 min</t>
+  </si>
+  <si>
+    <t>19.63 min</t>
+  </si>
+  <si>
+    <t>15.083 min</t>
+  </si>
+  <si>
     <t>sum_GroutTime</t>
   </si>
   <si>
@@ -649,6 +697,18 @@
     <t>2.3842 hr</t>
   </si>
   <si>
+    <t>1.09 hr</t>
+  </si>
+  <si>
+    <t>2.6156 hr</t>
+  </si>
+  <si>
+    <t>3.5767 hr</t>
+  </si>
+  <si>
+    <t>0.45306 hr</t>
+  </si>
+  <si>
     <t>mean_GroutTime</t>
   </si>
   <si>
@@ -769,6 +829,18 @@
     <t>13.005 min</t>
   </si>
   <si>
+    <t>13.08 min</t>
+  </si>
+  <si>
+    <t>11.21 min</t>
+  </si>
+  <si>
+    <t>15.329 min</t>
+  </si>
+  <si>
+    <t>13.592 min</t>
+  </si>
+  <si>
     <t>sum_InstallTime</t>
   </si>
   <si>
@@ -889,6 +961,18 @@
     <t>5.3897 hr</t>
   </si>
   <si>
+    <t>3.1389 hr</t>
+  </si>
+  <si>
+    <t>7.8825 hr</t>
+  </si>
+  <si>
+    <t>8.4356 hr</t>
+  </si>
+  <si>
+    <t>1.0844 hr</t>
+  </si>
+  <si>
     <t>mean_InstallTime</t>
   </si>
   <si>
@@ -1009,6 +1093,18 @@
     <t>29.398 min</t>
   </si>
   <si>
+    <t>37.667 min</t>
+  </si>
+  <si>
+    <t>33.782 min</t>
+  </si>
+  <si>
+    <t>36.152 min</t>
+  </si>
+  <si>
+    <t>32.533 min</t>
+  </si>
+  <si>
     <t>sum_DelayTime</t>
   </si>
   <si>
@@ -1132,6 +1228,18 @@
     <t>0.68333 hr</t>
   </si>
   <si>
+    <t>0.16472 hr</t>
+  </si>
+  <si>
+    <t>0.79444 hr</t>
+  </si>
+  <si>
+    <t>0.67583 hr</t>
+  </si>
+  <si>
+    <t>0.045278 hr</t>
+  </si>
+  <si>
     <t>mean_DelayTime</t>
   </si>
   <si>
@@ -1255,6 +1363,18 @@
     <t>4.1 min</t>
   </si>
   <si>
+    <t>2.4708 min</t>
+  </si>
+  <si>
+    <t>3.6667 min</t>
+  </si>
+  <si>
+    <t>3.1192 min</t>
+  </si>
+  <si>
+    <t>2.7167 min</t>
+  </si>
+  <si>
     <t>sum_CycleTime</t>
   </si>
   <si>
@@ -1378,6 +1498,18 @@
     <t>6.385 hr</t>
   </si>
   <si>
+    <t>2.6836 hr</t>
+  </si>
+  <si>
+    <t>9.1586 hr</t>
+  </si>
+  <si>
+    <t>9.6736 hr</t>
+  </si>
+  <si>
+    <t>0.69417 hr</t>
+  </si>
+  <si>
     <t>mean_CycleTime</t>
   </si>
   <si>
@@ -1501,6 +1633,18 @@
     <t>38.31 min</t>
   </si>
   <si>
+    <t>40.254 min</t>
+  </si>
+  <si>
+    <t>42.271 min</t>
+  </si>
+  <si>
+    <t>44.647 min</t>
+  </si>
+  <si>
+    <t>41.65 min</t>
+  </si>
+  <si>
     <t>sum_PileLength</t>
   </si>
   <si>
@@ -1636,6 +1780,18 @@
     <t>6.8756 hr</t>
   </si>
   <si>
+    <t>3.6261 hr</t>
+  </si>
+  <si>
+    <t>9.7442 hr</t>
+  </si>
+  <si>
+    <t>10.195 hr</t>
+  </si>
+  <si>
+    <t>1.2131 hr</t>
+  </si>
+  <si>
     <t>PileWaste</t>
   </si>
   <si>
@@ -1822,6 +1978,18 @@
     <t>101.72 hr</t>
   </si>
   <si>
+    <t>102.21 hr</t>
+  </si>
+  <si>
+    <t>104.07 hr</t>
+  </si>
+  <si>
+    <t>105.83 hr</t>
+  </si>
+  <si>
+    <t>105.96 hr</t>
+  </si>
+  <si>
     <t>HoursDrilled</t>
   </si>
   <si>
@@ -1942,6 +2110,18 @@
     <t>101.76 hr</t>
   </si>
   <si>
+    <t>104.26 hr</t>
+  </si>
+  <si>
+    <t>108.33 hr</t>
+  </si>
+  <si>
+    <t>112.91 hr</t>
+  </si>
+  <si>
+    <t>113.42 hr</t>
+  </si>
+  <si>
     <t>HoursGrouted</t>
   </si>
   <si>
@@ -2062,6 +2242,18 @@
     <t>97.549 hr</t>
   </si>
   <si>
+    <t>98.639 hr</t>
+  </si>
+  <si>
+    <t>101.25 hr</t>
+  </si>
+  <si>
+    <t>104.83 hr</t>
+  </si>
+  <si>
+    <t>105.28 hr</t>
+  </si>
+  <si>
     <t>HoursDelayed</t>
   </si>
   <si>
@@ -2182,6 +2374,18 @@
     <t>63.177 hr</t>
   </si>
   <si>
+    <t>63.342 hr</t>
+  </si>
+  <si>
+    <t>64.136 hr</t>
+  </si>
+  <si>
+    <t>64.812 hr</t>
+  </si>
+  <si>
+    <t>64.858 hr</t>
+  </si>
+  <si>
     <t>HoursTurn</t>
   </si>
   <si>
@@ -2302,6 +2506,18 @@
     <t>327.24 hr</t>
   </si>
   <si>
+    <t>330.87 hr</t>
+  </si>
+  <si>
+    <t>340.61 hr</t>
+  </si>
+  <si>
+    <t>350.81 hr</t>
+  </si>
+  <si>
+    <t>352.02 hr</t>
+  </si>
+  <si>
     <t>HoursCycle</t>
   </si>
   <si>
@@ -2422,6 +2638,18 @@
     <t>306.86 hr</t>
   </si>
   <si>
+    <t>309.55 hr</t>
+  </si>
+  <si>
+    <t>318.7 hr</t>
+  </si>
+  <si>
+    <t>328.38 hr</t>
+  </si>
+  <si>
+    <t>329.07 hr</t>
+  </si>
+  <si>
     <t>DaysRigDrilled</t>
   </si>
   <si>
@@ -2432,6 +2660,489 @@
   </si>
   <si>
     <t>AverageRigWaste</t>
+  </si>
+  <si>
+    <t>1.5742 hr</t>
+  </si>
+  <si>
+    <t>0 hr</t>
+  </si>
+  <si>
+    <t>1.6764 hr</t>
+  </si>
+  <si>
+    <t>23.612 min</t>
+  </si>
+  <si>
+    <t>0 min</t>
+  </si>
+  <si>
+    <t>7.7372 min</t>
+  </si>
+  <si>
+    <t>0.70944 hr</t>
+  </si>
+  <si>
+    <t>0.071111 hr</t>
+  </si>
+  <si>
+    <t>4.2722 hr</t>
+  </si>
+  <si>
+    <t>8.5133 min</t>
+  </si>
+  <si>
+    <t>4.2667 min</t>
+  </si>
+  <si>
+    <t>18.31 min</t>
+  </si>
+  <si>
+    <t>2.8403 hr</t>
+  </si>
+  <si>
+    <t>12.173 min</t>
+  </si>
+  <si>
+    <t>1.0558 hr</t>
+  </si>
+  <si>
+    <t>0.10306 hr</t>
+  </si>
+  <si>
+    <t>7.5803 hr</t>
+  </si>
+  <si>
+    <t>12.67 min</t>
+  </si>
+  <si>
+    <t>6.1833 min</t>
+  </si>
+  <si>
+    <t>32.487 min</t>
+  </si>
+  <si>
+    <t>1.2408 hr</t>
+  </si>
+  <si>
+    <t>0.63778 hr</t>
+  </si>
+  <si>
+    <t>18.612 min</t>
+  </si>
+  <si>
+    <t>2.9436 min</t>
+  </si>
+  <si>
+    <t>2.4914 hr</t>
+  </si>
+  <si>
+    <t>8.5786 hr</t>
+  </si>
+  <si>
+    <t>37.371 min</t>
+  </si>
+  <si>
+    <t>39.594 min</t>
+  </si>
+  <si>
+    <t>2.63 hr</t>
+  </si>
+  <si>
+    <t>9.2567 hr</t>
+  </si>
+  <si>
+    <t>63.199 hr</t>
+  </si>
+  <si>
+    <t>65.829 hr</t>
+  </si>
+  <si>
+    <t>68.399 hr</t>
+  </si>
+  <si>
+    <t>70.518 hr</t>
+  </si>
+  <si>
+    <t>73.411 hr</t>
+  </si>
+  <si>
+    <t>77.145 hr</t>
+  </si>
+  <si>
+    <t>80.744 hr</t>
+  </si>
+  <si>
+    <t>82.771 hr</t>
+  </si>
+  <si>
+    <t>86.868 hr</t>
+  </si>
+  <si>
+    <t>88.617 hr</t>
+  </si>
+  <si>
+    <t>92.038 hr</t>
+  </si>
+  <si>
+    <t>94.26 hr</t>
+  </si>
+  <si>
+    <t>95.926 hr</t>
+  </si>
+  <si>
+    <t>99.184 hr</t>
+  </si>
+  <si>
+    <t>101.81 hr</t>
+  </si>
+  <si>
+    <t>103.29 hr</t>
+  </si>
+  <si>
+    <t>103.78 hr</t>
+  </si>
+  <si>
+    <t>105.64 hr</t>
+  </si>
+  <si>
+    <t>107.4 hr</t>
+  </si>
+  <si>
+    <t>109.08 hr</t>
+  </si>
+  <si>
+    <t>57.858 hr</t>
+  </si>
+  <si>
+    <t>60.454 hr</t>
+  </si>
+  <si>
+    <t>63.628 hr</t>
+  </si>
+  <si>
+    <t>67.775 hr</t>
+  </si>
+  <si>
+    <t>71.648 hr</t>
+  </si>
+  <si>
+    <t>73.888 hr</t>
+  </si>
+  <si>
+    <t>76.923 hr</t>
+  </si>
+  <si>
+    <t>79.713 hr</t>
+  </si>
+  <si>
+    <t>79.784 hr</t>
+  </si>
+  <si>
+    <t>83.276 hr</t>
+  </si>
+  <si>
+    <t>85.946 hr</t>
+  </si>
+  <si>
+    <t>88.911 hr</t>
+  </si>
+  <si>
+    <t>91.82 hr</t>
+  </si>
+  <si>
+    <t>94.975 hr</t>
+  </si>
+  <si>
+    <t>97.538 hr</t>
+  </si>
+  <si>
+    <t>100.06 hr</t>
+  </si>
+  <si>
+    <t>102.54 hr</t>
+  </si>
+  <si>
+    <t>105.04 hr</t>
+  </si>
+  <si>
+    <t>109.11 hr</t>
+  </si>
+  <si>
+    <t>113.7 hr</t>
+  </si>
+  <si>
+    <t>117.97 hr</t>
+  </si>
+  <si>
+    <t>107.67 hr</t>
+  </si>
+  <si>
+    <t>38.384 hr</t>
+  </si>
+  <si>
+    <t>40.263 hr</t>
+  </si>
+  <si>
+    <t>41.834 hr</t>
+  </si>
+  <si>
+    <t>42.952 hr</t>
+  </si>
+  <si>
+    <t>44.845 hr</t>
+  </si>
+  <si>
+    <t>47.913 hr</t>
+  </si>
+  <si>
+    <t>50.847 hr</t>
+  </si>
+  <si>
+    <t>51.874 hr</t>
+  </si>
+  <si>
+    <t>54.86 hr</t>
+  </si>
+  <si>
+    <t>55.612 hr</t>
+  </si>
+  <si>
+    <t>58.032 hr</t>
+  </si>
+  <si>
+    <t>59.171 hr</t>
+  </si>
+  <si>
+    <t>59.767 hr</t>
+  </si>
+  <si>
+    <t>62.112 hr</t>
+  </si>
+  <si>
+    <t>63.735 hr</t>
+  </si>
+  <si>
+    <t>64.418 hr</t>
+  </si>
+  <si>
+    <t>64.583 hr</t>
+  </si>
+  <si>
+    <t>65.377 hr</t>
+  </si>
+  <si>
+    <t>66.053 hr</t>
+  </si>
+  <si>
+    <t>66.691 hr</t>
+  </si>
+  <si>
+    <t>193.11 hr</t>
+  </si>
+  <si>
+    <t>202.21 hr</t>
+  </si>
+  <si>
+    <t>211.96 hr</t>
+  </si>
+  <si>
+    <t>221.67 hr</t>
+  </si>
+  <si>
+    <t>231.54 hr</t>
+  </si>
+  <si>
+    <t>239.72 hr</t>
+  </si>
+  <si>
+    <t>248.76 hr</t>
+  </si>
+  <si>
+    <t>256.91 hr</t>
+  </si>
+  <si>
+    <t>257.01 hr</t>
+  </si>
+  <si>
+    <t>268.46 hr</t>
+  </si>
+  <si>
+    <t>276.48 hr</t>
+  </si>
+  <si>
+    <t>286.92 hr</t>
+  </si>
+  <si>
+    <t>295.92 hr</t>
+  </si>
+  <si>
+    <t>304.58 hr</t>
+  </si>
+  <si>
+    <t>313.91 hr</t>
+  </si>
+  <si>
+    <t>323.1 hr</t>
+  </si>
+  <si>
+    <t>329.97 hr</t>
+  </si>
+  <si>
+    <t>333.6 hr</t>
+  </si>
+  <si>
+    <t>343.34 hr</t>
+  </si>
+  <si>
+    <t>353.54 hr</t>
+  </si>
+  <si>
+    <t>362.8 hr</t>
+  </si>
+  <si>
+    <t>181.51 hr</t>
+  </si>
+  <si>
+    <t>188.87 hr</t>
+  </si>
+  <si>
+    <t>198.14 hr</t>
+  </si>
+  <si>
+    <t>207.21 hr</t>
+  </si>
+  <si>
+    <t>216.47 hr</t>
+  </si>
+  <si>
+    <t>224.13 hr</t>
+  </si>
+  <si>
+    <t>232.61 hr</t>
+  </si>
+  <si>
+    <t>240.27 hr</t>
+  </si>
+  <si>
+    <t>251.23 hr</t>
+  </si>
+  <si>
+    <t>258.78 hr</t>
+  </si>
+  <si>
+    <t>268.74 hr</t>
+  </si>
+  <si>
+    <t>277.25 hr</t>
+  </si>
+  <si>
+    <t>285.47 hr</t>
+  </si>
+  <si>
+    <t>294.34 hr</t>
+  </si>
+  <si>
+    <t>302.97 hr</t>
+  </si>
+  <si>
+    <t>309.35 hr</t>
+  </si>
+  <si>
+    <t>312.04 hr</t>
+  </si>
+  <si>
+    <t>321.2 hr</t>
+  </si>
+  <si>
+    <t>339.45 hr</t>
+  </si>
+  <si>
+    <t>107.5 hr</t>
+  </si>
+  <si>
+    <t>79.075 hr</t>
+  </si>
+  <si>
+    <t>82.567 hr</t>
+  </si>
+  <si>
+    <t>85.236 hr</t>
+  </si>
+  <si>
+    <t>88.201 hr</t>
+  </si>
+  <si>
+    <t>91.111 hr</t>
+  </si>
+  <si>
+    <t>94.266 hr</t>
+  </si>
+  <si>
+    <t>96.828 hr</t>
+  </si>
+  <si>
+    <t>99.351 hr</t>
+  </si>
+  <si>
+    <t>101.83 hr</t>
+  </si>
+  <si>
+    <t>104.33 hr</t>
+  </si>
+  <si>
+    <t>108.41 hr</t>
+  </si>
+  <si>
+    <t>112.99 hr</t>
+  </si>
+  <si>
+    <t>117.26 hr</t>
+  </si>
+  <si>
+    <t>65.45 hr</t>
+  </si>
+  <si>
+    <t>254.38 hr</t>
+  </si>
+  <si>
+    <t>265.83 hr</t>
+  </si>
+  <si>
+    <t>273.85 hr</t>
+  </si>
+  <si>
+    <t>284.29 hr</t>
+  </si>
+  <si>
+    <t>293.29 hr</t>
+  </si>
+  <si>
+    <t>301.95 hr</t>
+  </si>
+  <si>
+    <t>311.28 hr</t>
+  </si>
+  <si>
+    <t>320.47 hr</t>
+  </si>
+  <si>
+    <t>327.34 hr</t>
+  </si>
+  <si>
+    <t>330.97 hr</t>
+  </si>
+  <si>
+    <t>340.72 hr</t>
+  </si>
+  <si>
+    <t>350.91 hr</t>
+  </si>
+  <si>
+    <t>360.17 hr</t>
+  </si>
+  <si>
+    <t>336.96 hr</t>
   </si>
 </sst>
 </file>
@@ -2477,7 +3188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD44"/>
+  <dimension ref="A1:AD48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2503,7 +3214,7 @@
     <col min="18" max="18" width="16.42578125" customWidth="true"/>
     <col min="19" max="19" width="17.85546875" customWidth="true"/>
     <col min="20" max="20" width="16.28515625" customWidth="true"/>
-    <col min="21" max="21" width="9.5703125" customWidth="true"/>
+    <col min="21" max="21" width="10" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="17.85546875" customWidth="true"/>
     <col min="24" max="24" width="11.140625" customWidth="true"/>
@@ -2529,82 +3240,82 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>540</v>
+        <v>592</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>541</v>
+        <v>593</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>542</v>
+        <v>594</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>543</v>
+        <v>595</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>544</v>
+        <v>596</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>545</v>
+        <v>597</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>546</v>
+        <v>598</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>561</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2">
@@ -2621,37 +3332,37 @@
         <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="P2" s="0">
         <v>1005.6900000000001</v>
@@ -2669,7 +3380,7 @@
         <v>39.818402127995697</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="V2" s="0">
         <v>1.1696853090760726</v>
@@ -2693,7 +3404,7 @@
         <v>45818.75</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="AD2" s="0">
         <v>1.2557008148964817</v>
@@ -2713,37 +3424,37 @@
         <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="P3" s="0">
         <v>1955.6199999999997</v>
@@ -2761,7 +3472,7 @@
         <v>77.429092035866844</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>502</v>
+        <v>550</v>
       </c>
       <c r="V3" s="0">
         <v>1.1228337788040632</v>
@@ -2785,7 +3496,7 @@
         <v>45819.770833333336</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="AD3" s="0">
         <v>1.1623538082857803</v>
@@ -2805,37 +3516,37 @@
         <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="P4" s="0">
         <v>1838.0299999999997</v>
@@ -2853,7 +3564,7 @@
         <v>72.773337373663779</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>503</v>
+        <v>551</v>
       </c>
       <c r="V4" s="0">
         <v>1.1624312289766452</v>
@@ -2877,7 +3588,7 @@
         <v>45820.75</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="AD4" s="0">
         <v>1.1267863060747203</v>
@@ -2897,37 +3608,37 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="P5" s="0">
         <v>2067.6599999999999</v>
@@ -2945,7 +3656,7 @@
         <v>81.865104897107045</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>504</v>
+        <v>552</v>
       </c>
       <c r="V5" s="0">
         <v>1.1639757882160529</v>
@@ -2969,7 +3680,7 @@
         <v>45821.75</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="AD5" s="0">
         <v>1.1237999403485905</v>
@@ -2989,37 +3700,37 @@
         <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="P6" s="0">
         <v>1071.9200000000001</v>
@@ -3037,7 +3748,7 @@
         <v>42.440654286152935</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="V6" s="0">
         <v>1.162446734853861</v>
@@ -3061,7 +3772,7 @@
         <v>45822.6875</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="AD6" s="0">
         <v>1.1781156733088689</v>
@@ -3081,37 +3792,37 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="P7" s="0">
         <v>2068.3699999999999</v>
@@ -3129,7 +3840,7 @@
         <v>81.893216010383355</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
       <c r="V7" s="0">
         <v>1.1644187961541217</v>
@@ -3153,7 +3864,7 @@
         <v>45824.729166666664</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>551</v>
+        <v>603</v>
       </c>
       <c r="AD7" s="0">
         <v>1.1600472496763934</v>
@@ -3173,37 +3884,37 @@
         <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="P8" s="0">
         <v>1071.9200000000001</v>
@@ -3221,7 +3932,7 @@
         <v>42.440654286152942</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="V8" s="0">
         <v>1.2014659259538503</v>
@@ -3245,7 +3956,7 @@
         <v>45825.708333333336</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="AD8" s="0">
         <v>1.1545533598426914</v>
@@ -3265,37 +3976,37 @@
         <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="P9" s="0">
         <v>1445.6899999999998</v>
@@ -3313,7 +4024,7 @@
         <v>94.620189236838073</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="V9" s="0">
         <v>1.1164530619948498</v>
@@ -3337,7 +4048,7 @@
         <v>45827.75</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="AD9" s="0">
         <v>1.1836797294883818</v>
@@ -3357,37 +4068,37 @@
         <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="P10" s="0">
         <v>1630.8099999999999</v>
@@ -3405,7 +4116,7 @@
         <v>106.73626490418272</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="V10" s="0">
         <v>1.1267679275451865</v>
@@ -3429,7 +4140,7 @@
         <v>45828.708333333336</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="AD10" s="0">
         <v>1.1430042086400489</v>
@@ -3449,37 +4160,37 @@
         <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="P11" s="0">
         <v>1446.5899999999997</v>
@@ -3497,7 +4208,7 @@
         <v>94.679094099092893</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="V11" s="0">
         <v>1.1332491192586092</v>
@@ -3521,7 +4232,7 @@
         <v>45831.770833333336</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="AD11" s="0">
         <v>1.172381306097261</v>
@@ -3541,37 +4252,37 @@
         <v>15</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
       <c r="P12" s="0">
         <v>1583.1600000000001</v>
@@ -3589,7 +4300,7 @@
         <v>103.61757969702535</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="V12" s="0">
         <v>1.1380404786986671</v>
@@ -3613,7 +4324,7 @@
         <v>45832.6875</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="AD12" s="0">
         <v>0.11581046416146405</v>
@@ -3633,37 +4344,37 @@
         <v>16</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="P13" s="0">
         <v>1584.28</v>
@@ -3681,7 +4392,7 @@
         <v>103.69088352560911</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>512</v>
+        <v>560</v>
       </c>
       <c r="V13" s="0">
         <v>1.1425594610806848</v>
@@ -3705,7 +4416,7 @@
         <v>45833.6875</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="AD13" s="0">
         <v>1.186218072581299</v>
@@ -3725,37 +4436,37 @@
         <v>17</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="P14" s="0">
         <v>1583.2899999999995</v>
@@ -3773,7 +4484,7 @@
         <v>103.62608817712881</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="V14" s="0">
         <v>1.1406104589991377</v>
@@ -3797,7 +4508,7 @@
         <v>45834.791666666664</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>553</v>
+        <v>605</v>
       </c>
       <c r="AD14" s="0">
         <v>1.1773097117346023</v>
@@ -3817,37 +4528,37 @@
         <v>18</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="P15" s="0">
         <v>1386.1299999999999</v>
@@ -3865,7 +4576,7 @@
         <v>90.721996352508768</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>513</v>
+        <v>561</v>
       </c>
       <c r="V15" s="0">
         <v>1.138566214952385</v>
@@ -3889,7 +4600,7 @@
         <v>45835.75</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="AD15" s="0">
         <v>1.1353365682098078</v>
@@ -3909,37 +4620,37 @@
         <v>19</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="P16" s="0">
         <v>1450.2899999999997</v>
@@ -3957,7 +4668,7 @@
         <v>94.921258532807101</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>514</v>
+        <v>562</v>
       </c>
       <c r="V16" s="0">
         <v>1.1405348145756238</v>
@@ -3981,7 +4692,7 @@
         <v>45838.729166666664</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>551</v>
+        <v>603</v>
       </c>
       <c r="AD16" s="0">
         <v>1.2852758368962609</v>
@@ -4001,37 +4712,37 @@
         <v>20</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="P17" s="0">
         <v>1585.0899999999999</v>
@@ -4049,7 +4760,7 @@
         <v>103.74389790163845</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>515</v>
+        <v>563</v>
       </c>
       <c r="V17" s="0">
         <v>1.1373199039799773</v>
@@ -4073,7 +4784,7 @@
         <v>45839.708333333336</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="AD17" s="0">
         <v>1.1759727797741946</v>
@@ -4093,37 +4804,37 @@
         <v>21</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="P18" s="0">
         <v>1581.0699999999997</v>
@@ -4141,7 +4852,7 @@
         <v>103.4807895169003</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>516</v>
+        <v>564</v>
       </c>
       <c r="V18" s="0">
         <v>1.1408784234364466</v>
@@ -4165,7 +4876,7 @@
         <v>45840.708333333336</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="AD18" s="0">
         <v>1.1789627869052466</v>
@@ -4185,37 +4896,37 @@
         <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="P19" s="0">
         <v>663.74000000000001</v>
@@ -4233,7 +4944,7 @@
         <v>43.441681414451857</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="V19" s="0">
         <v>1.1420138075847079</v>
@@ -4257,7 +4968,7 @@
         <v>45852.854166666664</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="AD19" s="0">
         <v>2.0717430143037574</v>
@@ -4277,37 +4988,37 @@
         <v>23</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="P20" s="0">
         <v>924.24999999999977</v>
@@ -4325,7 +5036,7 @@
         <v>60.492021043340962</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="V20" s="0">
         <v>1.1509121169900798</v>
@@ -4349,7 +5060,7 @@
         <v>45853.75</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="AD20" s="0">
         <v>1.2398329350951003</v>
@@ -4369,37 +5080,37 @@
         <v>24</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="P21" s="0">
         <v>1718.8499999999999</v>
@@ -4417,7 +5128,7 @@
         <v>112.498469429642</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>519</v>
+        <v>567</v>
       </c>
       <c r="V21" s="0">
         <v>1.1444955709421847</v>
@@ -4441,7 +5152,7 @@
         <v>45854.771527777775</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="AD21" s="0">
         <v>1.2800174147263352</v>
@@ -4461,37 +5172,37 @@
         <v>25</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="P22" s="0">
         <v>1588.8299999999999</v>
@@ -4509,7 +5220,7 @@
         <v>103.98868032923065</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="V22" s="0">
         <v>1.1333156611554043</v>
@@ -4533,7 +5244,7 @@
         <v>45855.854166666664</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>556</v>
+        <v>608</v>
       </c>
       <c r="AD22" s="0">
         <v>1.1732046181732962</v>
@@ -4553,37 +5264,37 @@
         <v>26</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="P23" s="0">
         <v>1584.3199999999997</v>
@@ -4601,7 +5312,7 @@
         <v>103.6935015194871</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
       <c r="V23" s="0">
         <v>1.1591661795451205</v>
@@ -4625,7 +5336,7 @@
         <v>45856.833333333336</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="AD23" s="0">
         <v>1.4658584942416537</v>
@@ -4645,37 +5356,37 @@
         <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="P24" s="0">
         <v>1057.6699999999998</v>
@@ -4693,7 +5404,7 @@
         <v>69.224339623381582</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="V24" s="0">
         <v>1.1751791413626207</v>
@@ -4717,7 +5428,7 @@
         <v>45857.583333333336</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>557</v>
+        <v>609</v>
       </c>
       <c r="AD24" s="0">
         <v>1.184554456512334</v>
@@ -4737,37 +5448,37 @@
         <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="P25" s="0">
         <v>1851.9599999999998</v>
@@ -4785,7 +5496,7 @@
         <v>121.2104985571282</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
       <c r="V25" s="0">
         <v>1.1886099118064173</v>
@@ -4809,7 +5520,7 @@
         <v>45859.791666666664</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>558</v>
+        <v>610</v>
       </c>
       <c r="AD25" s="0">
         <v>1.2210163456282257</v>
@@ -4829,37 +5540,37 @@
         <v>29</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="P26" s="0">
         <v>933.63999999999999</v>
@@ -4877,7 +5588,7 @@
         <v>61.106595106199471</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="V26" s="0">
         <v>1.1449827940569008</v>
@@ -4901,7 +5612,7 @@
         <v>45860.895833333336</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>559</v>
+        <v>611</v>
       </c>
       <c r="AD26" s="0">
         <v>1.6692142611240297</v>
@@ -4919,37 +5630,37 @@
         <v>30</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P27" s="0"/>
       <c r="Q27" s="0"/>
@@ -4987,37 +5698,37 @@
         <v>31</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="P28" s="0">
         <v>1339.1999999999998</v>
@@ -5035,7 +5746,7 @@
         <v>87.650435035155226</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
       <c r="V28" s="0">
         <v>1.1351683532442582</v>
@@ -5059,7 +5770,7 @@
         <v>45863.729166666664</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="AD28" s="0">
         <v>1.2778031273327799</v>
@@ -5079,37 +5790,37 @@
         <v>32</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="P29" s="0">
         <v>1720.7099999999996</v>
@@ -5127,7 +5838,7 @@
         <v>112.62020614496859</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="V29" s="0">
         <v>1.1297794983274803</v>
@@ -5151,7 +5862,7 @@
         <v>45864.75</v>
       </c>
       <c r="AC29" s="0" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="AD29" s="0">
         <v>1.1454427621447147</v>
@@ -5171,37 +5882,37 @@
         <v>33</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="P30" s="0">
         <v>1739.2999999999997</v>
@@ -5219,7 +5930,7 @@
         <v>113.83691879976516</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="V30" s="0">
         <v>1.1352819574054267</v>
@@ -5243,7 +5954,7 @@
         <v>45866.75</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="AD30" s="0">
         <v>1.1332000317656712</v>
@@ -5263,37 +5974,37 @@
         <v>34</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="P31" s="0">
         <v>1726.3699999999997</v>
@@ -5311,7 +6022,7 @@
         <v>112.9906522787044</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="V31" s="0">
         <v>1.1175260736484693</v>
@@ -5335,7 +6046,7 @@
         <v>45867.770833333336</v>
       </c>
       <c r="AC31" s="0" t="s">
-        <v>560</v>
+        <v>612</v>
       </c>
       <c r="AD31" s="0">
         <v>1.1151364954439464</v>
@@ -5355,37 +6066,37 @@
         <v>35</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="P32" s="0">
         <v>1199.3999999999999</v>
@@ -5403,7 +6114,7 @@
         <v>78.500546431574961</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="V32" s="0">
         <v>1.1417882304568021</v>
@@ -5427,7 +6138,7 @@
         <v>45868.729166666664</v>
       </c>
       <c r="AC32" s="0" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="AD32" s="0">
         <v>1.171966364338519</v>
@@ -5447,37 +6158,37 @@
         <v>36</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="P33" s="0">
         <v>1230.2199999999998</v>
@@ -5495,7 +6206,7 @@
         <v>80.517710714567386</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>530</v>
+        <v>578</v>
       </c>
       <c r="V33" s="0">
         <v>1.1620300573582039</v>
@@ -5519,7 +6230,7 @@
         <v>45869.75</v>
       </c>
       <c r="AC33" s="0" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="AD33" s="0">
         <v>1.1426057594475947</v>
@@ -5539,37 +6250,37 @@
         <v>37</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="P34" s="0">
         <v>1728.6299999999999</v>
@@ -5587,7 +6298,7 @@
         <v>113.13856893281093</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
       <c r="V34" s="0">
         <v>1.1435092490592784</v>
@@ -5611,7 +6322,7 @@
         <v>45870.75</v>
       </c>
       <c r="AC34" s="0" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="AD34" s="0">
         <v>1.1136785729968621</v>
@@ -5624,64 +6335,86 @@
       <c r="B35" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="0"/>
+      <c r="C35" s="0">
+        <v>1</v>
+      </c>
       <c r="D35" s="0" t="s">
-        <v>30</v>
+        <v>883</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>72</v>
+        <v>886</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>30</v>
+        <v>889</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>72</v>
+        <v>892</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>30</v>
+        <v>883</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>72</v>
+        <v>886</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>30</v>
+        <v>897</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>72</v>
+        <v>900</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>30</v>
+        <v>883</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>72</v>
+        <v>886</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>30</v>
+        <v>883</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0"/>
-      <c r="R35" s="0"/>
-      <c r="S35" s="0"/>
-      <c r="T35" s="0"/>
+        <v>886</v>
+      </c>
+      <c r="P35" s="0">
+        <v>30.289999999999999</v>
+      </c>
+      <c r="Q35" s="0">
+        <v>30.289999999999999</v>
+      </c>
+      <c r="R35" s="0">
+        <v>0</v>
+      </c>
+      <c r="S35" s="0">
+        <v>0</v>
+      </c>
+      <c r="T35" s="0">
+        <v>1.9824758641090592</v>
+      </c>
       <c r="U35" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
+        <v>897</v>
+      </c>
+      <c r="V35" s="0">
+        <v>0</v>
+      </c>
+      <c r="W35" s="0">
+        <v>0</v>
+      </c>
       <c r="X35" s="0">
         <v>0</v>
       </c>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
+      <c r="Y35" s="1">
+        <v>45871.361886574072</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>45871.366180555553</v>
+      </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AD35" s="0"/>
+      <c r="AD35" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
@@ -5697,37 +6430,37 @@
         <v>38</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="P36" s="0">
         <v>2001.0499999999995</v>
@@ -5745,7 +6478,7 @@
         <v>130.96841623887198</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
       <c r="V36" s="0">
         <v>1.1421990453573223</v>
@@ -5769,7 +6502,7 @@
         <v>45873.833333333336</v>
       </c>
       <c r="AC36" s="0" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="AD36" s="0">
         <v>1.1605851575907333</v>
@@ -5789,37 +6522,37 @@
         <v>39</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="P37" s="0">
         <v>1793.8199999999997</v>
@@ -5837,7 +6570,7 @@
         <v>117.40524445546755</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
       <c r="V37" s="0">
         <v>1.1442674526431145</v>
@@ -5861,7 +6594,7 @@
         <v>45874.75</v>
       </c>
       <c r="AC37" s="0" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="AD37" s="0">
         <v>1.0902409052821409</v>
@@ -5881,37 +6614,37 @@
         <v>40</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="P38" s="0">
         <v>1743.9399999999998</v>
@@ -5929,7 +6662,7 @@
         <v>114.14060608961216</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>534</v>
+        <v>582</v>
       </c>
       <c r="V38" s="0">
         <v>1.1189619923669183</v>
@@ -5953,7 +6686,7 @@
         <v>45875.770833333336</v>
       </c>
       <c r="AC38" s="0" t="s">
-        <v>560</v>
+        <v>612</v>
       </c>
       <c r="AD38" s="0">
         <v>1.1214238682025814</v>
@@ -5973,37 +6706,37 @@
         <v>41</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="P39" s="0">
         <v>1924.5899999999999</v>
@@ -6021,7 +6754,7 @@
         <v>125.96412094109127</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="V39" s="0">
         <v>1.1251299095420988</v>
@@ -6045,7 +6778,7 @@
         <v>45876.729166666664</v>
       </c>
       <c r="AC39" s="0" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="AD39" s="0">
         <v>1.0876112894406638</v>
@@ -6065,37 +6798,37 @@
         <v>42</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="P40" s="0">
         <v>1904.8199999999999</v>
@@ -6113,7 +6846,7 @@
         <v>124.67017746689395</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="V40" s="0">
         <v>1.1130087629565404</v>
@@ -6137,7 +6870,7 @@
         <v>45877.708333333336</v>
       </c>
       <c r="AC40" s="0" t="s">
-        <v>551</v>
+        <v>603</v>
       </c>
       <c r="AD40" s="0">
         <v>1.0908783701387983</v>
@@ -6155,37 +6888,37 @@
         <v>30</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L41" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N41" s="0" t="s">
         <v>30</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P41" s="0"/>
       <c r="Q41" s="0"/>
@@ -6223,37 +6956,37 @@
         <v>43</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="P42" s="0">
         <v>1594.9899999999998</v>
@@ -6271,7 +7004,7 @@
         <v>104.39185138644132</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>537</v>
+        <v>585</v>
       </c>
       <c r="V42" s="0">
         <v>1.1467849109873045</v>
@@ -6295,7 +7028,7 @@
         <v>45880.75</v>
       </c>
       <c r="AC42" s="0" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="AD42" s="0">
         <v>1.1686735926195642</v>
@@ -6315,37 +7048,37 @@
         <v>44</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="P43" s="0">
         <v>1779.2799999999997</v>
@@ -6363,7 +7096,7 @@
         <v>116.45360368081765</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>538</v>
+        <v>586</v>
       </c>
       <c r="V43" s="0">
         <v>1.1174750792313679</v>
@@ -6387,7 +7120,7 @@
         <v>45881.75</v>
       </c>
       <c r="AC43" s="0" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="AD43" s="0">
         <v>1.0991501847450711</v>
@@ -6407,37 +7140,37 @@
         <v>45</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="P44" s="0">
         <v>1466.3200000000002</v>
@@ -6455,7 +7188,7 @@
         <v>95.970419579412194</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
       <c r="V44" s="0">
         <v>1.1129679381219832</v>
@@ -6479,10 +7212,374 @@
         <v>45882.729166666664</v>
       </c>
       <c r="AC44" s="0" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="AD44" s="0">
         <v>1.3337442991388033</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="0">
+        <v>5</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="P45" s="0">
+        <v>661.83000000000004</v>
+      </c>
+      <c r="Q45" s="0">
+        <v>132.36600000000001</v>
+      </c>
+      <c r="R45" s="0">
+        <v>1.1468895370705308</v>
+      </c>
+      <c r="S45" s="0">
+        <v>49.680000000000007</v>
+      </c>
+      <c r="T45" s="0">
+        <v>43.316672206777767</v>
+      </c>
+      <c r="U45" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="V45" s="0">
+        <v>1.146902508180824</v>
+      </c>
+      <c r="W45" s="0">
+        <v>52</v>
+      </c>
+      <c r="X45" s="0">
+        <v>73</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>45884.530289351853</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>45884.681377314817</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>45884.291666666664</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>45884.729166666664</v>
+      </c>
+      <c r="AC45" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD45" s="0">
+        <v>1.2004615625081085</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="0">
+        <v>14</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="P46" s="0">
+        <v>1914.3199999999997</v>
+      </c>
+      <c r="Q46" s="0">
+        <v>136.73714285714283</v>
+      </c>
+      <c r="R46" s="0">
+        <v>1.1147329197759068</v>
+      </c>
+      <c r="S46" s="0">
+        <v>139.65600000000001</v>
+      </c>
+      <c r="T46" s="0">
+        <v>125.29195101291691</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="V46" s="0">
+        <v>1.1146446269768937</v>
+      </c>
+      <c r="W46" s="0">
+        <v>137</v>
+      </c>
+      <c r="X46" s="0">
+        <v>90.5</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>45887.302187499998</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>45887.708194444444</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>45887.270833333336</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>45887.75</v>
+      </c>
+      <c r="AC46" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD46" s="0">
+        <v>1.0934461383387353</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="0">
+        <v>14</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="P47" s="0">
+        <v>1879.6199999999997</v>
+      </c>
+      <c r="Q47" s="0">
+        <v>134.2585714285714</v>
+      </c>
+      <c r="R47" s="0">
+        <v>1.1640939533481247</v>
+      </c>
+      <c r="S47" s="0">
+        <v>143.17500000000001</v>
+      </c>
+      <c r="T47" s="0">
+        <v>123.02084132375929</v>
+      </c>
+      <c r="U47" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="V47" s="0">
+        <v>1.1638271894369521</v>
+      </c>
+      <c r="W47" s="0">
+        <v>132</v>
+      </c>
+      <c r="X47" s="0">
+        <v>82</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>45888.30263888889</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>45888.727418981478</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>45888.25</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>45888.770833333336</v>
+      </c>
+      <c r="AC47" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD47" s="0">
+        <v>1.0729889226867655</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="0">
+        <v>14</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="P48" s="0">
+        <v>1881.7000000000003</v>
+      </c>
+      <c r="Q48" s="0">
+        <v>134.40714285714287</v>
+      </c>
+      <c r="R48" s="0">
+        <v>1.1256534100338333</v>
+      </c>
+      <c r="S48" s="0">
+        <v>138.62100000000004</v>
+      </c>
+      <c r="T48" s="0">
+        <v>123.15697700541486</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="V48" s="0">
+        <v>1.125563515527872</v>
+      </c>
+      <c r="W48" s="0">
+        <v>0</v>
+      </c>
+      <c r="X48" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>45889.341608796298</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>45889.727303240739</v>
+      </c>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD48" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6491,7 +7588,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6515,96 +7612,96 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1" t="s">
-        <v>642</v>
-      </c>
-      <c r="G1" t="s">
-        <v>682</v>
-      </c>
-      <c r="H1" t="s">
-        <v>722</v>
-      </c>
-      <c r="I1" t="s">
-        <v>762</v>
-      </c>
-      <c r="J1" t="s">
-        <v>802</v>
-      </c>
-      <c r="K1" t="s">
-        <v>803</v>
-      </c>
-      <c r="L1" t="s">
-        <v>804</v>
-      </c>
-      <c r="M1" t="s">
-        <v>805</v>
-      </c>
-      <c r="N1" t="s">
-        <v>541</v>
-      </c>
-      <c r="O1" t="s">
-        <v>542</v>
+      <c r="D1" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>45818</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" t="s">
-        <v>332</v>
-      </c>
-      <c r="H2" t="s">
-        <v>501</v>
-      </c>
-      <c r="I2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J2">
+      <c r="E2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="J2" s="0">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0">
         <v>71.835000000000008</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0">
         <v>1.1696853090760726</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="0">
         <v>1.2557008148964817</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="0">
         <v>50</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="0">
         <v>76</v>
       </c>
     </row>
@@ -6612,46 +7709,46 @@
       <c r="A3" s="1">
         <v>45819</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E3" t="s">
-        <v>603</v>
-      </c>
-      <c r="F3" t="s">
-        <v>643</v>
-      </c>
-      <c r="G3" t="s">
-        <v>683</v>
-      </c>
-      <c r="H3" t="s">
-        <v>723</v>
-      </c>
-      <c r="I3" t="s">
-        <v>763</v>
-      </c>
-      <c r="J3">
+      <c r="D3" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="J3" s="0">
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0">
         <v>74.032749999999993</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0">
         <v>1.1392318143992664</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="0">
         <v>1.1950252605995257</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="0">
         <v>140</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="0">
         <v>155</v>
       </c>
     </row>
@@ -6659,46 +7756,46 @@
       <c r="A4" s="1">
         <v>45820</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>64</v>
       </c>
-      <c r="D4" t="s">
-        <v>564</v>
-      </c>
-      <c r="E4" t="s">
-        <v>604</v>
-      </c>
-      <c r="F4" t="s">
-        <v>644</v>
-      </c>
-      <c r="G4" t="s">
-        <v>684</v>
-      </c>
-      <c r="H4" t="s">
-        <v>724</v>
-      </c>
-      <c r="I4" t="s">
-        <v>764</v>
-      </c>
-      <c r="J4">
+      <c r="D4" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="J4" s="0">
         <v>3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="0">
         <v>74.989687499999988</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="0">
         <v>1.1479315948657836</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0">
         <v>1.1694356526527236</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="0">
         <v>222</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="0">
         <v>231</v>
       </c>
     </row>
@@ -6706,46 +7803,46 @@
       <c r="A5" s="1">
         <v>45821</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
-        <v>565</v>
-      </c>
-      <c r="E5" t="s">
-        <v>605</v>
-      </c>
-      <c r="F5" t="s">
-        <v>645</v>
-      </c>
-      <c r="G5" t="s">
-        <v>685</v>
-      </c>
-      <c r="H5" t="s">
-        <v>725</v>
-      </c>
-      <c r="I5" t="s">
-        <v>765</v>
-      </c>
-      <c r="J5">
+      <c r="D5" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="J5" s="0">
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0">
         <v>75.461538461538453</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0">
         <v>1.1526919599257535</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="0">
         <v>1.1558953863646841</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0">
         <v>314</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0">
         <v>307</v>
       </c>
     </row>
@@ -6753,46 +7850,46 @@
       <c r="A6" s="1">
         <v>45822</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>105</v>
       </c>
-      <c r="D6" t="s">
-        <v>566</v>
-      </c>
-      <c r="E6" t="s">
-        <v>606</v>
-      </c>
-      <c r="F6" t="s">
-        <v>646</v>
-      </c>
-      <c r="G6" t="s">
-        <v>686</v>
-      </c>
-      <c r="H6" t="s">
-        <v>726</v>
-      </c>
-      <c r="I6" t="s">
-        <v>766</v>
-      </c>
-      <c r="J6">
+      <c r="D6" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="J6" s="0">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="0">
         <v>75.608761904761892</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="0">
         <v>1.1539925965828344</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="0">
         <v>1.1588580912905755</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0">
         <v>364</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0">
         <v>373.5</v>
       </c>
     </row>
@@ -6800,46 +7897,46 @@
       <c r="A7" s="1">
         <v>45824</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>132</v>
       </c>
-      <c r="D7" t="s">
-        <v>567</v>
-      </c>
-      <c r="E7" t="s">
-        <v>607</v>
-      </c>
-      <c r="F7" t="s">
-        <v>647</v>
-      </c>
-      <c r="G7" t="s">
-        <v>687</v>
-      </c>
-      <c r="H7" t="s">
-        <v>727</v>
-      </c>
-      <c r="I7" t="s">
-        <v>767</v>
-      </c>
-      <c r="J7">
+      <c r="D7" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="J7" s="0">
         <v>6</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="0">
         <v>75.81280303030303</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0">
         <v>1.156125228313325</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0">
         <v>1.1591013282331291</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0">
         <v>459</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0">
         <v>446.5</v>
       </c>
     </row>
@@ -6847,46 +7944,46 @@
       <c r="A8" s="1">
         <v>45825</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>146</v>
       </c>
-      <c r="D8" t="s">
-        <v>568</v>
-      </c>
-      <c r="E8" t="s">
-        <v>608</v>
-      </c>
-      <c r="F8" t="s">
-        <v>648</v>
-      </c>
-      <c r="G8" t="s">
-        <v>688</v>
-      </c>
-      <c r="H8" t="s">
-        <v>728</v>
-      </c>
-      <c r="I8" t="s">
-        <v>768</v>
-      </c>
-      <c r="J8">
+      <c r="D8" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="J8" s="0">
         <v>7</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="0">
         <v>75.884999999999991</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0">
         <v>1.1604729664432385</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0">
         <v>1.1586652216751419</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="0">
         <v>508</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="0">
         <v>526.5</v>
       </c>
     </row>
@@ -6894,46 +7991,46 @@
       <c r="A9" s="1">
         <v>45827</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>157</v>
       </c>
-      <c r="D9" t="s">
-        <v>569</v>
-      </c>
-      <c r="E9" t="s">
-        <v>609</v>
-      </c>
-      <c r="F9" t="s">
-        <v>649</v>
-      </c>
-      <c r="G9" t="s">
-        <v>689</v>
-      </c>
-      <c r="H9" t="s">
-        <v>729</v>
-      </c>
-      <c r="I9" t="s">
-        <v>769</v>
-      </c>
-      <c r="J9">
+      <c r="D9" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="J9" s="0">
         <v>8</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="0">
         <v>79.77643312101911</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="0">
         <v>1.1573887693162814</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="0">
         <v>1.1604178305028212</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="0">
         <v>620</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="0">
         <v>592.5</v>
       </c>
     </row>
@@ -6941,46 +8038,46 @@
       <c r="A10" s="1">
         <v>45828</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>169</v>
       </c>
-      <c r="D10" t="s">
-        <v>570</v>
-      </c>
-      <c r="E10" t="s">
-        <v>610</v>
-      </c>
-      <c r="F10" t="s">
-        <v>650</v>
-      </c>
-      <c r="G10" t="s">
-        <v>690</v>
-      </c>
-      <c r="H10" t="s">
-        <v>730</v>
-      </c>
-      <c r="I10" t="s">
-        <v>770</v>
-      </c>
-      <c r="J10">
+      <c r="D10" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="J10" s="0">
         <v>9</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="0">
         <v>83.761597633136091</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="0">
         <v>1.1552145083621208</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="0">
         <v>1.1591813603113816</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0">
         <v>742</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0">
         <v>678.5</v>
       </c>
     </row>
@@ -6988,46 +8085,46 @@
       <c r="A11" s="1">
         <v>45831</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>180</v>
       </c>
-      <c r="D11" t="s">
-        <v>571</v>
-      </c>
-      <c r="E11" t="s">
-        <v>611</v>
-      </c>
-      <c r="F11" t="s">
-        <v>651</v>
-      </c>
-      <c r="G11" t="s">
-        <v>691</v>
-      </c>
-      <c r="H11" t="s">
-        <v>731</v>
-      </c>
-      <c r="I11" t="s">
-        <v>771</v>
-      </c>
-      <c r="J11">
+      <c r="D11" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="J11" s="0">
         <v>10</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="0">
         <v>86.679444444444442</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0">
         <v>1.1538721790280173</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="0">
         <v>1.1599880236649633</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0">
         <v>853</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0">
         <v>768.5</v>
       </c>
     </row>
@@ -7035,46 +8132,46 @@
       <c r="A12" s="1">
         <v>45832</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>192</v>
       </c>
-      <c r="D12" t="s">
-        <v>572</v>
-      </c>
-      <c r="E12" t="s">
-        <v>612</v>
-      </c>
-      <c r="F12" t="s">
-        <v>652</v>
-      </c>
-      <c r="G12" t="s">
-        <v>692</v>
-      </c>
-      <c r="H12" t="s">
-        <v>732</v>
-      </c>
-      <c r="I12" t="s">
-        <v>772</v>
-      </c>
-      <c r="J12">
+      <c r="D12" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="J12" s="0">
         <v>11</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="0">
         <v>89.507604166666667</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="0">
         <v>1.1528826977574329</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="0">
         <v>1.0947269261959947</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0">
         <v>865</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0">
         <v>851.5</v>
       </c>
     </row>
@@ -7082,46 +8179,46 @@
       <c r="A13" s="1">
         <v>45833</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>204</v>
       </c>
-      <c r="D13" t="s">
-        <v>573</v>
-      </c>
-      <c r="E13" t="s">
-        <v>613</v>
-      </c>
-      <c r="F13" t="s">
-        <v>653</v>
-      </c>
-      <c r="G13" t="s">
-        <v>693</v>
-      </c>
-      <c r="H13" t="s">
-        <v>733</v>
-      </c>
-      <c r="I13" t="s">
-        <v>773</v>
-      </c>
-      <c r="J13">
+      <c r="D13" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="J13" s="0">
         <v>12</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0">
         <v>92.008529411764698</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="0">
         <v>1.1522754485411537</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="0">
         <v>1.1001087583363067</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="0">
         <v>988</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="0">
         <v>931.5</v>
       </c>
     </row>
@@ -7129,46 +8226,46 @@
       <c r="A14" s="1">
         <v>45834</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>216</v>
       </c>
-      <c r="D14" t="s">
-        <v>574</v>
-      </c>
-      <c r="E14" t="s">
-        <v>614</v>
-      </c>
-      <c r="F14" t="s">
-        <v>654</v>
-      </c>
-      <c r="G14" t="s">
-        <v>694</v>
-      </c>
-      <c r="H14" t="s">
-        <v>734</v>
-      </c>
-      <c r="I14" t="s">
-        <v>774</v>
-      </c>
-      <c r="J14">
+      <c r="D14" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="J14" s="0">
         <v>13</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <v>94.226990740740732</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="0">
         <v>1.1516273935665973</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="0">
         <v>1.1043977001917678</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="0">
         <v>1110</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="0">
         <v>1030.5</v>
       </c>
     </row>
@@ -7176,46 +8273,46 @@
       <c r="A15" s="1">
         <v>45835</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>226</v>
       </c>
-      <c r="D15" t="s">
-        <v>575</v>
-      </c>
-      <c r="E15" t="s">
-        <v>615</v>
-      </c>
-      <c r="F15" t="s">
-        <v>655</v>
-      </c>
-      <c r="G15" t="s">
-        <v>695</v>
-      </c>
-      <c r="H15" t="s">
-        <v>735</v>
-      </c>
-      <c r="I15" t="s">
-        <v>775</v>
-      </c>
-      <c r="J15">
+      <c r="D15" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="J15" s="0">
         <v>14</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <v>96.190973451327437</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="0">
         <v>1.1510494653093311</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="0">
         <v>1.105766676652743</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0">
         <v>1213</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0">
         <v>1116.5</v>
       </c>
     </row>
@@ -7223,46 +8320,46 @@
       <c r="A16" s="1">
         <v>45838</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>237</v>
       </c>
-      <c r="D16" t="s">
-        <v>576</v>
-      </c>
-      <c r="E16" t="s">
-        <v>616</v>
-      </c>
-      <c r="F16" t="s">
-        <v>656</v>
-      </c>
-      <c r="G16" t="s">
-        <v>696</v>
-      </c>
-      <c r="H16" t="s">
-        <v>736</v>
-      </c>
-      <c r="I16" t="s">
-        <v>776</v>
-      </c>
-      <c r="J16">
+      <c r="D16" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="J16" s="0">
         <v>15</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <v>97.845780590717297</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="0">
         <v>1.1505614435453195</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="0">
         <v>1.1140983254404169</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0">
         <v>1335</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="0">
         <v>1199.5</v>
       </c>
     </row>
@@ -7270,46 +8367,46 @@
       <c r="A17" s="1">
         <v>45839</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>249</v>
       </c>
-      <c r="D17" t="s">
-        <v>577</v>
-      </c>
-      <c r="E17" t="s">
-        <v>617</v>
-      </c>
-      <c r="F17" t="s">
-        <v>657</v>
-      </c>
-      <c r="G17" t="s">
-        <v>697</v>
-      </c>
-      <c r="H17" t="s">
-        <v>737</v>
-      </c>
-      <c r="I17" t="s">
-        <v>777</v>
-      </c>
-      <c r="J17">
+      <c r="D17" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="J17" s="0">
         <v>16</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <v>99.496144578313263</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="0">
         <v>1.1499232970602427</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="0">
         <v>1.1170802268540927</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0">
         <v>1457</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0">
         <v>1285</v>
       </c>
     </row>
@@ -7317,46 +8414,46 @@
       <c r="A18" s="1">
         <v>45840</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>261</v>
       </c>
-      <c r="D18" t="s">
-        <v>578</v>
-      </c>
-      <c r="E18" t="s">
-        <v>618</v>
-      </c>
-      <c r="F18" t="s">
-        <v>658</v>
-      </c>
-      <c r="G18" t="s">
-        <v>698</v>
-      </c>
-      <c r="H18" t="s">
-        <v>738</v>
-      </c>
-      <c r="I18" t="s">
-        <v>778</v>
-      </c>
-      <c r="J18">
+      <c r="D18" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="J18" s="0">
         <v>17</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0">
         <v>100.97934865900383</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0">
         <v>1.1495074408016774</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="0">
         <v>1.1199254020288585</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="0">
         <v>1579</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="0">
         <v>1365</v>
       </c>
     </row>
@@ -7364,46 +8461,46 @@
       <c r="A19" s="1">
         <v>45852</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>266</v>
       </c>
-      <c r="D19" t="s">
-        <v>579</v>
-      </c>
-      <c r="E19" t="s">
-        <v>619</v>
-      </c>
-      <c r="F19" t="s">
-        <v>659</v>
-      </c>
-      <c r="G19" t="s">
-        <v>699</v>
-      </c>
-      <c r="H19" t="s">
-        <v>739</v>
-      </c>
-      <c r="I19" t="s">
-        <v>779</v>
-      </c>
-      <c r="J19">
+      <c r="D19" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="J19" s="0">
         <v>18</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <v>101.57650375939851</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="0">
         <v>1.1493665830344411</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="0">
         <v>1.1378167105302663</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="0">
         <v>1669</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="0">
         <v>1469.5</v>
       </c>
     </row>
@@ -7411,46 +8508,46 @@
       <c r="A20" s="1">
         <v>45853</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>273</v>
       </c>
-      <c r="D20" t="s">
-        <v>580</v>
-      </c>
-      <c r="E20" t="s">
-        <v>620</v>
-      </c>
-      <c r="F20" t="s">
-        <v>660</v>
-      </c>
-      <c r="G20" t="s">
-        <v>700</v>
-      </c>
-      <c r="H20" t="s">
-        <v>740</v>
-      </c>
-      <c r="I20" t="s">
-        <v>780</v>
-      </c>
-      <c r="J20">
+      <c r="D20" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="J20" s="0">
         <v>19</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <v>102.35750915750917</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0">
         <v>1.1494062121102266</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="0">
         <v>1.1404325111601339</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="0">
         <v>1744</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="0">
         <v>1556</v>
       </c>
     </row>
@@ -7458,46 +8555,46 @@
       <c r="A21" s="1">
         <v>45854</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>286</v>
       </c>
-      <c r="D21" t="s">
-        <v>581</v>
-      </c>
-      <c r="E21" t="s">
-        <v>621</v>
-      </c>
-      <c r="F21" t="s">
-        <v>661</v>
-      </c>
-      <c r="G21" t="s">
-        <v>701</v>
-      </c>
-      <c r="H21" t="s">
-        <v>741</v>
-      </c>
-      <c r="I21" t="s">
-        <v>781</v>
-      </c>
-      <c r="J21">
+      <c r="D21" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="J21" s="0">
         <v>20</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0">
         <v>103.71486013986014</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="0">
         <v>1.1491830011480428</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="0">
         <v>1.1467772795040521</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="0">
         <v>1888</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="0">
         <v>1652.5</v>
       </c>
     </row>
@@ -7505,46 +8602,46 @@
       <c r="A22" s="1">
         <v>45855</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>298</v>
       </c>
-      <c r="D22" t="s">
-        <v>582</v>
-      </c>
-      <c r="E22" t="s">
-        <v>622</v>
-      </c>
-      <c r="F22" t="s">
-        <v>662</v>
-      </c>
-      <c r="G22" t="s">
-        <v>702</v>
-      </c>
-      <c r="H22" t="s">
-        <v>742</v>
-      </c>
-      <c r="I22" t="s">
-        <v>782</v>
-      </c>
-      <c r="J22">
+      <c r="D22" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="J22" s="0">
         <v>21</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0">
         <v>104.87006711409396</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="0">
         <v>1.1485440478597486</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="0">
         <v>1.1478414676383841</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="0">
         <v>2010</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="0">
         <v>1760</v>
       </c>
     </row>
@@ -7552,46 +8649,46 @@
       <c r="A23" s="1">
         <v>45856</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>310</v>
       </c>
-      <c r="D23" t="s">
-        <v>583</v>
-      </c>
-      <c r="E23" t="s">
-        <v>623</v>
-      </c>
-      <c r="F23" t="s">
-        <v>663</v>
-      </c>
-      <c r="G23" t="s">
-        <v>703</v>
-      </c>
-      <c r="H23" t="s">
-        <v>743</v>
-      </c>
-      <c r="I23" t="s">
-        <v>783</v>
-      </c>
-      <c r="J23">
+      <c r="D23" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="J23" s="0">
         <v>22</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0">
         <v>105.92129032258065</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="0">
         <v>1.1489552271507952</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="0">
         <v>1.1601518041520591</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="0">
         <v>2162</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="0">
         <v>1863.5</v>
       </c>
     </row>
@@ -7599,46 +8696,46 @@
       <c r="A24" s="1">
         <v>45857</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>318</v>
       </c>
-      <c r="D24" t="s">
-        <v>584</v>
-      </c>
-      <c r="E24" t="s">
-        <v>624</v>
-      </c>
-      <c r="F24" t="s">
-        <v>664</v>
-      </c>
-      <c r="G24" t="s">
-        <v>704</v>
-      </c>
-      <c r="H24" t="s">
-        <v>744</v>
-      </c>
-      <c r="I24" t="s">
-        <v>784</v>
-      </c>
-      <c r="J24">
+      <c r="D24" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="J24" s="0">
         <v>23</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="0">
         <v>106.58261006289307</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="0">
         <v>1.1496149482630424</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="0">
         <v>1.1607657073560911</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="0">
         <v>2244</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="0">
         <v>1924</v>
       </c>
     </row>
@@ -7646,46 +8743,46 @@
       <c r="A25" s="1">
         <v>45859</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>332</v>
       </c>
-      <c r="D25" t="s">
-        <v>585</v>
-      </c>
-      <c r="E25" t="s">
-        <v>625</v>
-      </c>
-      <c r="F25" t="s">
-        <v>665</v>
-      </c>
-      <c r="G25" t="s">
-        <v>705</v>
-      </c>
-      <c r="H25" t="s">
-        <v>745</v>
-      </c>
-      <c r="I25" t="s">
-        <v>785</v>
-      </c>
-      <c r="J25">
+      <c r="D25" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="J25" s="0">
         <v>24</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="0">
         <v>107.66635542168673</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="0">
         <v>1.1512593141955942</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="0">
         <v>1.1633063969217834</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="0">
         <v>2392</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="0">
         <v>2018.5</v>
       </c>
     </row>
@@ -7693,46 +8790,46 @@
       <c r="A26" s="1">
         <v>45860</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>339</v>
       </c>
-      <c r="D26" t="s">
-        <v>586</v>
-      </c>
-      <c r="E26" t="s">
-        <v>626</v>
-      </c>
-      <c r="F26" t="s">
-        <v>666</v>
-      </c>
-      <c r="G26" t="s">
-        <v>706</v>
-      </c>
-      <c r="H26" t="s">
-        <v>746</v>
-      </c>
-      <c r="I26" t="s">
-        <v>786</v>
-      </c>
-      <c r="J26">
+      <c r="D26" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="J26" s="0">
         <v>25</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="0">
         <v>108.19725663716812</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="0">
         <v>1.1511297105349134</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="0">
         <v>1.1737528719938062</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="0">
         <v>2494</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="0">
         <v>2128.5</v>
       </c>
     </row>
@@ -7740,46 +8837,46 @@
       <c r="A27" s="1">
         <v>45862</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>339</v>
       </c>
-      <c r="D27" t="s">
-        <v>586</v>
-      </c>
-      <c r="E27" t="s">
-        <v>626</v>
-      </c>
-      <c r="F27" t="s">
-        <v>666</v>
-      </c>
-      <c r="G27" t="s">
-        <v>706</v>
-      </c>
-      <c r="H27" t="s">
-        <v>746</v>
-      </c>
-      <c r="I27" t="s">
-        <v>786</v>
-      </c>
-      <c r="J27">
+      <c r="D27" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="J27" s="0">
         <v>25</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="0">
         <v>108.19725663716812</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="0">
         <v>1.1511297105349134</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="0">
         <v>1.1737528719938062</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="0">
         <v>2494</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="0">
         <v>2128.5</v>
       </c>
     </row>
@@ -7787,46 +8884,46 @@
       <c r="A28" s="1">
         <v>45863</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>349</v>
       </c>
-      <c r="D28" t="s">
-        <v>587</v>
-      </c>
-      <c r="E28" t="s">
-        <v>627</v>
-      </c>
-      <c r="F28" t="s">
-        <v>667</v>
-      </c>
-      <c r="G28" t="s">
-        <v>707</v>
-      </c>
-      <c r="H28" t="s">
-        <v>747</v>
-      </c>
-      <c r="I28" t="s">
-        <v>787</v>
-      </c>
-      <c r="J28">
+      <c r="D28" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="J28" s="0">
         <v>26</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="0">
         <v>108.93429799426931</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="0">
         <v>1.1506723650538058</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="0">
         <v>1.1767342546682753</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="0">
         <v>2606</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="0">
         <v>2249</v>
       </c>
     </row>
@@ -7834,46 +8931,46 @@
       <c r="A29" s="1">
         <v>45864</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>362</v>
       </c>
-      <c r="D29" t="s">
-        <v>588</v>
-      </c>
-      <c r="E29" t="s">
-        <v>628</v>
-      </c>
-      <c r="F29" t="s">
-        <v>668</v>
-      </c>
-      <c r="G29" t="s">
-        <v>708</v>
-      </c>
-      <c r="H29" t="s">
-        <v>748</v>
-      </c>
-      <c r="I29" t="s">
-        <v>788</v>
-      </c>
-      <c r="J29">
+      <c r="D29" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="J29" s="0">
         <v>27</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="0">
         <v>109.775635359116</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="0">
         <v>1.1499220687349045</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="0">
         <v>1.1756105270362136</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="0">
         <v>2735</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="0">
         <v>2363.5</v>
       </c>
     </row>
@@ -7881,46 +8978,46 @@
       <c r="A30" s="1">
         <v>45866</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>375</v>
       </c>
-      <c r="D30" t="s">
-        <v>589</v>
-      </c>
-      <c r="E30" t="s">
-        <v>629</v>
-      </c>
-      <c r="F30" t="s">
-        <v>669</v>
-      </c>
-      <c r="G30" t="s">
-        <v>709</v>
-      </c>
-      <c r="H30" t="s">
-        <v>749</v>
-      </c>
-      <c r="I30" t="s">
-        <v>789</v>
-      </c>
-      <c r="J30">
+      <c r="D30" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="J30" s="0">
         <v>28</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="0">
         <v>110.60821333333332</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="0">
         <v>1.1494145448754824</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="0">
         <v>1.1741402965335015</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="0">
         <v>2864</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="0">
         <v>2443.5</v>
       </c>
     </row>
@@ -7928,46 +9025,46 @@
       <c r="A31" s="1">
         <v>45867</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>388</v>
       </c>
-      <c r="D31" t="s">
-        <v>590</v>
-      </c>
-      <c r="E31" t="s">
-        <v>630</v>
-      </c>
-      <c r="F31" t="s">
-        <v>670</v>
-      </c>
-      <c r="G31" t="s">
-        <v>710</v>
-      </c>
-      <c r="H31" t="s">
-        <v>750</v>
-      </c>
-      <c r="I31" t="s">
-        <v>790</v>
-      </c>
-      <c r="J31">
+      <c r="D31" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="J31" s="0">
         <v>29</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="0">
         <v>111.35167525773196</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="0">
         <v>1.1483461167158147</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="0">
         <v>1.1721633650536969</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="0">
         <v>2990</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="0">
         <v>2561</v>
       </c>
     </row>
@@ -7975,46 +9072,46 @@
       <c r="A32" s="1">
         <v>45868</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>397</v>
       </c>
-      <c r="D32" t="s">
-        <v>591</v>
-      </c>
-      <c r="E32" t="s">
-        <v>631</v>
-      </c>
-      <c r="F32" t="s">
-        <v>671</v>
-      </c>
-      <c r="G32" t="s">
-        <v>711</v>
-      </c>
-      <c r="H32" t="s">
-        <v>751</v>
-      </c>
-      <c r="I32" t="s">
-        <v>791</v>
-      </c>
-      <c r="J32">
+      <c r="D32" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="J32" s="0">
         <v>30</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="0">
         <v>111.8484886649874</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="0">
         <v>1.1481974492691367</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="0">
         <v>1.1721588990425216</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="0">
         <v>3082</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="0">
         <v>2651.5</v>
       </c>
     </row>
@@ -8022,46 +9119,46 @@
       <c r="A33" s="1">
         <v>45869</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>406</v>
       </c>
-      <c r="D33" t="s">
-        <v>592</v>
-      </c>
-      <c r="E33" t="s">
-        <v>632</v>
-      </c>
-      <c r="F33" t="s">
-        <v>672</v>
-      </c>
-      <c r="G33" t="s">
-        <v>712</v>
-      </c>
-      <c r="H33" t="s">
-        <v>752</v>
-      </c>
-      <c r="I33" t="s">
-        <v>792</v>
-      </c>
-      <c r="J33">
+      <c r="D33" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="J33" s="0">
         <v>31</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="0">
         <v>112.39918719211822</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="0">
         <v>1.1485040834385987</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="0">
         <v>1.1715037801845061</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="0">
         <v>3174</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="0">
         <v>2719.5</v>
       </c>
     </row>
@@ -8069,46 +9166,46 @@
       <c r="A34" s="1">
         <v>45870</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>419</v>
       </c>
-      <c r="D34" t="s">
-        <v>593</v>
-      </c>
-      <c r="E34" t="s">
-        <v>633</v>
-      </c>
-      <c r="F34" t="s">
-        <v>673</v>
-      </c>
-      <c r="G34" t="s">
-        <v>713</v>
-      </c>
-      <c r="H34" t="s">
-        <v>753</v>
-      </c>
-      <c r="I34" t="s">
-        <v>793</v>
-      </c>
-      <c r="J34">
+      <c r="D34" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="J34" s="0">
         <v>32</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="0">
         <v>113.03747016706443</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="0">
         <v>1.1483491124435363</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="0">
         <v>1.1697096806774909</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="0">
         <v>3300</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="0">
         <v>2798</v>
       </c>
     </row>
@@ -8116,46 +9213,46 @@
       <c r="A35" s="1">
         <v>45871</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C35">
-        <v>419</v>
-      </c>
-      <c r="D35" t="s">
-        <v>593</v>
-      </c>
-      <c r="E35" t="s">
-        <v>633</v>
-      </c>
-      <c r="F35" t="s">
-        <v>673</v>
-      </c>
-      <c r="G35" t="s">
-        <v>713</v>
-      </c>
-      <c r="H35" t="s">
-        <v>753</v>
-      </c>
-      <c r="I35" t="s">
-        <v>793</v>
-      </c>
-      <c r="J35">
-        <v>32</v>
-      </c>
-      <c r="K35">
-        <v>113.03747016706443</v>
-      </c>
-      <c r="L35">
-        <v>1.1483491124435363</v>
-      </c>
-      <c r="M35">
-        <v>1.1697096806774909</v>
-      </c>
-      <c r="N35">
+      <c r="C35" s="0">
+        <v>420</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="J35" s="0">
+        <v>33</v>
+      </c>
+      <c r="K35" s="0">
+        <v>112.84045238095237</v>
+      </c>
+      <c r="L35" s="0">
+        <v>1.1456149478900992</v>
+      </c>
+      <c r="M35" s="0">
+        <v>1.1669246576282586</v>
+      </c>
+      <c r="N35" s="0">
         <v>3300</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="0">
         <v>2798</v>
       </c>
     </row>
@@ -8163,46 +9260,46 @@
       <c r="A36" s="1">
         <v>45873</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C36">
-        <v>434</v>
-      </c>
-      <c r="D36" t="s">
-        <v>594</v>
-      </c>
-      <c r="E36" t="s">
-        <v>634</v>
-      </c>
-      <c r="F36" t="s">
-        <v>674</v>
-      </c>
-      <c r="G36" t="s">
-        <v>714</v>
-      </c>
-      <c r="H36" t="s">
-        <v>754</v>
-      </c>
-      <c r="I36" t="s">
-        <v>794</v>
-      </c>
-      <c r="J36">
-        <v>33</v>
-      </c>
-      <c r="K36">
-        <v>113.74135944700461</v>
-      </c>
-      <c r="L36">
-        <v>1.1481365525212015</v>
-      </c>
-      <c r="M36">
-        <v>1.1693943169763357</v>
-      </c>
-      <c r="N36">
+      <c r="C36" s="0">
+        <v>435</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="J36" s="0">
+        <v>34</v>
+      </c>
+      <c r="K36" s="0">
+        <v>113.54951724137931</v>
+      </c>
+      <c r="L36" s="0">
+        <v>1.1454971581475897</v>
+      </c>
+      <c r="M36" s="0">
+        <v>1.1667060541786889</v>
+      </c>
+      <c r="N36" s="0">
         <v>3452</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="0">
         <v>2902</v>
       </c>
     </row>
@@ -8210,46 +9307,46 @@
       <c r="A37" s="1">
         <v>45874</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C37">
-        <v>447</v>
-      </c>
-      <c r="D37" t="s">
-        <v>595</v>
-      </c>
-      <c r="E37" t="s">
-        <v>635</v>
-      </c>
-      <c r="F37" t="s">
-        <v>675</v>
-      </c>
-      <c r="G37" t="s">
-        <v>715</v>
-      </c>
-      <c r="H37" t="s">
-        <v>755</v>
-      </c>
-      <c r="I37" t="s">
-        <v>795</v>
-      </c>
-      <c r="J37">
-        <v>34</v>
-      </c>
-      <c r="K37">
-        <v>114.44646532438479</v>
-      </c>
-      <c r="L37">
-        <v>1.1480240283636733</v>
-      </c>
-      <c r="M37">
-        <v>1.1670923161888087</v>
-      </c>
-      <c r="N37">
+      <c r="C37" s="0">
+        <v>448</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="J37" s="0">
+        <v>35</v>
+      </c>
+      <c r="K37" s="0">
+        <v>114.25861607142858</v>
+      </c>
+      <c r="L37" s="0">
+        <v>1.1454614747289329</v>
+      </c>
+      <c r="M37" s="0">
+        <v>1.1644871994116015</v>
+      </c>
+      <c r="N37" s="0">
         <v>3580</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="0">
         <v>2991.5</v>
       </c>
     </row>
@@ -8257,46 +9354,46 @@
       <c r="A38" s="1">
         <v>45875</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C38">
-        <v>460</v>
-      </c>
-      <c r="D38" t="s">
-        <v>596</v>
-      </c>
-      <c r="E38" t="s">
-        <v>636</v>
-      </c>
-      <c r="F38" t="s">
-        <v>676</v>
-      </c>
-      <c r="G38" t="s">
-        <v>716</v>
-      </c>
-      <c r="H38" t="s">
-        <v>756</v>
-      </c>
-      <c r="I38" t="s">
-        <v>796</v>
-      </c>
-      <c r="J38">
-        <v>35</v>
-      </c>
-      <c r="K38">
-        <v>115.00328260869566</v>
-      </c>
-      <c r="L38">
-        <v>1.1472027099550692</v>
-      </c>
-      <c r="M38">
-        <v>1.165801686137024</v>
-      </c>
-      <c r="N38">
+      <c r="C38" s="0">
+        <v>461</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="J38" s="0">
+        <v>36</v>
+      </c>
+      <c r="K38" s="0">
+        <v>114.81952277657267</v>
+      </c>
+      <c r="L38" s="0">
+        <v>1.1447142008228457</v>
+      </c>
+      <c r="M38" s="0">
+        <v>1.1632728321540804</v>
+      </c>
+      <c r="N38" s="0">
         <v>3708</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="0">
         <v>3086</v>
       </c>
     </row>
@@ -8304,46 +9401,46 @@
       <c r="A39" s="1">
         <v>45876</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C39">
-        <v>474</v>
-      </c>
-      <c r="D39" t="s">
-        <v>597</v>
-      </c>
-      <c r="E39" t="s">
-        <v>637</v>
-      </c>
-      <c r="F39" t="s">
-        <v>677</v>
-      </c>
-      <c r="G39" t="s">
-        <v>717</v>
-      </c>
-      <c r="H39" t="s">
-        <v>757</v>
-      </c>
-      <c r="I39" t="s">
-        <v>797</v>
-      </c>
-      <c r="J39">
-        <v>36</v>
-      </c>
-      <c r="K39">
-        <v>115.6668776371308</v>
-      </c>
-      <c r="L39">
-        <v>1.1465507707023657</v>
-      </c>
-      <c r="M39">
-        <v>1.1634922651375534</v>
-      </c>
-      <c r="N39">
+      <c r="C39" s="0">
+        <v>475</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="J39" s="0">
+        <v>37</v>
+      </c>
+      <c r="K39" s="0">
+        <v>115.48713684210526</v>
+      </c>
+      <c r="L39" s="0">
+        <v>1.14413697960615</v>
+      </c>
+      <c r="M39" s="0">
+        <v>1.1610428077372639</v>
+      </c>
+      <c r="N39" s="0">
         <v>3845</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="0">
         <v>3173</v>
       </c>
     </row>
@@ -8351,46 +9448,46 @@
       <c r="A40" s="1">
         <v>45877</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C40">
-        <v>488</v>
-      </c>
-      <c r="D40" t="s">
-        <v>598</v>
-      </c>
-      <c r="E40" t="s">
-        <v>638</v>
-      </c>
-      <c r="F40" t="s">
-        <v>678</v>
-      </c>
-      <c r="G40" t="s">
-        <v>718</v>
-      </c>
-      <c r="H40" t="s">
-        <v>758</v>
-      </c>
-      <c r="I40" t="s">
-        <v>798</v>
-      </c>
-      <c r="J40">
-        <v>37</v>
-      </c>
-      <c r="K40">
-        <v>116.25188524590163</v>
-      </c>
-      <c r="L40">
-        <v>1.1455884999883459</v>
-      </c>
-      <c r="M40">
-        <v>1.161409079625294</v>
-      </c>
-      <c r="N40">
+      <c r="C40" s="0">
+        <v>489</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="J40" s="0">
+        <v>38</v>
+      </c>
+      <c r="K40" s="0">
+        <v>116.07609406952965</v>
+      </c>
+      <c r="L40" s="0">
+        <v>1.1432457832194536</v>
+      </c>
+      <c r="M40" s="0">
+        <v>1.1590340099328087</v>
+      </c>
+      <c r="N40" s="0">
         <v>3981</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="0">
         <v>3253</v>
       </c>
     </row>
@@ -8398,46 +9495,46 @@
       <c r="A41" s="1">
         <v>45878</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C41">
-        <v>488</v>
-      </c>
-      <c r="D41" t="s">
-        <v>598</v>
-      </c>
-      <c r="E41" t="s">
-        <v>638</v>
-      </c>
-      <c r="F41" t="s">
-        <v>678</v>
-      </c>
-      <c r="G41" t="s">
-        <v>718</v>
-      </c>
-      <c r="H41" t="s">
-        <v>758</v>
-      </c>
-      <c r="I41" t="s">
-        <v>798</v>
-      </c>
-      <c r="J41">
-        <v>37</v>
-      </c>
-      <c r="K41">
-        <v>116.25188524590163</v>
-      </c>
-      <c r="L41">
-        <v>1.1455884999883459</v>
-      </c>
-      <c r="M41">
-        <v>1.161409079625294</v>
-      </c>
-      <c r="N41">
+      <c r="C41" s="0">
+        <v>489</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="J41" s="0">
+        <v>38</v>
+      </c>
+      <c r="K41" s="0">
+        <v>116.07609406952965</v>
+      </c>
+      <c r="L41" s="0">
+        <v>1.1432457832194536</v>
+      </c>
+      <c r="M41" s="0">
+        <v>1.1590340099328087</v>
+      </c>
+      <c r="N41" s="0">
         <v>3981</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="0">
         <v>3253</v>
       </c>
     </row>
@@ -8445,46 +9542,46 @@
       <c r="A42" s="1">
         <v>45880</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C42">
-        <v>500</v>
-      </c>
-      <c r="D42" t="s">
-        <v>599</v>
-      </c>
-      <c r="E42" t="s">
-        <v>639</v>
-      </c>
-      <c r="F42" t="s">
-        <v>679</v>
-      </c>
-      <c r="G42" t="s">
-        <v>719</v>
-      </c>
-      <c r="H42" t="s">
-        <v>759</v>
-      </c>
-      <c r="I42" t="s">
-        <v>799</v>
-      </c>
-      <c r="J42">
-        <v>38</v>
-      </c>
-      <c r="K42">
-        <v>116.65181999999999</v>
-      </c>
-      <c r="L42">
-        <v>1.1456172138523208</v>
-      </c>
-      <c r="M42">
-        <v>1.1615834279371564</v>
-      </c>
-      <c r="N42">
+      <c r="C42" s="0">
+        <v>501</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="J42" s="0">
+        <v>39</v>
+      </c>
+      <c r="K42" s="0">
+        <v>116.47944111776447</v>
+      </c>
+      <c r="L42" s="0">
+        <v>1.1433305527468272</v>
+      </c>
+      <c r="M42" s="0">
+        <v>1.1592648981408746</v>
+      </c>
+      <c r="N42" s="0">
         <v>4103</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="0">
         <v>3343.5</v>
       </c>
     </row>
@@ -8492,46 +9589,46 @@
       <c r="A43" s="1">
         <v>45881</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C43">
-        <v>513</v>
-      </c>
-      <c r="D43" t="s">
-        <v>600</v>
-      </c>
-      <c r="E43" t="s">
-        <v>640</v>
-      </c>
-      <c r="F43" t="s">
-        <v>680</v>
-      </c>
-      <c r="G43" t="s">
-        <v>720</v>
-      </c>
-      <c r="H43" t="s">
-        <v>760</v>
-      </c>
-      <c r="I43" t="s">
-        <v>800</v>
-      </c>
-      <c r="J43">
-        <v>39</v>
-      </c>
-      <c r="K43">
-        <v>117.16411306042885</v>
-      </c>
-      <c r="L43">
-        <v>1.144904060343408</v>
-      </c>
-      <c r="M43">
-        <v>1.1600012989673765</v>
-      </c>
-      <c r="N43">
+      <c r="C43" s="0">
+        <v>514</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="J43" s="0">
+        <v>40</v>
+      </c>
+      <c r="K43" s="0">
+        <v>116.99509727626459</v>
+      </c>
+      <c r="L43" s="0">
+        <v>1.1426766205372922</v>
+      </c>
+      <c r="M43" s="0">
+        <v>1.1577444871016811</v>
+      </c>
+      <c r="N43" s="0">
         <v>4231</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="0">
         <v>3434</v>
       </c>
     </row>
@@ -8539,47 +9636,235 @@
       <c r="A44" s="1">
         <v>45882</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C44">
-        <v>524</v>
-      </c>
-      <c r="D44" t="s">
-        <v>601</v>
-      </c>
-      <c r="E44" t="s">
-        <v>641</v>
-      </c>
-      <c r="F44" t="s">
-        <v>681</v>
-      </c>
-      <c r="G44" t="s">
-        <v>721</v>
-      </c>
-      <c r="H44" t="s">
-        <v>761</v>
-      </c>
-      <c r="I44" t="s">
-        <v>801</v>
-      </c>
-      <c r="J44">
-        <v>40</v>
-      </c>
-      <c r="K44">
-        <v>117.5028816793893</v>
-      </c>
-      <c r="L44">
-        <v>1.1442336455639506</v>
-      </c>
-      <c r="M44">
-        <v>1.1636485756885324</v>
-      </c>
-      <c r="N44">
+      <c r="C44" s="0">
+        <v>525</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="J44" s="0">
+        <v>41</v>
+      </c>
+      <c r="K44" s="0">
+        <v>117.3367619047619</v>
+      </c>
+      <c r="L44" s="0">
+        <v>1.1420541529057335</v>
+      </c>
+      <c r="M44" s="0">
+        <v>1.1614321022110303</v>
+      </c>
+      <c r="N44" s="0">
         <v>4359</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="0">
         <v>3517.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="0">
+        <v>530</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="J45" s="0">
+        <v>42</v>
+      </c>
+      <c r="K45" s="0">
+        <v>117.47854716981132</v>
+      </c>
+      <c r="L45" s="0">
+        <v>1.1420998921064418</v>
+      </c>
+      <c r="M45" s="0">
+        <v>1.1618003046666632</v>
+      </c>
+      <c r="N45" s="0">
+        <v>4411</v>
+      </c>
+      <c r="O45" s="0">
+        <v>3590.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="0">
+        <v>544</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="J46" s="0">
+        <v>43</v>
+      </c>
+      <c r="K46" s="0">
+        <v>117.97417279411764</v>
+      </c>
+      <c r="L46" s="0">
+        <v>1.1413933227832549</v>
+      </c>
+      <c r="M46" s="0">
+        <v>1.1600411900920473</v>
+      </c>
+      <c r="N46" s="0">
+        <v>4548</v>
+      </c>
+      <c r="O46" s="0">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="0">
+        <v>558</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="J47" s="0">
+        <v>44</v>
+      </c>
+      <c r="K47" s="0">
+        <v>118.38274193548386</v>
+      </c>
+      <c r="L47" s="0">
+        <v>1.1419561796527025</v>
+      </c>
+      <c r="M47" s="0">
+        <v>1.1578570830245314</v>
+      </c>
+      <c r="N47" s="0">
+        <v>4680</v>
+      </c>
+      <c r="O47" s="0">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="0">
+        <v>572</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J48" s="0">
+        <v>45</v>
+      </c>
+      <c r="K48" s="0">
+        <v>118.77494755244753</v>
+      </c>
+      <c r="L48" s="0">
+        <v>1.1415549606006961</v>
+      </c>
+      <c r="M48" s="0">
+        <v>1.1295179236498052</v>
+      </c>
+      <c r="N48" s="0">
+        <v>4680</v>
+      </c>
+      <c r="O48" s="0">
+        <v>3763</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/Summary/1633-SiteProgression.xlsx
+++ b/assets/data/Summary/1633-SiteProgression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3237" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2334" uniqueCount="959">
   <si>
     <t>Time</t>
   </si>
@@ -163,7 +163,19 @@
     <t>1.7592 hr</t>
   </si>
   <si>
-    <t>0.12861 hr</t>
+    <t>1.6764 hr</t>
+  </si>
+  <si>
+    <t>1.6189 hr</t>
+  </si>
+  <si>
+    <t>1.8061 hr</t>
+  </si>
+  <si>
+    <t>1.4161 hr</t>
+  </si>
+  <si>
+    <t>1.0144 hr</t>
   </si>
   <si>
     <t>mean_MoveTime</t>
@@ -301,7 +313,19 @@
     <t>8.1192 min</t>
   </si>
   <si>
-    <t>7.7167 min</t>
+    <t>7.7372 min</t>
+  </si>
+  <si>
+    <t>8.8303 min</t>
+  </si>
+  <si>
+    <t>8.3359 min</t>
+  </si>
+  <si>
+    <t>14.161 min</t>
+  </si>
+  <si>
+    <t>8.6952 min</t>
   </si>
   <si>
     <t>sum_DrillTime</t>
@@ -436,7 +460,19 @@
     <t>4.5803 hr</t>
   </si>
   <si>
-    <t>0.50278 hr</t>
+    <t>4.2722 hr</t>
+  </si>
+  <si>
+    <t>3.8764 hr</t>
+  </si>
+  <si>
+    <t>3.7692 hr</t>
+  </si>
+  <si>
+    <t>2.4306 hr</t>
+  </si>
+  <si>
+    <t>2.8989 hr</t>
   </si>
   <si>
     <t>mean_DrillTime</t>
@@ -571,7 +607,19 @@
     <t>19.63 min</t>
   </si>
   <si>
-    <t>15.083 min</t>
+    <t>18.31 min</t>
+  </si>
+  <si>
+    <t>19.382 min</t>
+  </si>
+  <si>
+    <t>16.154 min</t>
+  </si>
+  <si>
+    <t>20.833 min</t>
+  </si>
+  <si>
+    <t>21.742 min</t>
   </si>
   <si>
     <t>sum_GroutTime</t>
@@ -706,7 +754,19 @@
     <t>3.5767 hr</t>
   </si>
   <si>
-    <t>0.45306 hr</t>
+    <t>2.8403 hr</t>
+  </si>
+  <si>
+    <t>1.7192 hr</t>
+  </si>
+  <si>
+    <t>3.4656 hr</t>
+  </si>
+  <si>
+    <t>1.4414 hr</t>
+  </si>
+  <si>
+    <t>1.5517 hr</t>
   </si>
   <si>
     <t>mean_GroutTime</t>
@@ -838,7 +898,19 @@
     <t>15.329 min</t>
   </si>
   <si>
-    <t>13.592 min</t>
+    <t>12.173 min</t>
+  </si>
+  <si>
+    <t>12.894 min</t>
+  </si>
+  <si>
+    <t>14.852 min</t>
+  </si>
+  <si>
+    <t>12.355 min</t>
+  </si>
+  <si>
+    <t>11.638 min</t>
   </si>
   <si>
     <t>sum_InstallTime</t>
@@ -970,7 +1042,19 @@
     <t>8.4356 hr</t>
   </si>
   <si>
-    <t>1.0844 hr</t>
+    <t>7.5803 hr</t>
+  </si>
+  <si>
+    <t>6.6981 hr</t>
+  </si>
+  <si>
+    <t>7.7786 hr</t>
+  </si>
+  <si>
+    <t>4.2636 hr</t>
+  </si>
+  <si>
+    <t>4.6286 hr</t>
   </si>
   <si>
     <t>mean_InstallTime</t>
@@ -1102,7 +1186,19 @@
     <t>36.152 min</t>
   </si>
   <si>
-    <t>32.533 min</t>
+    <t>32.487 min</t>
+  </si>
+  <si>
+    <t>33.49 min</t>
+  </si>
+  <si>
+    <t>33.337 min</t>
+  </si>
+  <si>
+    <t>36.545 min</t>
+  </si>
+  <si>
+    <t>34.715 min</t>
   </si>
   <si>
     <t>sum_DelayTime</t>
@@ -1237,7 +1333,16 @@
     <t>0.67583 hr</t>
   </si>
   <si>
-    <t>0.045278 hr</t>
+    <t>0.63778 hr</t>
+  </si>
+  <si>
+    <t>0.75583 hr</t>
+  </si>
+  <si>
+    <t>0.91722 hr</t>
+  </si>
+  <si>
+    <t>0.45417 hr</t>
   </si>
   <si>
     <t>mean_DelayTime</t>
@@ -1372,7 +1477,19 @@
     <t>3.1192 min</t>
   </si>
   <si>
-    <t>2.7167 min</t>
+    <t>2.9436 min</t>
+  </si>
+  <si>
+    <t>4.0182 min</t>
+  </si>
+  <si>
+    <t>3.4885 min</t>
+  </si>
+  <si>
+    <t>9.1722 min</t>
+  </si>
+  <si>
+    <t>3.8929 min</t>
   </si>
   <si>
     <t>sum_CycleTime</t>
@@ -1507,7 +1624,19 @@
     <t>9.6736 hr</t>
   </si>
   <si>
-    <t>0.69417 hr</t>
+    <t>8.5786 hr</t>
+  </si>
+  <si>
+    <t>7.7678 hr</t>
+  </si>
+  <si>
+    <t>9.0353 hr</t>
+  </si>
+  <si>
+    <t>5.0467 hr</t>
+  </si>
+  <si>
+    <t>5.0319 hr</t>
   </si>
   <si>
     <t>mean_CycleTime</t>
@@ -1642,7 +1771,19 @@
     <t>44.647 min</t>
   </si>
   <si>
-    <t>41.65 min</t>
+    <t>39.594 min</t>
+  </si>
+  <si>
+    <t>42.37 min</t>
+  </si>
+  <si>
+    <t>41.701 min</t>
+  </si>
+  <si>
+    <t>50.467 min</t>
+  </si>
+  <si>
+    <t>43.131 min</t>
   </si>
   <si>
     <t>sum_PileLength</t>
@@ -1789,7 +1930,19 @@
     <t>10.195 hr</t>
   </si>
   <si>
-    <t>1.2131 hr</t>
+    <t>9.2567 hr</t>
+  </si>
+  <si>
+    <t>8.3169 hr</t>
+  </si>
+  <si>
+    <t>9.5847 hr</t>
+  </si>
+  <si>
+    <t>5.6797 hr</t>
+  </si>
+  <si>
+    <t>5.6431 hr</t>
   </si>
   <si>
     <t>PileWaste</t>
@@ -1855,6 +2008,12 @@
     <t>12 hr</t>
   </si>
   <si>
+    <t>14.5 hr</t>
+  </si>
+  <si>
+    <t>8.5 hr</t>
+  </si>
+  <si>
     <t>RigWaste</t>
   </si>
   <si>
@@ -1987,7 +2146,19 @@
     <t>105.83 hr</t>
   </si>
   <si>
-    <t>105.96 hr</t>
+    <t>107.5 hr</t>
+  </si>
+  <si>
+    <t>109.12 hr</t>
+  </si>
+  <si>
+    <t>110.93 hr</t>
+  </si>
+  <si>
+    <t>112.34 hr</t>
+  </si>
+  <si>
+    <t>113.36 hr</t>
   </si>
   <si>
     <t>HoursDrilled</t>
@@ -2119,7 +2290,19 @@
     <t>112.91 hr</t>
   </si>
   <si>
-    <t>113.42 hr</t>
+    <t>117.19 hr</t>
+  </si>
+  <si>
+    <t>121.06 hr</t>
+  </si>
+  <si>
+    <t>124.83 hr</t>
+  </si>
+  <si>
+    <t>127.26 hr</t>
+  </si>
+  <si>
+    <t>130.16 hr</t>
   </si>
   <si>
     <t>HoursGrouted</t>
@@ -2251,7 +2434,19 @@
     <t>104.83 hr</t>
   </si>
   <si>
-    <t>105.28 hr</t>
+    <t>107.67 hr</t>
+  </si>
+  <si>
+    <t>109.39 hr</t>
+  </si>
+  <si>
+    <t>112.86 hr</t>
+  </si>
+  <si>
+    <t>114.3 hr</t>
+  </si>
+  <si>
+    <t>115.85 hr</t>
   </si>
   <si>
     <t>HoursDelayed</t>
@@ -2383,7 +2578,19 @@
     <t>64.812 hr</t>
   </si>
   <si>
-    <t>64.858 hr</t>
+    <t>65.45 hr</t>
+  </si>
+  <si>
+    <t>66.187 hr</t>
+  </si>
+  <si>
+    <t>66.942 hr</t>
+  </si>
+  <si>
+    <t>67.86 hr</t>
+  </si>
+  <si>
+    <t>68.314 hr</t>
   </si>
   <si>
     <t>HoursTurn</t>
@@ -2515,7 +2722,19 @@
     <t>350.81 hr</t>
   </si>
   <si>
-    <t>352.02 hr</t>
+    <t>360.06 hr</t>
+  </si>
+  <si>
+    <t>368.38 hr</t>
+  </si>
+  <si>
+    <t>377.96 hr</t>
+  </si>
+  <si>
+    <t>383.64 hr</t>
+  </si>
+  <si>
+    <t>389.29 hr</t>
   </si>
   <si>
     <t>HoursCycle</t>
@@ -2647,7 +2866,19 @@
     <t>328.38 hr</t>
   </si>
   <si>
-    <t>329.07 hr</t>
+    <t>336.96 hr</t>
+  </si>
+  <si>
+    <t>344.72 hr</t>
+  </si>
+  <si>
+    <t>353.76 hr</t>
+  </si>
+  <si>
+    <t>358.81 hr</t>
+  </si>
+  <si>
+    <t>363.84 hr</t>
   </si>
   <si>
     <t>DaysRigDrilled</t>
@@ -2660,489 +2891,6 @@
   </si>
   <si>
     <t>AverageRigWaste</t>
-  </si>
-  <si>
-    <t>1.5742 hr</t>
-  </si>
-  <si>
-    <t>0 hr</t>
-  </si>
-  <si>
-    <t>1.6764 hr</t>
-  </si>
-  <si>
-    <t>23.612 min</t>
-  </si>
-  <si>
-    <t>0 min</t>
-  </si>
-  <si>
-    <t>7.7372 min</t>
-  </si>
-  <si>
-    <t>0.70944 hr</t>
-  </si>
-  <si>
-    <t>0.071111 hr</t>
-  </si>
-  <si>
-    <t>4.2722 hr</t>
-  </si>
-  <si>
-    <t>8.5133 min</t>
-  </si>
-  <si>
-    <t>4.2667 min</t>
-  </si>
-  <si>
-    <t>18.31 min</t>
-  </si>
-  <si>
-    <t>2.8403 hr</t>
-  </si>
-  <si>
-    <t>12.173 min</t>
-  </si>
-  <si>
-    <t>1.0558 hr</t>
-  </si>
-  <si>
-    <t>0.10306 hr</t>
-  </si>
-  <si>
-    <t>7.5803 hr</t>
-  </si>
-  <si>
-    <t>12.67 min</t>
-  </si>
-  <si>
-    <t>6.1833 min</t>
-  </si>
-  <si>
-    <t>32.487 min</t>
-  </si>
-  <si>
-    <t>1.2408 hr</t>
-  </si>
-  <si>
-    <t>0.63778 hr</t>
-  </si>
-  <si>
-    <t>18.612 min</t>
-  </si>
-  <si>
-    <t>2.9436 min</t>
-  </si>
-  <si>
-    <t>2.4914 hr</t>
-  </si>
-  <si>
-    <t>8.5786 hr</t>
-  </si>
-  <si>
-    <t>37.371 min</t>
-  </si>
-  <si>
-    <t>39.594 min</t>
-  </si>
-  <si>
-    <t>2.63 hr</t>
-  </si>
-  <si>
-    <t>9.2567 hr</t>
-  </si>
-  <si>
-    <t>63.199 hr</t>
-  </si>
-  <si>
-    <t>65.829 hr</t>
-  </si>
-  <si>
-    <t>68.399 hr</t>
-  </si>
-  <si>
-    <t>70.518 hr</t>
-  </si>
-  <si>
-    <t>73.411 hr</t>
-  </si>
-  <si>
-    <t>77.145 hr</t>
-  </si>
-  <si>
-    <t>80.744 hr</t>
-  </si>
-  <si>
-    <t>82.771 hr</t>
-  </si>
-  <si>
-    <t>86.868 hr</t>
-  </si>
-  <si>
-    <t>88.617 hr</t>
-  </si>
-  <si>
-    <t>92.038 hr</t>
-  </si>
-  <si>
-    <t>94.26 hr</t>
-  </si>
-  <si>
-    <t>95.926 hr</t>
-  </si>
-  <si>
-    <t>99.184 hr</t>
-  </si>
-  <si>
-    <t>101.81 hr</t>
-  </si>
-  <si>
-    <t>103.29 hr</t>
-  </si>
-  <si>
-    <t>103.78 hr</t>
-  </si>
-  <si>
-    <t>105.64 hr</t>
-  </si>
-  <si>
-    <t>107.4 hr</t>
-  </si>
-  <si>
-    <t>109.08 hr</t>
-  </si>
-  <si>
-    <t>57.858 hr</t>
-  </si>
-  <si>
-    <t>60.454 hr</t>
-  </si>
-  <si>
-    <t>63.628 hr</t>
-  </si>
-  <si>
-    <t>67.775 hr</t>
-  </si>
-  <si>
-    <t>71.648 hr</t>
-  </si>
-  <si>
-    <t>73.888 hr</t>
-  </si>
-  <si>
-    <t>76.923 hr</t>
-  </si>
-  <si>
-    <t>79.713 hr</t>
-  </si>
-  <si>
-    <t>79.784 hr</t>
-  </si>
-  <si>
-    <t>83.276 hr</t>
-  </si>
-  <si>
-    <t>85.946 hr</t>
-  </si>
-  <si>
-    <t>88.911 hr</t>
-  </si>
-  <si>
-    <t>91.82 hr</t>
-  </si>
-  <si>
-    <t>94.975 hr</t>
-  </si>
-  <si>
-    <t>97.538 hr</t>
-  </si>
-  <si>
-    <t>100.06 hr</t>
-  </si>
-  <si>
-    <t>102.54 hr</t>
-  </si>
-  <si>
-    <t>105.04 hr</t>
-  </si>
-  <si>
-    <t>109.11 hr</t>
-  </si>
-  <si>
-    <t>113.7 hr</t>
-  </si>
-  <si>
-    <t>117.97 hr</t>
-  </si>
-  <si>
-    <t>107.67 hr</t>
-  </si>
-  <si>
-    <t>38.384 hr</t>
-  </si>
-  <si>
-    <t>40.263 hr</t>
-  </si>
-  <si>
-    <t>41.834 hr</t>
-  </si>
-  <si>
-    <t>42.952 hr</t>
-  </si>
-  <si>
-    <t>44.845 hr</t>
-  </si>
-  <si>
-    <t>47.913 hr</t>
-  </si>
-  <si>
-    <t>50.847 hr</t>
-  </si>
-  <si>
-    <t>51.874 hr</t>
-  </si>
-  <si>
-    <t>54.86 hr</t>
-  </si>
-  <si>
-    <t>55.612 hr</t>
-  </si>
-  <si>
-    <t>58.032 hr</t>
-  </si>
-  <si>
-    <t>59.171 hr</t>
-  </si>
-  <si>
-    <t>59.767 hr</t>
-  </si>
-  <si>
-    <t>62.112 hr</t>
-  </si>
-  <si>
-    <t>63.735 hr</t>
-  </si>
-  <si>
-    <t>64.418 hr</t>
-  </si>
-  <si>
-    <t>64.583 hr</t>
-  </si>
-  <si>
-    <t>65.377 hr</t>
-  </si>
-  <si>
-    <t>66.053 hr</t>
-  </si>
-  <si>
-    <t>66.691 hr</t>
-  </si>
-  <si>
-    <t>193.11 hr</t>
-  </si>
-  <si>
-    <t>202.21 hr</t>
-  </si>
-  <si>
-    <t>211.96 hr</t>
-  </si>
-  <si>
-    <t>221.67 hr</t>
-  </si>
-  <si>
-    <t>231.54 hr</t>
-  </si>
-  <si>
-    <t>239.72 hr</t>
-  </si>
-  <si>
-    <t>248.76 hr</t>
-  </si>
-  <si>
-    <t>256.91 hr</t>
-  </si>
-  <si>
-    <t>257.01 hr</t>
-  </si>
-  <si>
-    <t>268.46 hr</t>
-  </si>
-  <si>
-    <t>276.48 hr</t>
-  </si>
-  <si>
-    <t>286.92 hr</t>
-  </si>
-  <si>
-    <t>295.92 hr</t>
-  </si>
-  <si>
-    <t>304.58 hr</t>
-  </si>
-  <si>
-    <t>313.91 hr</t>
-  </si>
-  <si>
-    <t>323.1 hr</t>
-  </si>
-  <si>
-    <t>329.97 hr</t>
-  </si>
-  <si>
-    <t>333.6 hr</t>
-  </si>
-  <si>
-    <t>343.34 hr</t>
-  </si>
-  <si>
-    <t>353.54 hr</t>
-  </si>
-  <si>
-    <t>362.8 hr</t>
-  </si>
-  <si>
-    <t>181.51 hr</t>
-  </si>
-  <si>
-    <t>188.87 hr</t>
-  </si>
-  <si>
-    <t>198.14 hr</t>
-  </si>
-  <si>
-    <t>207.21 hr</t>
-  </si>
-  <si>
-    <t>216.47 hr</t>
-  </si>
-  <si>
-    <t>224.13 hr</t>
-  </si>
-  <si>
-    <t>232.61 hr</t>
-  </si>
-  <si>
-    <t>240.27 hr</t>
-  </si>
-  <si>
-    <t>251.23 hr</t>
-  </si>
-  <si>
-    <t>258.78 hr</t>
-  </si>
-  <si>
-    <t>268.74 hr</t>
-  </si>
-  <si>
-    <t>277.25 hr</t>
-  </si>
-  <si>
-    <t>285.47 hr</t>
-  </si>
-  <si>
-    <t>294.34 hr</t>
-  </si>
-  <si>
-    <t>302.97 hr</t>
-  </si>
-  <si>
-    <t>309.35 hr</t>
-  </si>
-  <si>
-    <t>312.04 hr</t>
-  </si>
-  <si>
-    <t>321.2 hr</t>
-  </si>
-  <si>
-    <t>339.45 hr</t>
-  </si>
-  <si>
-    <t>107.5 hr</t>
-  </si>
-  <si>
-    <t>79.075 hr</t>
-  </si>
-  <si>
-    <t>82.567 hr</t>
-  </si>
-  <si>
-    <t>85.236 hr</t>
-  </si>
-  <si>
-    <t>88.201 hr</t>
-  </si>
-  <si>
-    <t>91.111 hr</t>
-  </si>
-  <si>
-    <t>94.266 hr</t>
-  </si>
-  <si>
-    <t>96.828 hr</t>
-  </si>
-  <si>
-    <t>99.351 hr</t>
-  </si>
-  <si>
-    <t>101.83 hr</t>
-  </si>
-  <si>
-    <t>104.33 hr</t>
-  </si>
-  <si>
-    <t>108.41 hr</t>
-  </si>
-  <si>
-    <t>112.99 hr</t>
-  </si>
-  <si>
-    <t>117.26 hr</t>
-  </si>
-  <si>
-    <t>65.45 hr</t>
-  </si>
-  <si>
-    <t>254.38 hr</t>
-  </si>
-  <si>
-    <t>265.83 hr</t>
-  </si>
-  <si>
-    <t>273.85 hr</t>
-  </si>
-  <si>
-    <t>284.29 hr</t>
-  </si>
-  <si>
-    <t>293.29 hr</t>
-  </si>
-  <si>
-    <t>301.95 hr</t>
-  </si>
-  <si>
-    <t>311.28 hr</t>
-  </si>
-  <si>
-    <t>320.47 hr</t>
-  </si>
-  <si>
-    <t>327.34 hr</t>
-  </si>
-  <si>
-    <t>330.97 hr</t>
-  </si>
-  <si>
-    <t>340.72 hr</t>
-  </si>
-  <si>
-    <t>350.91 hr</t>
-  </si>
-  <si>
-    <t>360.17 hr</t>
-  </si>
-  <si>
-    <t>336.96 hr</t>
   </si>
 </sst>
 </file>
@@ -3188,7 +2936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD48"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3214,7 +2962,7 @@
     <col min="18" max="18" width="16.42578125" customWidth="true"/>
     <col min="19" max="19" width="17.85546875" customWidth="true"/>
     <col min="20" max="20" width="16.28515625" customWidth="true"/>
-    <col min="21" max="21" width="10" customWidth="true"/>
+    <col min="21" max="21" width="9.5703125" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="17.85546875" customWidth="true"/>
     <col min="24" max="24" width="11.140625" customWidth="true"/>
@@ -3240,82 +2988,82 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>543</v>
+        <v>590</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>545</v>
+        <v>592</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>546</v>
+        <v>593</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>547</v>
+        <v>594</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>548</v>
+        <v>595</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>592</v>
+        <v>643</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>593</v>
+        <v>644</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>594</v>
+        <v>645</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>596</v>
+        <v>647</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>598</v>
+        <v>649</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>599</v>
+        <v>650</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>613</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2">
@@ -3332,37 +3080,37 @@
         <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="P2" s="0">
         <v>1005.6900000000001</v>
@@ -3380,7 +3128,7 @@
         <v>39.818402127995697</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="V2" s="0">
         <v>1.1696853090760726</v>
@@ -3404,7 +3152,7 @@
         <v>45818.75</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="AD2" s="0">
         <v>1.2557008148964817</v>
@@ -3424,37 +3172,37 @@
         <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="P3" s="0">
         <v>1955.6199999999997</v>
@@ -3472,7 +3220,7 @@
         <v>77.429092035866844</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>550</v>
+        <v>597</v>
       </c>
       <c r="V3" s="0">
         <v>1.1228337788040632</v>
@@ -3496,7 +3244,7 @@
         <v>45819.770833333336</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="AD3" s="0">
         <v>1.1623538082857803</v>
@@ -3516,37 +3264,37 @@
         <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="P4" s="0">
         <v>1838.0299999999997</v>
@@ -3564,7 +3312,7 @@
         <v>72.773337373663779</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>551</v>
+        <v>598</v>
       </c>
       <c r="V4" s="0">
         <v>1.1624312289766452</v>
@@ -3588,7 +3336,7 @@
         <v>45820.75</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="AD4" s="0">
         <v>1.1267863060747203</v>
@@ -3608,37 +3356,37 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>502</v>
+        <v>545</v>
       </c>
       <c r="P5" s="0">
         <v>2067.6599999999999</v>
@@ -3656,7 +3404,7 @@
         <v>81.865104897107045</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>552</v>
+        <v>599</v>
       </c>
       <c r="V5" s="0">
         <v>1.1639757882160529</v>
@@ -3680,7 +3428,7 @@
         <v>45821.75</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="AD5" s="0">
         <v>1.1237999403485905</v>
@@ -3700,37 +3448,37 @@
         <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="P6" s="0">
         <v>1071.9200000000001</v>
@@ -3748,7 +3496,7 @@
         <v>42.440654286152935</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>553</v>
+        <v>600</v>
       </c>
       <c r="V6" s="0">
         <v>1.162446734853861</v>
@@ -3772,7 +3520,7 @@
         <v>45822.6875</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>602</v>
+        <v>653</v>
       </c>
       <c r="AD6" s="0">
         <v>1.1781156733088689</v>
@@ -3792,37 +3540,37 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="P7" s="0">
         <v>2068.3699999999999</v>
@@ -3840,7 +3588,7 @@
         <v>81.893216010383355</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="V7" s="0">
         <v>1.1644187961541217</v>
@@ -3864,7 +3612,7 @@
         <v>45824.729166666664</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="AD7" s="0">
         <v>1.1600472496763934</v>
@@ -3884,37 +3632,37 @@
         <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="P8" s="0">
         <v>1071.9200000000001</v>
@@ -3932,7 +3680,7 @@
         <v>42.440654286152942</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>555</v>
+        <v>602</v>
       </c>
       <c r="V8" s="0">
         <v>1.2014659259538503</v>
@@ -3956,7 +3704,7 @@
         <v>45825.708333333336</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>604</v>
+        <v>655</v>
       </c>
       <c r="AD8" s="0">
         <v>1.1545533598426914</v>
@@ -3976,37 +3724,37 @@
         <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="P9" s="0">
         <v>1445.6899999999998</v>
@@ -4024,7 +3772,7 @@
         <v>94.620189236838073</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="V9" s="0">
         <v>1.1164530619948498</v>
@@ -4048,7 +3796,7 @@
         <v>45827.75</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="AD9" s="0">
         <v>1.1836797294883818</v>
@@ -4068,37 +3816,37 @@
         <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="P10" s="0">
         <v>1630.8099999999999</v>
@@ -4116,7 +3864,7 @@
         <v>106.73626490418272</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>557</v>
+        <v>604</v>
       </c>
       <c r="V10" s="0">
         <v>1.1267679275451865</v>
@@ -4140,7 +3888,7 @@
         <v>45828.708333333336</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="AD10" s="0">
         <v>1.1430042086400489</v>
@@ -4160,37 +3908,37 @@
         <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="P11" s="0">
         <v>1446.5899999999997</v>
@@ -4208,7 +3956,7 @@
         <v>94.679094099092893</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>558</v>
+        <v>605</v>
       </c>
       <c r="V11" s="0">
         <v>1.1332491192586092</v>
@@ -4232,7 +3980,7 @@
         <v>45831.770833333336</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="AD11" s="0">
         <v>1.172381306097261</v>
@@ -4252,37 +4000,37 @@
         <v>15</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="P12" s="0">
         <v>1583.1600000000001</v>
@@ -4300,7 +4048,7 @@
         <v>103.61757969702535</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>559</v>
+        <v>606</v>
       </c>
       <c r="V12" s="0">
         <v>1.1380404786986671</v>
@@ -4324,7 +4072,7 @@
         <v>45832.6875</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>604</v>
+        <v>655</v>
       </c>
       <c r="AD12" s="0">
         <v>0.11581046416146405</v>
@@ -4344,37 +4092,37 @@
         <v>16</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="P13" s="0">
         <v>1584.28</v>
@@ -4392,7 +4140,7 @@
         <v>103.69088352560911</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>560</v>
+        <v>607</v>
       </c>
       <c r="V13" s="0">
         <v>1.1425594610806848</v>
@@ -4416,7 +4164,7 @@
         <v>45833.6875</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>604</v>
+        <v>655</v>
       </c>
       <c r="AD13" s="0">
         <v>1.186218072581299</v>
@@ -4436,37 +4184,37 @@
         <v>17</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="P14" s="0">
         <v>1583.2899999999995</v>
@@ -4484,7 +4232,7 @@
         <v>103.62608817712881</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="V14" s="0">
         <v>1.1406104589991377</v>
@@ -4508,7 +4256,7 @@
         <v>45834.791666666664</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>605</v>
+        <v>656</v>
       </c>
       <c r="AD14" s="0">
         <v>1.1773097117346023</v>
@@ -4528,37 +4276,37 @@
         <v>18</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="P15" s="0">
         <v>1386.1299999999999</v>
@@ -4576,7 +4324,7 @@
         <v>90.721996352508768</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>561</v>
+        <v>608</v>
       </c>
       <c r="V15" s="0">
         <v>1.138566214952385</v>
@@ -4600,7 +4348,7 @@
         <v>45835.75</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="AD15" s="0">
         <v>1.1353365682098078</v>
@@ -4620,37 +4368,37 @@
         <v>19</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="P16" s="0">
         <v>1450.2899999999997</v>
@@ -4668,7 +4416,7 @@
         <v>94.921258532807101</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>562</v>
+        <v>609</v>
       </c>
       <c r="V16" s="0">
         <v>1.1405348145756238</v>
@@ -4692,7 +4440,7 @@
         <v>45838.729166666664</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="AD16" s="0">
         <v>1.2852758368962609</v>
@@ -4712,37 +4460,37 @@
         <v>20</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="P17" s="0">
         <v>1585.0899999999999</v>
@@ -4760,7 +4508,7 @@
         <v>103.74389790163845</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
       <c r="V17" s="0">
         <v>1.1373199039799773</v>
@@ -4784,7 +4532,7 @@
         <v>45839.708333333336</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="AD17" s="0">
         <v>1.1759727797741946</v>
@@ -4804,37 +4552,37 @@
         <v>21</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="P18" s="0">
         <v>1581.0699999999997</v>
@@ -4852,7 +4600,7 @@
         <v>103.4807895169003</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="V18" s="0">
         <v>1.1408784234364466</v>
@@ -4876,7 +4624,7 @@
         <v>45840.708333333336</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>604</v>
+        <v>655</v>
       </c>
       <c r="AD18" s="0">
         <v>1.1789627869052466</v>
@@ -4896,37 +4644,37 @@
         <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="P19" s="0">
         <v>663.74000000000001</v>
@@ -4944,7 +4692,7 @@
         <v>43.441681414451857</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>565</v>
+        <v>612</v>
       </c>
       <c r="V19" s="0">
         <v>1.1420138075847079</v>
@@ -4968,7 +4716,7 @@
         <v>45852.854166666664</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>606</v>
+        <v>657</v>
       </c>
       <c r="AD19" s="0">
         <v>2.0717430143037574</v>
@@ -4988,37 +4736,37 @@
         <v>23</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="P20" s="0">
         <v>924.24999999999977</v>
@@ -5036,7 +4784,7 @@
         <v>60.492021043340962</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
       <c r="V20" s="0">
         <v>1.1509121169900798</v>
@@ -5060,7 +4808,7 @@
         <v>45853.75</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="AD20" s="0">
         <v>1.2398329350951003</v>
@@ -5080,37 +4828,37 @@
         <v>24</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="P21" s="0">
         <v>1718.8499999999999</v>
@@ -5128,7 +4876,7 @@
         <v>112.498469429642</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>567</v>
+        <v>614</v>
       </c>
       <c r="V21" s="0">
         <v>1.1444955709421847</v>
@@ -5152,7 +4900,7 @@
         <v>45854.771527777775</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>607</v>
+        <v>658</v>
       </c>
       <c r="AD21" s="0">
         <v>1.2800174147263352</v>
@@ -5172,37 +4920,37 @@
         <v>25</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="P22" s="0">
         <v>1588.8299999999999</v>
@@ -5220,7 +4968,7 @@
         <v>103.98868032923065</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>568</v>
+        <v>615</v>
       </c>
       <c r="V22" s="0">
         <v>1.1333156611554043</v>
@@ -5244,7 +4992,7 @@
         <v>45855.854166666664</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>608</v>
+        <v>659</v>
       </c>
       <c r="AD22" s="0">
         <v>1.1732046181732962</v>
@@ -5264,37 +5012,37 @@
         <v>26</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="P23" s="0">
         <v>1584.3199999999997</v>
@@ -5312,7 +5060,7 @@
         <v>103.6935015194871</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
       <c r="V23" s="0">
         <v>1.1591661795451205</v>
@@ -5336,7 +5084,7 @@
         <v>45856.833333333336</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>606</v>
+        <v>657</v>
       </c>
       <c r="AD23" s="0">
         <v>1.4658584942416537</v>
@@ -5356,37 +5104,37 @@
         <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="P24" s="0">
         <v>1057.6699999999998</v>
@@ -5404,7 +5152,7 @@
         <v>69.224339623381582</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>570</v>
+        <v>617</v>
       </c>
       <c r="V24" s="0">
         <v>1.1751791413626207</v>
@@ -5428,7 +5176,7 @@
         <v>45857.583333333336</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>609</v>
+        <v>660</v>
       </c>
       <c r="AD24" s="0">
         <v>1.184554456512334</v>
@@ -5448,37 +5196,37 @@
         <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="P25" s="0">
         <v>1851.9599999999998</v>
@@ -5496,7 +5244,7 @@
         <v>121.2104985571282</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>571</v>
+        <v>618</v>
       </c>
       <c r="V25" s="0">
         <v>1.1886099118064173</v>
@@ -5520,7 +5268,7 @@
         <v>45859.791666666664</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>610</v>
+        <v>661</v>
       </c>
       <c r="AD25" s="0">
         <v>1.2210163456282257</v>
@@ -5540,37 +5288,37 @@
         <v>29</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="P26" s="0">
         <v>933.63999999999999</v>
@@ -5588,7 +5336,7 @@
         <v>61.106595106199471</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>572</v>
+        <v>619</v>
       </c>
       <c r="V26" s="0">
         <v>1.1449827940569008</v>
@@ -5612,7 +5360,7 @@
         <v>45860.895833333336</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>611</v>
+        <v>662</v>
       </c>
       <c r="AD26" s="0">
         <v>1.6692142611240297</v>
@@ -5630,37 +5378,37 @@
         <v>30</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P27" s="0"/>
       <c r="Q27" s="0"/>
@@ -5698,37 +5446,37 @@
         <v>31</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="P28" s="0">
         <v>1339.1999999999998</v>
@@ -5746,7 +5494,7 @@
         <v>87.650435035155226</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
       <c r="V28" s="0">
         <v>1.1351683532442582</v>
@@ -5770,7 +5518,7 @@
         <v>45863.729166666664</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="AD28" s="0">
         <v>1.2778031273327799</v>
@@ -5790,37 +5538,37 @@
         <v>32</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
       <c r="P29" s="0">
         <v>1720.7099999999996</v>
@@ -5838,7 +5586,7 @@
         <v>112.62020614496859</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>574</v>
+        <v>621</v>
       </c>
       <c r="V29" s="0">
         <v>1.1297794983274803</v>
@@ -5862,7 +5610,7 @@
         <v>45864.75</v>
       </c>
       <c r="AC29" s="0" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="AD29" s="0">
         <v>1.1454427621447147</v>
@@ -5882,37 +5630,37 @@
         <v>33</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>526</v>
+        <v>569</v>
       </c>
       <c r="P30" s="0">
         <v>1739.2999999999997</v>
@@ -5930,7 +5678,7 @@
         <v>113.83691879976516</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
       <c r="V30" s="0">
         <v>1.1352819574054267</v>
@@ -5954,7 +5702,7 @@
         <v>45866.75</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="AD30" s="0">
         <v>1.1332000317656712</v>
@@ -5974,37 +5722,37 @@
         <v>34</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="P31" s="0">
         <v>1726.3699999999997</v>
@@ -6022,7 +5770,7 @@
         <v>112.9906522787044</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="V31" s="0">
         <v>1.1175260736484693</v>
@@ -6046,7 +5794,7 @@
         <v>45867.770833333336</v>
       </c>
       <c r="AC31" s="0" t="s">
-        <v>612</v>
+        <v>663</v>
       </c>
       <c r="AD31" s="0">
         <v>1.1151364954439464</v>
@@ -6066,37 +5814,37 @@
         <v>35</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
       <c r="P32" s="0">
         <v>1199.3999999999999</v>
@@ -6114,7 +5862,7 @@
         <v>78.500546431574961</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>577</v>
+        <v>624</v>
       </c>
       <c r="V32" s="0">
         <v>1.1417882304568021</v>
@@ -6138,7 +5886,7 @@
         <v>45868.729166666664</v>
       </c>
       <c r="AC32" s="0" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="AD32" s="0">
         <v>1.171966364338519</v>
@@ -6158,37 +5906,37 @@
         <v>36</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="P33" s="0">
         <v>1230.2199999999998</v>
@@ -6206,7 +5954,7 @@
         <v>80.517710714567386</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>578</v>
+        <v>625</v>
       </c>
       <c r="V33" s="0">
         <v>1.1620300573582039</v>
@@ -6230,7 +5978,7 @@
         <v>45869.75</v>
       </c>
       <c r="AC33" s="0" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="AD33" s="0">
         <v>1.1426057594475947</v>
@@ -6250,37 +5998,37 @@
         <v>37</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>530</v>
+        <v>573</v>
       </c>
       <c r="P34" s="0">
         <v>1728.6299999999999</v>
@@ -6298,7 +6046,7 @@
         <v>113.13856893281093</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>579</v>
+        <v>626</v>
       </c>
       <c r="V34" s="0">
         <v>1.1435092490592784</v>
@@ -6322,7 +6070,7 @@
         <v>45870.75</v>
       </c>
       <c r="AC34" s="0" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="AD34" s="0">
         <v>1.1136785729968621</v>
@@ -6335,86 +6083,64 @@
       <c r="B35" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="0">
-        <v>1</v>
-      </c>
+      <c r="C35" s="0"/>
       <c r="D35" s="0" t="s">
-        <v>883</v>
+        <v>30</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>886</v>
+        <v>80</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>889</v>
+        <v>30</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>892</v>
+        <v>80</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>883</v>
+        <v>30</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>886</v>
+        <v>80</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>897</v>
+        <v>30</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>883</v>
+        <v>30</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>886</v>
+        <v>80</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>883</v>
+        <v>30</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="P35" s="0">
-        <v>30.289999999999999</v>
-      </c>
-      <c r="Q35" s="0">
-        <v>30.289999999999999</v>
-      </c>
-      <c r="R35" s="0">
-        <v>0</v>
-      </c>
-      <c r="S35" s="0">
-        <v>0</v>
-      </c>
-      <c r="T35" s="0">
-        <v>1.9824758641090592</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
       <c r="U35" s="0" t="s">
-        <v>897</v>
-      </c>
-      <c r="V35" s="0">
-        <v>0</v>
-      </c>
-      <c r="W35" s="0">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
       <c r="X35" s="0">
         <v>0</v>
       </c>
-      <c r="Y35" s="1">
-        <v>45871.361886574072</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>45871.366180555553</v>
-      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AD35" s="0">
-        <v>0</v>
-      </c>
+      <c r="AD35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="1">
@@ -6430,37 +6156,37 @@
         <v>38</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>531</v>
+        <v>574</v>
       </c>
       <c r="P36" s="0">
         <v>2001.0499999999995</v>
@@ -6478,7 +6204,7 @@
         <v>130.96841623887198</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>580</v>
+        <v>627</v>
       </c>
       <c r="V36" s="0">
         <v>1.1421990453573223</v>
@@ -6502,7 +6228,7 @@
         <v>45873.833333333336</v>
       </c>
       <c r="AC36" s="0" t="s">
-        <v>606</v>
+        <v>657</v>
       </c>
       <c r="AD36" s="0">
         <v>1.1605851575907333</v>
@@ -6522,37 +6248,37 @@
         <v>39</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>532</v>
+        <v>575</v>
       </c>
       <c r="P37" s="0">
         <v>1793.8199999999997</v>
@@ -6570,7 +6296,7 @@
         <v>117.40524445546755</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>581</v>
+        <v>628</v>
       </c>
       <c r="V37" s="0">
         <v>1.1442674526431145</v>
@@ -6594,7 +6320,7 @@
         <v>45874.75</v>
       </c>
       <c r="AC37" s="0" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="AD37" s="0">
         <v>1.0902409052821409</v>
@@ -6614,37 +6340,37 @@
         <v>40</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>533</v>
+        <v>576</v>
       </c>
       <c r="P38" s="0">
         <v>1743.9399999999998</v>
@@ -6662,7 +6388,7 @@
         <v>114.14060608961216</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>582</v>
+        <v>629</v>
       </c>
       <c r="V38" s="0">
         <v>1.1189619923669183</v>
@@ -6686,7 +6412,7 @@
         <v>45875.770833333336</v>
       </c>
       <c r="AC38" s="0" t="s">
-        <v>612</v>
+        <v>663</v>
       </c>
       <c r="AD38" s="0">
         <v>1.1214238682025814</v>
@@ -6706,37 +6432,37 @@
         <v>41</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>534</v>
+        <v>577</v>
       </c>
       <c r="P39" s="0">
         <v>1924.5899999999999</v>
@@ -6754,7 +6480,7 @@
         <v>125.96412094109127</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>583</v>
+        <v>630</v>
       </c>
       <c r="V39" s="0">
         <v>1.1251299095420988</v>
@@ -6778,7 +6504,7 @@
         <v>45876.729166666664</v>
       </c>
       <c r="AC39" s="0" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="AD39" s="0">
         <v>1.0876112894406638</v>
@@ -6798,37 +6524,37 @@
         <v>42</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>535</v>
+        <v>578</v>
       </c>
       <c r="P40" s="0">
         <v>1904.8199999999999</v>
@@ -6846,7 +6572,7 @@
         <v>124.67017746689395</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>584</v>
+        <v>631</v>
       </c>
       <c r="V40" s="0">
         <v>1.1130087629565404</v>
@@ -6870,7 +6596,7 @@
         <v>45877.708333333336</v>
       </c>
       <c r="AC40" s="0" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="AD40" s="0">
         <v>1.0908783701387983</v>
@@ -6888,37 +6614,37 @@
         <v>30</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>30</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L41" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N41" s="0" t="s">
         <v>30</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P41" s="0"/>
       <c r="Q41" s="0"/>
@@ -6956,37 +6682,37 @@
         <v>43</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="P42" s="0">
         <v>1594.9899999999998</v>
@@ -7004,7 +6730,7 @@
         <v>104.39185138644132</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>585</v>
+        <v>632</v>
       </c>
       <c r="V42" s="0">
         <v>1.1467849109873045</v>
@@ -7028,7 +6754,7 @@
         <v>45880.75</v>
       </c>
       <c r="AC42" s="0" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="AD42" s="0">
         <v>1.1686735926195642</v>
@@ -7048,37 +6774,37 @@
         <v>44</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="P43" s="0">
         <v>1779.2799999999997</v>
@@ -7096,7 +6822,7 @@
         <v>116.45360368081765</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>586</v>
+        <v>633</v>
       </c>
       <c r="V43" s="0">
         <v>1.1174750792313679</v>
@@ -7120,7 +6846,7 @@
         <v>45881.75</v>
       </c>
       <c r="AC43" s="0" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="AD43" s="0">
         <v>1.0991501847450711</v>
@@ -7140,37 +6866,37 @@
         <v>45</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="P44" s="0">
         <v>1466.3200000000002</v>
@@ -7188,7 +6914,7 @@
         <v>95.970419579412194</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>587</v>
+        <v>634</v>
       </c>
       <c r="V44" s="0">
         <v>1.1129679381219832</v>
@@ -7212,7 +6938,7 @@
         <v>45882.729166666664</v>
       </c>
       <c r="AC44" s="0" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="AD44" s="0">
         <v>1.3337442991388033</v>
@@ -7232,37 +6958,37 @@
         <v>46</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="P45" s="0">
         <v>661.83000000000004</v>
@@ -7280,7 +7006,7 @@
         <v>43.316672206777767</v>
       </c>
       <c r="U45" s="0" t="s">
-        <v>588</v>
+        <v>635</v>
       </c>
       <c r="V45" s="0">
         <v>1.146902508180824</v>
@@ -7304,7 +7030,7 @@
         <v>45884.729166666664</v>
       </c>
       <c r="AC45" s="0" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="AD45" s="0">
         <v>1.2004615625081085</v>
@@ -7324,37 +7050,37 @@
         <v>47</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="P46" s="0">
         <v>1914.3199999999997</v>
@@ -7372,7 +7098,7 @@
         <v>125.29195101291691</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>589</v>
+        <v>636</v>
       </c>
       <c r="V46" s="0">
         <v>1.1146446269768937</v>
@@ -7396,7 +7122,7 @@
         <v>45887.75</v>
       </c>
       <c r="AC46" s="0" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="AD46" s="0">
         <v>1.0934461383387353</v>
@@ -7416,37 +7142,37 @@
         <v>48</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="P47" s="0">
         <v>1879.6199999999997</v>
@@ -7464,7 +7190,7 @@
         <v>123.02084132375929</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>590</v>
+        <v>637</v>
       </c>
       <c r="V47" s="0">
         <v>1.1638271894369521</v>
@@ -7488,7 +7214,7 @@
         <v>45888.770833333336</v>
       </c>
       <c r="AC47" s="0" t="s">
-        <v>610</v>
+        <v>661</v>
       </c>
       <c r="AD47" s="0">
         <v>1.0729889226867655</v>
@@ -7505,40 +7231,40 @@
         <v>14</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>884</v>
+        <v>49</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>887</v>
+        <v>99</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>890</v>
+        <v>148</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>893</v>
+        <v>197</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>894</v>
+        <v>246</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>895</v>
+        <v>294</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>898</v>
+        <v>342</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>901</v>
+        <v>390</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>903</v>
+        <v>439</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>905</v>
+        <v>487</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>907</v>
+        <v>536</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>909</v>
+        <v>585</v>
       </c>
       <c r="P48" s="0">
         <v>1881.7000000000003</v>
@@ -7556,16 +7282,16 @@
         <v>123.15697700541486</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>911</v>
+        <v>638</v>
       </c>
       <c r="V48" s="0">
         <v>1.125563515527872</v>
       </c>
       <c r="W48" s="0">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="X48" s="0">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="Y48" s="1">
         <v>45889.341608796298</v>
@@ -7573,12 +7299,380 @@
       <c r="Z48" s="1">
         <v>45889.727303240739</v>
       </c>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
+      <c r="AA48" s="1">
+        <v>45889.270833333336</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>45889.770833333336</v>
+      </c>
       <c r="AC48" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="AD48" s="0">
+        <v>1.0718028585111856</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="0">
+        <v>12</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="P49" s="0">
+        <v>1632.3900000000001</v>
+      </c>
+      <c r="Q49" s="0">
+        <v>136.0325</v>
+      </c>
+      <c r="R49" s="0">
+        <v>1.1318303819194797</v>
+      </c>
+      <c r="S49" s="0">
+        <v>120.88800000000001</v>
+      </c>
+      <c r="T49" s="0">
+        <v>106.83967566236339</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="V49" s="0">
+        <v>1.1314897696061188</v>
+      </c>
+      <c r="W49" s="0">
+        <v>112</v>
+      </c>
+      <c r="X49" s="0">
+        <v>860</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>45890.311516203707</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>45890.658055555556</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>45890.270833333336</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>45890.770833333336</v>
+      </c>
+      <c r="AC49" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="AD49" s="0">
+        <v>1.0482997005152315</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="0">
+        <v>14</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="P50" s="0">
+        <v>1890.6299999999997</v>
+      </c>
+      <c r="Q50" s="0">
+        <v>135.04499999999999</v>
+      </c>
+      <c r="R50" s="0">
+        <v>1.1348992356324246</v>
+      </c>
+      <c r="S50" s="0">
+        <v>140.41500000000002</v>
+      </c>
+      <c r="T50" s="0">
+        <v>123.74144413867647</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="V50" s="0">
+        <v>1.1347451209849917</v>
+      </c>
+      <c r="W50" s="0">
+        <v>132</v>
+      </c>
+      <c r="X50" s="0">
+        <v>111.5</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>45891.303657407407</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>45891.703020833331</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>45891.270833333336</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>45891.875</v>
+      </c>
+      <c r="AC50" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="AD50" s="0">
+        <v>1.0667404192573364</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="0">
+        <v>7</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="P51" s="0">
+        <v>966</v>
+      </c>
+      <c r="Q51" s="0">
+        <v>138</v>
+      </c>
+      <c r="R51" s="0">
+        <v>1.1240596402112544</v>
+      </c>
+      <c r="S51" s="0">
+        <v>71.070000000000007</v>
+      </c>
+      <c r="T51" s="0">
+        <v>63.224552153494585</v>
+      </c>
+      <c r="U51" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="V51" s="0">
+        <v>1.1240886266376153</v>
+      </c>
+      <c r="W51" s="0">
+        <v>72</v>
+      </c>
+      <c r="X51" s="0">
+        <v>680</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>45892.307430555556</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>45892.544085648151</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>45892.270833333336</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>45892.625</v>
+      </c>
+      <c r="AC51" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="AD51" s="0">
+        <v>1.1387981021233753</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0">
+        <v>8</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="P52" s="0">
+        <v>1077.6799999999998</v>
+      </c>
+      <c r="Q52" s="0">
+        <v>134.70999999999998</v>
+      </c>
+      <c r="R52" s="0">
+        <v>1.113307056911145</v>
+      </c>
+      <c r="S52" s="0">
+        <v>78.522000000000006</v>
+      </c>
+      <c r="T52" s="0">
+        <v>70.533991060846844</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="V52" s="0">
+        <v>1.1132504884384358</v>
+      </c>
+      <c r="W52" s="0">
+        <v>0</v>
+      </c>
+      <c r="X52" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>45894.311157407406</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>45894.546284722222</v>
+      </c>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AD48" s="0">
+      <c r="AD52" s="0">
         <v>0</v>
       </c>
     </row>
@@ -7588,7 +7682,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7622,40 +7716,40 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>614</v>
+        <v>667</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>658</v>
+        <v>715</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>702</v>
+        <v>763</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>746</v>
+        <v>811</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>790</v>
+        <v>859</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>834</v>
+        <v>907</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>878</v>
+        <v>955</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>879</v>
+        <v>956</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>880</v>
+        <v>957</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>881</v>
+        <v>958</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>593</v>
+        <v>644</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>594</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2">
@@ -7672,19 +7766,19 @@
         <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="J2" s="0">
         <v>1</v>
@@ -7716,22 +7810,22 @@
         <v>40</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>615</v>
+        <v>668</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>659</v>
+        <v>716</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>703</v>
+        <v>764</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>747</v>
+        <v>812</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>791</v>
+        <v>860</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>835</v>
+        <v>908</v>
       </c>
       <c r="J3" s="0">
         <v>2</v>
@@ -7763,22 +7857,22 @@
         <v>64</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>616</v>
+        <v>669</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>660</v>
+        <v>717</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>704</v>
+        <v>765</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>748</v>
+        <v>813</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>792</v>
+        <v>861</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>836</v>
+        <v>909</v>
       </c>
       <c r="J4" s="0">
         <v>3</v>
@@ -7810,22 +7904,22 @@
         <v>91</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>661</v>
+        <v>718</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>705</v>
+        <v>766</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>749</v>
+        <v>814</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>793</v>
+        <v>862</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>837</v>
+        <v>910</v>
       </c>
       <c r="J5" s="0">
         <v>4</v>
@@ -7857,22 +7951,22 @@
         <v>105</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>618</v>
+        <v>671</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>662</v>
+        <v>719</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>706</v>
+        <v>767</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>750</v>
+        <v>815</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>794</v>
+        <v>863</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>838</v>
+        <v>911</v>
       </c>
       <c r="J6" s="0">
         <v>5</v>
@@ -7904,22 +7998,22 @@
         <v>132</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>663</v>
+        <v>720</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>707</v>
+        <v>768</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>751</v>
+        <v>816</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>795</v>
+        <v>864</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>839</v>
+        <v>912</v>
       </c>
       <c r="J7" s="0">
         <v>6</v>
@@ -7951,22 +8045,22 @@
         <v>146</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>664</v>
+        <v>721</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>708</v>
+        <v>769</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>752</v>
+        <v>817</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>796</v>
+        <v>865</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>840</v>
+        <v>913</v>
       </c>
       <c r="J8" s="0">
         <v>7</v>
@@ -7998,22 +8092,22 @@
         <v>157</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>621</v>
+        <v>674</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>665</v>
+        <v>722</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>709</v>
+        <v>770</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>753</v>
+        <v>818</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>797</v>
+        <v>866</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>841</v>
+        <v>914</v>
       </c>
       <c r="J9" s="0">
         <v>8</v>
@@ -8045,22 +8139,22 @@
         <v>169</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>622</v>
+        <v>675</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>666</v>
+        <v>723</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>710</v>
+        <v>771</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>754</v>
+        <v>819</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>798</v>
+        <v>867</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>842</v>
+        <v>915</v>
       </c>
       <c r="J10" s="0">
         <v>9</v>
@@ -8092,22 +8186,22 @@
         <v>180</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>623</v>
+        <v>676</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>667</v>
+        <v>724</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>755</v>
+        <v>820</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>799</v>
+        <v>868</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>843</v>
+        <v>916</v>
       </c>
       <c r="J11" s="0">
         <v>10</v>
@@ -8139,22 +8233,22 @@
         <v>192</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>624</v>
+        <v>677</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>668</v>
+        <v>725</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>712</v>
+        <v>773</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>756</v>
+        <v>821</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>800</v>
+        <v>869</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>844</v>
+        <v>917</v>
       </c>
       <c r="J12" s="0">
         <v>11</v>
@@ -8186,22 +8280,22 @@
         <v>204</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>625</v>
+        <v>678</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>669</v>
+        <v>726</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>713</v>
+        <v>774</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>757</v>
+        <v>822</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>801</v>
+        <v>870</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>845</v>
+        <v>918</v>
       </c>
       <c r="J13" s="0">
         <v>12</v>
@@ -8233,22 +8327,22 @@
         <v>216</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>626</v>
+        <v>679</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>670</v>
+        <v>727</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>714</v>
+        <v>775</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>758</v>
+        <v>823</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>802</v>
+        <v>871</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>846</v>
+        <v>919</v>
       </c>
       <c r="J14" s="0">
         <v>13</v>
@@ -8280,22 +8374,22 @@
         <v>226</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>627</v>
+        <v>680</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>671</v>
+        <v>728</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>715</v>
+        <v>776</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>759</v>
+        <v>824</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>803</v>
+        <v>872</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>847</v>
+        <v>920</v>
       </c>
       <c r="J15" s="0">
         <v>14</v>
@@ -8327,22 +8421,22 @@
         <v>237</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>628</v>
+        <v>681</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>672</v>
+        <v>729</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>716</v>
+        <v>777</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>760</v>
+        <v>825</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>804</v>
+        <v>873</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>848</v>
+        <v>921</v>
       </c>
       <c r="J16" s="0">
         <v>15</v>
@@ -8374,22 +8468,22 @@
         <v>249</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>629</v>
+        <v>682</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>673</v>
+        <v>730</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>717</v>
+        <v>778</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>761</v>
+        <v>826</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>805</v>
+        <v>874</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>849</v>
+        <v>922</v>
       </c>
       <c r="J17" s="0">
         <v>16</v>
@@ -8421,22 +8515,22 @@
         <v>261</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>674</v>
+        <v>731</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>718</v>
+        <v>779</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>762</v>
+        <v>827</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>806</v>
+        <v>875</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>850</v>
+        <v>923</v>
       </c>
       <c r="J18" s="0">
         <v>17</v>
@@ -8468,22 +8562,22 @@
         <v>266</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>631</v>
+        <v>684</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>675</v>
+        <v>732</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>719</v>
+        <v>780</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>763</v>
+        <v>828</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>807</v>
+        <v>876</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>851</v>
+        <v>924</v>
       </c>
       <c r="J19" s="0">
         <v>18</v>
@@ -8515,22 +8609,22 @@
         <v>273</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>632</v>
+        <v>685</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>676</v>
+        <v>733</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>720</v>
+        <v>781</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>764</v>
+        <v>829</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>808</v>
+        <v>877</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>852</v>
+        <v>925</v>
       </c>
       <c r="J20" s="0">
         <v>19</v>
@@ -8562,22 +8656,22 @@
         <v>286</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>633</v>
+        <v>686</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>677</v>
+        <v>734</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>721</v>
+        <v>782</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>765</v>
+        <v>830</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>809</v>
+        <v>878</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>853</v>
+        <v>926</v>
       </c>
       <c r="J21" s="0">
         <v>20</v>
@@ -8609,22 +8703,22 @@
         <v>298</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>678</v>
+        <v>735</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>722</v>
+        <v>783</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>766</v>
+        <v>831</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>810</v>
+        <v>879</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>854</v>
+        <v>927</v>
       </c>
       <c r="J22" s="0">
         <v>21</v>
@@ -8656,22 +8750,22 @@
         <v>310</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>635</v>
+        <v>688</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>679</v>
+        <v>736</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>723</v>
+        <v>784</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>767</v>
+        <v>832</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>811</v>
+        <v>880</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>855</v>
+        <v>928</v>
       </c>
       <c r="J23" s="0">
         <v>22</v>
@@ -8703,22 +8797,22 @@
         <v>318</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>636</v>
+        <v>689</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>680</v>
+        <v>737</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>724</v>
+        <v>785</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>768</v>
+        <v>833</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>812</v>
+        <v>881</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="J24" s="0">
         <v>23</v>
@@ -8750,22 +8844,22 @@
         <v>332</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>637</v>
+        <v>690</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>681</v>
+        <v>738</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>725</v>
+        <v>786</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>769</v>
+        <v>834</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>813</v>
+        <v>882</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>857</v>
+        <v>930</v>
       </c>
       <c r="J25" s="0">
         <v>24</v>
@@ -8797,22 +8891,22 @@
         <v>339</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>638</v>
+        <v>691</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>726</v>
+        <v>787</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>770</v>
+        <v>835</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>814</v>
+        <v>883</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>858</v>
+        <v>931</v>
       </c>
       <c r="J26" s="0">
         <v>25</v>
@@ -8844,22 +8938,22 @@
         <v>339</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>638</v>
+        <v>691</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>726</v>
+        <v>787</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>770</v>
+        <v>835</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>814</v>
+        <v>883</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>858</v>
+        <v>931</v>
       </c>
       <c r="J27" s="0">
         <v>25</v>
@@ -8891,22 +8985,22 @@
         <v>349</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>639</v>
+        <v>692</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>683</v>
+        <v>740</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>727</v>
+        <v>788</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>771</v>
+        <v>836</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>815</v>
+        <v>884</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>859</v>
+        <v>932</v>
       </c>
       <c r="J28" s="0">
         <v>26</v>
@@ -8938,22 +9032,22 @@
         <v>362</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>640</v>
+        <v>693</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>684</v>
+        <v>741</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>728</v>
+        <v>789</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>772</v>
+        <v>837</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>816</v>
+        <v>885</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>860</v>
+        <v>933</v>
       </c>
       <c r="J29" s="0">
         <v>27</v>
@@ -8985,22 +9079,22 @@
         <v>375</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>641</v>
+        <v>694</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>685</v>
+        <v>742</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>729</v>
+        <v>790</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>773</v>
+        <v>838</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>817</v>
+        <v>886</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>861</v>
+        <v>934</v>
       </c>
       <c r="J30" s="0">
         <v>28</v>
@@ -9032,22 +9126,22 @@
         <v>388</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>642</v>
+        <v>695</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>686</v>
+        <v>743</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>730</v>
+        <v>791</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>774</v>
+        <v>839</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>818</v>
+        <v>887</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>862</v>
+        <v>935</v>
       </c>
       <c r="J31" s="0">
         <v>29</v>
@@ -9079,22 +9173,22 @@
         <v>397</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>643</v>
+        <v>696</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>687</v>
+        <v>744</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>731</v>
+        <v>792</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>775</v>
+        <v>840</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>819</v>
+        <v>888</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>863</v>
+        <v>936</v>
       </c>
       <c r="J32" s="0">
         <v>30</v>
@@ -9126,22 +9220,22 @@
         <v>406</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>644</v>
+        <v>697</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>688</v>
+        <v>745</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>732</v>
+        <v>793</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>776</v>
+        <v>841</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>820</v>
+        <v>889</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>864</v>
+        <v>937</v>
       </c>
       <c r="J33" s="0">
         <v>31</v>
@@ -9173,22 +9267,22 @@
         <v>419</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>645</v>
+        <v>698</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>689</v>
+        <v>746</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>733</v>
+        <v>794</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>777</v>
+        <v>842</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>821</v>
+        <v>890</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>865</v>
+        <v>938</v>
       </c>
       <c r="J34" s="0">
         <v>32</v>
@@ -9217,37 +9311,37 @@
         <v>2</v>
       </c>
       <c r="C35" s="0">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>645</v>
+        <v>698</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1015</v>
+        <v>746</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>733</v>
+        <v>794</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>777</v>
+        <v>842</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>1029</v>
+        <v>890</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>865</v>
+        <v>938</v>
       </c>
       <c r="J35" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K35" s="0">
-        <v>112.84045238095237</v>
+        <v>113.03747016706443</v>
       </c>
       <c r="L35" s="0">
-        <v>1.1456149478900992</v>
+        <v>1.1483491124435363</v>
       </c>
       <c r="M35" s="0">
-        <v>1.1669246576282586</v>
+        <v>1.1697096806774909</v>
       </c>
       <c r="N35" s="0">
         <v>3300</v>
@@ -9264,37 +9358,37 @@
         <v>2</v>
       </c>
       <c r="C36" s="0">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>646</v>
+        <v>699</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1016</v>
+        <v>747</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>734</v>
+        <v>795</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>778</v>
+        <v>843</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>1030</v>
+        <v>891</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>866</v>
+        <v>939</v>
       </c>
       <c r="J36" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K36" s="0">
-        <v>113.54951724137931</v>
+        <v>113.74135944700461</v>
       </c>
       <c r="L36" s="0">
-        <v>1.1454971581475897</v>
+        <v>1.1481365525212015</v>
       </c>
       <c r="M36" s="0">
-        <v>1.1667060541786889</v>
+        <v>1.1693943169763357</v>
       </c>
       <c r="N36" s="0">
         <v>3452</v>
@@ -9311,37 +9405,37 @@
         <v>2</v>
       </c>
       <c r="C37" s="0">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>647</v>
+        <v>700</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1017</v>
+        <v>748</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>735</v>
+        <v>796</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>779</v>
+        <v>844</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>1031</v>
+        <v>892</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>867</v>
+        <v>940</v>
       </c>
       <c r="J37" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K37" s="0">
-        <v>114.25861607142858</v>
+        <v>114.44646532438479</v>
       </c>
       <c r="L37" s="0">
-        <v>1.1454614747289329</v>
+        <v>1.1480240283636733</v>
       </c>
       <c r="M37" s="0">
-        <v>1.1644871994116015</v>
+        <v>1.1670923161888087</v>
       </c>
       <c r="N37" s="0">
         <v>3580</v>
@@ -9358,37 +9452,37 @@
         <v>2</v>
       </c>
       <c r="C38" s="0">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>648</v>
+        <v>701</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1018</v>
+        <v>749</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>736</v>
+        <v>797</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>780</v>
+        <v>845</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>1032</v>
+        <v>893</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>868</v>
+        <v>941</v>
       </c>
       <c r="J38" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K38" s="0">
-        <v>114.81952277657267</v>
+        <v>115.00328260869566</v>
       </c>
       <c r="L38" s="0">
-        <v>1.1447142008228457</v>
+        <v>1.1472027099550692</v>
       </c>
       <c r="M38" s="0">
-        <v>1.1632728321540804</v>
+        <v>1.165801686137024</v>
       </c>
       <c r="N38" s="0">
         <v>3708</v>
@@ -9405,37 +9499,37 @@
         <v>2</v>
       </c>
       <c r="C39" s="0">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>649</v>
+        <v>702</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1019</v>
+        <v>750</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>737</v>
+        <v>798</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>781</v>
+        <v>846</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>1033</v>
+        <v>894</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>869</v>
+        <v>942</v>
       </c>
       <c r="J39" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K39" s="0">
-        <v>115.48713684210526</v>
+        <v>115.6668776371308</v>
       </c>
       <c r="L39" s="0">
-        <v>1.14413697960615</v>
+        <v>1.1465507707023657</v>
       </c>
       <c r="M39" s="0">
-        <v>1.1610428077372639</v>
+        <v>1.1634922651375534</v>
       </c>
       <c r="N39" s="0">
         <v>3845</v>
@@ -9452,37 +9546,37 @@
         <v>2</v>
       </c>
       <c r="C40" s="0">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>650</v>
+        <v>703</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1020</v>
+        <v>751</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>738</v>
+        <v>799</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>782</v>
+        <v>847</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>1034</v>
+        <v>895</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>870</v>
+        <v>943</v>
       </c>
       <c r="J40" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K40" s="0">
-        <v>116.07609406952965</v>
+        <v>116.25188524590163</v>
       </c>
       <c r="L40" s="0">
-        <v>1.1432457832194536</v>
+        <v>1.1455884999883459</v>
       </c>
       <c r="M40" s="0">
-        <v>1.1590340099328087</v>
+        <v>1.161409079625294</v>
       </c>
       <c r="N40" s="0">
         <v>3981</v>
@@ -9499,37 +9593,37 @@
         <v>2</v>
       </c>
       <c r="C41" s="0">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>650</v>
+        <v>703</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1020</v>
+        <v>751</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>738</v>
+        <v>799</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>782</v>
+        <v>847</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>1034</v>
+        <v>895</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>870</v>
+        <v>943</v>
       </c>
       <c r="J41" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K41" s="0">
-        <v>116.07609406952965</v>
+        <v>116.25188524590163</v>
       </c>
       <c r="L41" s="0">
-        <v>1.1432457832194536</v>
+        <v>1.1455884999883459</v>
       </c>
       <c r="M41" s="0">
-        <v>1.1590340099328087</v>
+        <v>1.161409079625294</v>
       </c>
       <c r="N41" s="0">
         <v>3981</v>
@@ -9546,37 +9640,37 @@
         <v>2</v>
       </c>
       <c r="C42" s="0">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>651</v>
+        <v>704</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1021</v>
+        <v>752</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>739</v>
+        <v>800</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>783</v>
+        <v>848</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>1035</v>
+        <v>896</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>871</v>
+        <v>944</v>
       </c>
       <c r="J42" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K42" s="0">
-        <v>116.47944111776447</v>
+        <v>116.65181999999999</v>
       </c>
       <c r="L42" s="0">
-        <v>1.1433305527468272</v>
+        <v>1.1456172138523208</v>
       </c>
       <c r="M42" s="0">
-        <v>1.1592648981408746</v>
+        <v>1.1615834279371564</v>
       </c>
       <c r="N42" s="0">
         <v>4103</v>
@@ -9593,37 +9687,37 @@
         <v>2</v>
       </c>
       <c r="C43" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>652</v>
+        <v>705</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1022</v>
+        <v>753</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>784</v>
+        <v>849</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>1036</v>
+        <v>897</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>872</v>
+        <v>945</v>
       </c>
       <c r="J43" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43" s="0">
-        <v>116.99509727626459</v>
+        <v>117.16411306042885</v>
       </c>
       <c r="L43" s="0">
-        <v>1.1426766205372922</v>
+        <v>1.144904060343408</v>
       </c>
       <c r="M43" s="0">
-        <v>1.1577444871016811</v>
+        <v>1.1600012989673765</v>
       </c>
       <c r="N43" s="0">
         <v>4231</v>
@@ -9640,37 +9734,37 @@
         <v>2</v>
       </c>
       <c r="C44" s="0">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1023</v>
+        <v>754</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>741</v>
+        <v>802</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>785</v>
+        <v>850</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>1037</v>
+        <v>898</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>873</v>
+        <v>946</v>
       </c>
       <c r="J44" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K44" s="0">
-        <v>117.3367619047619</v>
+        <v>117.5028816793893</v>
       </c>
       <c r="L44" s="0">
-        <v>1.1420541529057335</v>
+        <v>1.1442336455639506</v>
       </c>
       <c r="M44" s="0">
-        <v>1.1614321022110303</v>
+        <v>1.1636485756885324</v>
       </c>
       <c r="N44" s="0">
         <v>4359</v>
@@ -9687,37 +9781,37 @@
         <v>2</v>
       </c>
       <c r="C45" s="0">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>654</v>
+        <v>707</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1024</v>
+        <v>755</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>742</v>
+        <v>803</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>786</v>
+        <v>851</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>1038</v>
+        <v>899</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>874</v>
+        <v>947</v>
       </c>
       <c r="J45" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K45" s="0">
-        <v>117.47854716981132</v>
+        <v>117.64336483931946</v>
       </c>
       <c r="L45" s="0">
-        <v>1.1420998921064418</v>
+        <v>1.1442588711085335</v>
       </c>
       <c r="M45" s="0">
-        <v>1.1618003046666632</v>
+        <v>1.1639965245242561</v>
       </c>
       <c r="N45" s="0">
         <v>4411</v>
@@ -9734,37 +9828,37 @@
         <v>2</v>
       </c>
       <c r="C46" s="0">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>655</v>
+        <v>708</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1025</v>
+        <v>756</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>743</v>
+        <v>804</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>787</v>
+        <v>852</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>1039</v>
+        <v>900</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>875</v>
+        <v>948</v>
       </c>
       <c r="J46" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46" s="0">
-        <v>117.97417279411764</v>
+        <v>118.13565377532228</v>
       </c>
       <c r="L46" s="0">
-        <v>1.1413933227832549</v>
+        <v>1.1434953362690436</v>
       </c>
       <c r="M46" s="0">
-        <v>1.1600411900920473</v>
+        <v>1.1621775458749057</v>
       </c>
       <c r="N46" s="0">
         <v>4548</v>
@@ -9781,37 +9875,37 @@
         <v>2</v>
       </c>
       <c r="C47" s="0">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>656</v>
+        <v>709</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1026</v>
+        <v>757</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>744</v>
+        <v>805</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>788</v>
+        <v>853</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>1040</v>
+        <v>901</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>876</v>
+        <v>949</v>
       </c>
       <c r="J47" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K47" s="0">
-        <v>118.38274193548386</v>
+        <v>118.54089766606822</v>
       </c>
       <c r="L47" s="0">
-        <v>1.1419561796527025</v>
+        <v>1.1440063702804451</v>
       </c>
       <c r="M47" s="0">
-        <v>1.1578570830245314</v>
+        <v>1.1599358210550961</v>
       </c>
       <c r="N47" s="0">
         <v>4680</v>
@@ -9828,43 +9922,231 @@
         <v>2</v>
       </c>
       <c r="C48" s="0">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1014</v>
+        <v>710</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1027</v>
+        <v>758</v>
       </c>
       <c r="F48" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="J48" s="0">
+        <v>44</v>
+      </c>
+      <c r="K48" s="0">
+        <v>118.92991243432574</v>
+      </c>
+      <c r="L48" s="0">
+        <v>1.1435541811971948</v>
+      </c>
+      <c r="M48" s="0">
+        <v>1.1577749428140895</v>
+      </c>
+      <c r="N48" s="0">
+        <v>4812</v>
+      </c>
+      <c r="O48" s="0">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="0">
+        <v>583</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="J49" s="0">
+        <v>45</v>
+      </c>
+      <c r="K49" s="0">
+        <v>119.28193825042881</v>
+      </c>
+      <c r="L49" s="0">
+        <v>1.1433058571164179</v>
+      </c>
+      <c r="M49" s="0">
+        <v>1.1555215930583669</v>
+      </c>
+      <c r="N49" s="0">
+        <v>4924</v>
+      </c>
+      <c r="O49" s="0">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="0">
+        <v>597</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="J50" s="0">
+        <v>46</v>
+      </c>
+      <c r="K50" s="0">
+        <v>119.65159128978225</v>
+      </c>
+      <c r="L50" s="0">
+        <v>1.1431051028352788</v>
+      </c>
+      <c r="M50" s="0">
+        <v>1.1534396224834684</v>
+      </c>
+      <c r="N50" s="0">
+        <v>5056</v>
+      </c>
+      <c r="O50" s="0">
+        <v>5674.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="0">
+        <v>604</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="I51" s="0" t="s">
         <v>953</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J48" s="0">
-        <v>45</v>
-      </c>
-      <c r="K48" s="0">
-        <v>118.77494755244753</v>
-      </c>
-      <c r="L48" s="0">
-        <v>1.1415549606006961</v>
-      </c>
-      <c r="M48" s="0">
-        <v>1.1295179236498052</v>
-      </c>
-      <c r="N48" s="0">
-        <v>4680</v>
-      </c>
-      <c r="O48" s="0">
-        <v>3763</v>
+      <c r="J51" s="0">
+        <v>47</v>
+      </c>
+      <c r="K51" s="0">
+        <v>119.86423841059603</v>
+      </c>
+      <c r="L51" s="0">
+        <v>1.1428847132104716</v>
+      </c>
+      <c r="M51" s="0">
+        <v>1.1532699359892291</v>
+      </c>
+      <c r="N51" s="0">
+        <v>5128</v>
+      </c>
+      <c r="O51" s="0">
+        <v>6354.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0">
+        <v>612</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="J52" s="0">
+        <v>48</v>
+      </c>
+      <c r="K52" s="0">
+        <v>120.05830065359476</v>
+      </c>
+      <c r="L52" s="0">
+        <v>1.1424973377232555</v>
+      </c>
+      <c r="M52" s="0">
+        <v>1.1381945119893697</v>
+      </c>
+      <c r="N52" s="0">
+        <v>5128</v>
+      </c>
+      <c r="O52" s="0">
+        <v>6354.5</v>
       </c>
     </row>
   </sheetData>
